--- a/反復２/反復２WBSガントチャート.xlsx
+++ b/反復２/反復２WBSガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE212EB-72B1-40EE-865D-40FA3E7A87D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17594FBA-8FAB-48D1-8A57-B72276410289}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1520,6 +1520,30 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1529,7 +1553,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1538,31 +1568,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1589,6 +1598,96 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1618,105 +1717,6 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2326,10 +2326,10 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2348,120 +2348,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="94" t="s">
+      <c r="A1" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="94" t="s">
+      <c r="I1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="94" t="s">
+      <c r="J1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="88" t="s">
+      <c r="K1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="78">
+      <c r="L1" s="111">
         <v>43992</v>
       </c>
-      <c r="M1" s="79"/>
-      <c r="N1" s="78">
+      <c r="M1" s="112"/>
+      <c r="N1" s="111">
         <v>43993</v>
       </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="78">
+      <c r="O1" s="112"/>
+      <c r="P1" s="111">
         <v>43994</v>
       </c>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="78">
+      <c r="Q1" s="112"/>
+      <c r="R1" s="111">
         <v>43987</v>
       </c>
-      <c r="S1" s="79"/>
+      <c r="S1" s="112"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="98"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="82" t="s">
+      <c r="A2" s="97"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="81"/>
-      <c r="N2" s="83" t="s">
+      <c r="M2" s="114"/>
+      <c r="N2" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="81"/>
-      <c r="P2" s="80" t="s">
+      <c r="O2" s="114"/>
+      <c r="P2" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="80" t="s">
+      <c r="Q2" s="114"/>
+      <c r="R2" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="81"/>
+      <c r="S2" s="114"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="98"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="86" t="s">
+      <c r="A3" s="97"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="84" t="s">
+      <c r="M3" s="118"/>
+      <c r="N3" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="84" t="s">
+      <c r="O3" s="118"/>
+      <c r="P3" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="87" t="s">
+      <c r="Q3" s="118"/>
+      <c r="R3" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="87"/>
+      <c r="S3" s="120"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="99"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="90"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="92"/>
       <c r="L4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2488,15 +2488,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="118"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="86"/>
       <c r="H5" s="16" t="s">
         <v>18</v>
       </c>
@@ -2540,13 +2540,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="103"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="119"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="87"/>
       <c r="H6" s="18" t="s">
         <v>19</v>
       </c>
@@ -2558,19 +2558,19 @@
       </c>
       <c r="L6" s="47">
         <f t="shared" ref="L6:S6" si="1">SUM(M8,M24,M44,M60,M78,M86)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M6" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="N6" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="O6" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(O8,O24,O44,O60,O78,O86)</f>
+        <v>16.75</v>
       </c>
       <c r="P6" s="47">
         <f t="shared" si="1"/>
@@ -2590,15 +2590,15 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="111"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="108"/>
       <c r="H7" s="4" t="s">
         <v>18</v>
       </c>
@@ -2642,13 +2642,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="73"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="112"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="6" t="s">
         <v>19</v>
       </c>
@@ -2656,7 +2656,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$9:K$22),2)=0)*K$9:K$22)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L8" s="38">
         <f t="shared" ref="L8:S8" si="3">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=0)*L$9:L$22)</f>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="M8" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N8" s="29">
         <f t="shared" si="3"/>
@@ -2692,16 +2692,16 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="67">
+      <c r="A9" s="55">
         <v>1</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="53"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
@@ -2720,12 +2720,12 @@
       <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="68"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
       <c r="G10" s="54"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
@@ -2744,17 +2744,17 @@
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="67"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="57"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="65"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v/>
@@ -2781,12 +2781,12 @@
       <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="68"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="58"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
       <c r="G12" s="58"/>
       <c r="H12" s="52" t="str">
         <f>IF(E11="","","実績")</f>
@@ -2796,10 +2796,12 @@
       <c r="J12" s="52"/>
       <c r="K12" s="10">
         <f>SUM(L12:S12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="41"/>
-      <c r="M12" s="32"/>
+      <c r="M12" s="32">
+        <v>1</v>
+      </c>
       <c r="N12" s="32"/>
       <c r="O12" s="32"/>
       <c r="P12" s="32"/>
@@ -2808,17 +2810,17 @@
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="67"/>
-      <c r="B13" s="69" t="s">
+      <c r="A13" s="55"/>
+      <c r="B13" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="57"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="65"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v/>
@@ -2845,12 +2847,12 @@
       <c r="S13" s="31"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="68"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="58"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
       <c r="G14" s="58"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
@@ -2860,10 +2862,12 @@
       <c r="J14" s="52"/>
       <c r="K14" s="10">
         <f>SUM(L14:S14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="41"/>
-      <c r="M14" s="32"/>
+      <c r="M14" s="32">
+        <v>1</v>
+      </c>
       <c r="N14" s="32"/>
       <c r="O14" s="32"/>
       <c r="P14" s="32"/>
@@ -2872,16 +2876,16 @@
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="67">
+      <c r="A15" s="55">
         <v>2</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="53"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
@@ -2900,12 +2904,12 @@
       <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="68"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
       <c r="G16" s="54"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
@@ -2924,17 +2928,17 @@
       <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="67"/>
-      <c r="B17" s="69" t="s">
+      <c r="A17" s="55"/>
+      <c r="B17" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="57"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="65"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v/>
@@ -2961,12 +2965,12 @@
       <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="68"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="58"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
       <c r="G18" s="58"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
@@ -2976,10 +2980,12 @@
       <c r="J18" s="52"/>
       <c r="K18" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L18" s="41"/>
-      <c r="M18" s="32"/>
+      <c r="M18" s="32">
+        <v>1.5</v>
+      </c>
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
       <c r="P18" s="32"/>
@@ -2988,17 +2994,17 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="67"/>
-      <c r="B19" s="69" t="s">
+      <c r="A19" s="55"/>
+      <c r="B19" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="57"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="65"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v/>
@@ -3025,12 +3031,12 @@
       <c r="S19" s="31"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="68"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="58"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
       <c r="G20" s="58"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
@@ -3040,10 +3046,12 @@
       <c r="J20" s="52"/>
       <c r="K20" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L20" s="41"/>
-      <c r="M20" s="32"/>
+      <c r="M20" s="32">
+        <v>1.25</v>
+      </c>
       <c r="N20" s="32"/>
       <c r="O20" s="32"/>
       <c r="P20" s="32"/>
@@ -3052,17 +3060,17 @@
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="67"/>
-      <c r="B21" s="69" t="s">
+      <c r="A21" s="55"/>
+      <c r="B21" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="57"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="65"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v/>
@@ -3089,12 +3097,12 @@
       <c r="S21" s="31"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="68"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="58"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
       <c r="G22" s="58"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
@@ -3104,10 +3112,12 @@
       <c r="J22" s="52"/>
       <c r="K22" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L22" s="41"/>
-      <c r="M22" s="32"/>
+      <c r="M22" s="32">
+        <v>0.25</v>
+      </c>
       <c r="N22" s="32"/>
       <c r="O22" s="32"/>
       <c r="P22" s="32"/>
@@ -3116,15 +3126,15 @@
       <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="114"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="71"/>
       <c r="H23" s="20" t="s">
         <v>18</v>
       </c>
@@ -3168,13 +3178,13 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="115"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="72"/>
       <c r="H24" s="7" t="s">
         <v>19</v>
       </c>
@@ -3218,16 +3228,16 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="67">
+      <c r="A25" s="55">
         <v>1</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
       <c r="G25" s="53"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
@@ -3246,12 +3256,12 @@
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="68"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
       <c r="G26" s="54"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
@@ -3270,17 +3280,17 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="67"/>
-      <c r="B27" s="69" t="s">
+      <c r="A27" s="55"/>
+      <c r="B27" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="57"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="65"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v/>
@@ -3301,12 +3311,12 @@
       <c r="S27" s="31"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="68"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="58"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
       <c r="G28" s="58"/>
       <c r="H28" s="52" t="str">
         <f>IF(E27="","","実績")</f>
@@ -3328,17 +3338,17 @@
       <c r="S28" s="32"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="67"/>
-      <c r="B29" s="69" t="s">
+      <c r="A29" s="55"/>
+      <c r="B29" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="57"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="65"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v/>
@@ -3359,12 +3369,12 @@
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="68"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="58"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
       <c r="G30" s="58"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
@@ -3386,17 +3396,17 @@
       <c r="S30" s="32"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="67"/>
-      <c r="B31" s="69" t="s">
+      <c r="A31" s="55"/>
+      <c r="B31" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="57"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="65"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v/>
@@ -3417,12 +3427,12 @@
       <c r="S31" s="31"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="68"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="58"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
       <c r="G32" s="58"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
@@ -3444,17 +3454,17 @@
       <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="67"/>
-      <c r="B33" s="69" t="s">
+      <c r="A33" s="55"/>
+      <c r="B33" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="57"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="65"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v/>
@@ -3475,12 +3485,12 @@
       <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="68"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="58"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
       <c r="G34" s="58"/>
       <c r="H34" s="52" t="str">
         <f>IF(E33="","","実績")</f>
@@ -3502,16 +3512,16 @@
       <c r="S34" s="32"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="67">
+      <c r="A35" s="55">
         <v>2</v>
       </c>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
       <c r="G35" s="53"/>
       <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
@@ -3530,12 +3540,12 @@
       <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="68"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
       <c r="G36" s="54"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
@@ -3554,17 +3564,17 @@
       <c r="S36" s="32"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="67"/>
-      <c r="B37" s="69" t="s">
+      <c r="A37" s="55"/>
+      <c r="B37" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="57"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="65"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3585,12 +3595,12 @@
       <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="68"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="58"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
       <c r="G38" s="58"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
@@ -3612,17 +3622,17 @@
       <c r="S38" s="32"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="67"/>
-      <c r="B39" s="69" t="s">
+      <c r="A39" s="55"/>
+      <c r="B39" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="57"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="65"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v/>
@@ -3643,12 +3653,12 @@
       <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="68"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="58"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
       <c r="G40" s="58"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
@@ -3670,17 +3680,17 @@
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="67"/>
-      <c r="B41" s="69" t="s">
+      <c r="A41" s="55"/>
+      <c r="B41" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="C41" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="57"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="65"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v/>
@@ -3701,12 +3711,12 @@
       <c r="S41" s="31"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="68"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="58"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
       <c r="G42" s="58"/>
       <c r="H42" s="52" t="str">
         <f>IF(E41="","","実績")</f>
@@ -3728,15 +3738,15 @@
       <c r="S42" s="32"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="114"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="71"/>
       <c r="H43" s="20" t="s">
         <v>18</v>
       </c>
@@ -3780,13 +3790,13 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="73"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="115"/>
+      <c r="A44" s="76"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="72"/>
       <c r="H44" s="7" t="s">
         <v>19</v>
       </c>
@@ -3794,7 +3804,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$45:K$58),2)=0)*K$45:K$58)</f>
-        <v>0</v>
+        <v>39.25</v>
       </c>
       <c r="L44" s="36">
         <f t="shared" ref="L44:S44" si="11">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=0)*L$45:L$58)</f>
@@ -3802,15 +3812,15 @@
       </c>
       <c r="M44" s="36">
         <f>SUMPRODUCT((MOD(ROW(M$45:M$58),2)=0)*M$45:M$58)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N44" s="36">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="O44" s="36">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="P44" s="36">
         <f t="shared" si="11"/>
@@ -3830,16 +3840,16 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="67">
+      <c r="A45" s="55">
         <v>1</v>
       </c>
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="62"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
       <c r="G45" s="53"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
@@ -3858,12 +3868,12 @@
       <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="68"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
       <c r="G46" s="54"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
@@ -3882,17 +3892,17 @@
       <c r="S46" s="32"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="67"/>
-      <c r="B47" s="69" t="s">
+      <c r="A47" s="55"/>
+      <c r="B47" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="61" t="s">
+      <c r="C47" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="57"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="65"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
@@ -3919,12 +3929,12 @@
       <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="68"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="58"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
       <c r="G48" s="58"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
@@ -3934,11 +3944,15 @@
       <c r="J48" s="52"/>
       <c r="K48" s="10">
         <f>SUM(L48:S48)</f>
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="L48" s="41"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="32"/>
+      <c r="M48" s="32">
+        <v>6</v>
+      </c>
+      <c r="N48" s="32">
+        <v>16.5</v>
+      </c>
       <c r="O48" s="32"/>
       <c r="P48" s="32"/>
       <c r="Q48" s="32"/>
@@ -3946,17 +3960,17 @@
       <c r="S48" s="32"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="67"/>
-      <c r="B49" s="69" t="s">
+      <c r="A49" s="55"/>
+      <c r="B49" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="63"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="57"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="65"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
@@ -3983,12 +3997,12 @@
       <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="68"/>
+      <c r="A50" s="56"/>
       <c r="B50" s="58"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
       <c r="G50" s="58"/>
       <c r="H50" s="52" t="str">
         <f>IF(E49="","","実績")</f>
@@ -3998,28 +4012,32 @@
       <c r="J50" s="52"/>
       <c r="K50" s="10">
         <f>SUM(L50:S50)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L50" s="41"/>
-      <c r="M50" s="32"/>
+      <c r="M50" s="32">
+        <v>0</v>
+      </c>
       <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
+      <c r="O50" s="32">
+        <v>12</v>
+      </c>
       <c r="P50" s="32"/>
       <c r="Q50" s="32"/>
       <c r="R50" s="32"/>
       <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="67">
+      <c r="A51" s="55">
         <v>2</v>
       </c>
-      <c r="B51" s="61" t="s">
+      <c r="B51" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="62"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
       <c r="G51" s="53"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
@@ -4038,12 +4056,12 @@
       <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="68"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
       <c r="G52" s="54"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
@@ -4062,17 +4080,17 @@
       <c r="S52" s="32"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="67"/>
-      <c r="B53" s="69" t="s">
+      <c r="A53" s="55"/>
+      <c r="B53" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="61" t="s">
+      <c r="C53" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="63"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="57"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="65"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4099,12 +4117,12 @@
       <c r="S53" s="31"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="68"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="58"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
       <c r="G54" s="58"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
@@ -4114,29 +4132,31 @@
       <c r="J54" s="52"/>
       <c r="K54" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L54" s="41"/>
       <c r="M54" s="32"/>
       <c r="N54" s="32"/>
-      <c r="O54" s="32"/>
+      <c r="O54" s="32">
+        <v>1.5</v>
+      </c>
       <c r="P54" s="32"/>
       <c r="Q54" s="32"/>
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="67"/>
-      <c r="B55" s="69" t="s">
+      <c r="A55" s="55"/>
+      <c r="B55" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="61" t="s">
+      <c r="C55" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="63"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="57"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="65"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4163,12 +4183,12 @@
       <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="68"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="58"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
       <c r="G56" s="58"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
@@ -4178,29 +4198,31 @@
       <c r="J56" s="52"/>
       <c r="K56" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L56" s="41"/>
       <c r="M56" s="32"/>
       <c r="N56" s="32"/>
-      <c r="O56" s="32"/>
+      <c r="O56" s="32">
+        <v>3</v>
+      </c>
       <c r="P56" s="32"/>
       <c r="Q56" s="32"/>
       <c r="R56" s="32"/>
       <c r="S56" s="32"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="67"/>
-      <c r="B57" s="69" t="s">
+      <c r="A57" s="55"/>
+      <c r="B57" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="61" t="s">
+      <c r="C57" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D57" s="63"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="57"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="65"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -4227,12 +4249,12 @@
       <c r="S57" s="31"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="68"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="58"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
       <c r="G58" s="58"/>
       <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
@@ -4242,27 +4264,29 @@
       <c r="J58" s="52"/>
       <c r="K58" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L58" s="43"/>
       <c r="M58" s="44"/>
       <c r="N58" s="44"/>
-      <c r="O58" s="44"/>
+      <c r="O58" s="44">
+        <v>0.25</v>
+      </c>
       <c r="P58" s="44"/>
       <c r="Q58" s="44"/>
       <c r="R58" s="44"/>
       <c r="S58" s="44"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="70" t="s">
+      <c r="A59" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="B59" s="71"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="114"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="71"/>
       <c r="H59" s="20" t="s">
         <v>18</v>
       </c>
@@ -4306,13 +4330,13 @@
       </c>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="73"/>
-      <c r="B60" s="74"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="115"/>
+      <c r="A60" s="76"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="80"/>
+      <c r="G60" s="72"/>
       <c r="H60" s="7" t="s">
         <v>19</v>
       </c>
@@ -4356,16 +4380,16 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="67">
+      <c r="A61" s="55">
         <v>1</v>
       </c>
-      <c r="B61" s="61" t="s">
+      <c r="B61" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="62"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="69"/>
       <c r="G61" s="53"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
@@ -4384,12 +4408,12 @@
       <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="68"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
+      <c r="A62" s="56"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
       <c r="G62" s="54"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
@@ -4408,17 +4432,17 @@
       <c r="S62" s="32"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="67"/>
-      <c r="B63" s="69" t="s">
+      <c r="A63" s="55"/>
+      <c r="B63" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="61" t="s">
+      <c r="C63" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D63" s="63"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="57"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="65"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4445,12 +4469,12 @@
       <c r="S63" s="31"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="68"/>
+      <c r="A64" s="56"/>
       <c r="B64" s="58"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
       <c r="G64" s="58"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
@@ -4472,17 +4496,17 @@
       <c r="S64" s="32"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="67"/>
-      <c r="B65" s="69" t="s">
+      <c r="A65" s="55"/>
+      <c r="B65" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="61" t="s">
+      <c r="C65" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="D65" s="63"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="57"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="65"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -4509,12 +4533,12 @@
       <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="68"/>
+      <c r="A66" s="56"/>
       <c r="B66" s="58"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
       <c r="G66" s="58"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
@@ -4536,17 +4560,17 @@
       <c r="S66" s="32"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="67"/>
-      <c r="B67" s="69" t="s">
+      <c r="A67" s="55"/>
+      <c r="B67" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="61" t="s">
+      <c r="C67" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D67" s="63"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="57"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="65"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -4575,12 +4599,12 @@
       <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="68"/>
+      <c r="A68" s="56"/>
       <c r="B68" s="58"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
       <c r="G68" s="58"/>
       <c r="H68" s="52" t="str">
         <f>IF(E67="","","実績")</f>
@@ -4602,16 +4626,16 @@
       <c r="S68" s="32"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="67">
+      <c r="A69" s="55">
         <v>2</v>
       </c>
-      <c r="B69" s="61" t="s">
+      <c r="B69" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="62"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="69"/>
       <c r="G69" s="53"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
@@ -4630,12 +4654,12 @@
       <c r="S69" s="31"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="68"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="60"/>
+      <c r="A70" s="56"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="70"/>
       <c r="G70" s="54"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
@@ -4654,17 +4678,17 @@
       <c r="S70" s="32"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="67"/>
-      <c r="B71" s="69" t="s">
+      <c r="A71" s="55"/>
+      <c r="B71" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="61" t="s">
+      <c r="C71" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D71" s="63"/>
-      <c r="E71" s="55"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="57"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="65"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -4691,12 +4715,12 @@
       <c r="S71" s="31"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="68"/>
+      <c r="A72" s="56"/>
       <c r="B72" s="58"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
       <c r="G72" s="58"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
@@ -4718,17 +4742,17 @@
       <c r="S72" s="32"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="67"/>
-      <c r="B73" s="69" t="s">
+      <c r="A73" s="55"/>
+      <c r="B73" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="61" t="s">
+      <c r="C73" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D73" s="63"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="57"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="65"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -4755,12 +4779,12 @@
       <c r="S73" s="31"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="68"/>
+      <c r="A74" s="56"/>
       <c r="B74" s="58"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="56"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
       <c r="G74" s="58"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
@@ -4782,17 +4806,17 @@
       <c r="S74" s="32"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="67"/>
-      <c r="B75" s="69" t="s">
+      <c r="A75" s="55"/>
+      <c r="B75" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C75" s="61" t="s">
+      <c r="C75" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D75" s="63"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="57"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="65"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -4819,12 +4843,12 @@
       <c r="S75" s="31"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="68"/>
+      <c r="A76" s="56"/>
       <c r="B76" s="58"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
       <c r="G76" s="58"/>
       <c r="H76" s="52" t="str">
         <f>IF(E75="","","実績")</f>
@@ -4846,15 +4870,15 @@
       <c r="S76" s="44"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="70" t="s">
+      <c r="A77" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="71"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="114"/>
+      <c r="B77" s="74"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="79"/>
+      <c r="G77" s="71"/>
       <c r="H77" s="20" t="s">
         <v>18</v>
       </c>
@@ -4898,13 +4922,13 @@
       </c>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="73"/>
-      <c r="B78" s="74"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="75"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="77"/>
-      <c r="G78" s="115"/>
+      <c r="A78" s="76"/>
+      <c r="B78" s="77"/>
+      <c r="C78" s="77"/>
+      <c r="D78" s="78"/>
+      <c r="E78" s="80"/>
+      <c r="F78" s="80"/>
+      <c r="G78" s="72"/>
       <c r="H78" s="7" t="s">
         <v>19</v>
       </c>
@@ -4948,16 +4972,16 @@
       </c>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="67">
+      <c r="A79" s="55">
         <v>1</v>
       </c>
-      <c r="B79" s="61" t="s">
+      <c r="B79" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="62"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="59"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="69"/>
+      <c r="F79" s="69"/>
       <c r="G79" s="53"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
@@ -4976,12 +5000,12 @@
       <c r="S79" s="31"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="68"/>
-      <c r="B80" s="64"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="60"/>
+      <c r="A80" s="56"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="68"/>
+      <c r="D80" s="62"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="70"/>
       <c r="G80" s="54"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
@@ -5000,17 +5024,17 @@
       <c r="S80" s="32"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="67"/>
-      <c r="B81" s="69" t="s">
+      <c r="A81" s="55"/>
+      <c r="B81" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="61" t="s">
+      <c r="C81" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="D81" s="63"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="55"/>
-      <c r="G81" s="57"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="65"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5039,12 +5063,12 @@
       <c r="S81" s="31"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="68"/>
+      <c r="A82" s="56"/>
       <c r="B82" s="58"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="66"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="64"/>
+      <c r="F82" s="64"/>
       <c r="G82" s="58"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
@@ -5066,17 +5090,17 @@
       <c r="S82" s="32"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="67"/>
-      <c r="B83" s="69" t="s">
+      <c r="A83" s="55"/>
+      <c r="B83" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C83" s="61" t="s">
+      <c r="C83" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="D83" s="63"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="57"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="65"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -5103,12 +5127,12 @@
       <c r="S83" s="31"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="68"/>
+      <c r="A84" s="56"/>
       <c r="B84" s="58"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="62"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="64"/>
       <c r="G84" s="58"/>
       <c r="H84" s="52" t="str">
         <f>IF(E83="","","実績")</f>
@@ -5130,15 +5154,15 @@
       <c r="S84" s="32"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="70" t="s">
+      <c r="A85" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="B85" s="71"/>
-      <c r="C85" s="71"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="76"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="114"/>
+      <c r="B85" s="74"/>
+      <c r="C85" s="74"/>
+      <c r="D85" s="75"/>
+      <c r="E85" s="79"/>
+      <c r="F85" s="79"/>
+      <c r="G85" s="71"/>
       <c r="H85" s="20" t="s">
         <v>18</v>
       </c>
@@ -5182,13 +5206,13 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="73"/>
-      <c r="B86" s="74"/>
-      <c r="C86" s="74"/>
-      <c r="D86" s="75"/>
-      <c r="E86" s="77"/>
-      <c r="F86" s="77"/>
-      <c r="G86" s="115"/>
+      <c r="A86" s="76"/>
+      <c r="B86" s="77"/>
+      <c r="C86" s="77"/>
+      <c r="D86" s="78"/>
+      <c r="E86" s="80"/>
+      <c r="F86" s="80"/>
+      <c r="G86" s="72"/>
       <c r="H86" s="7" t="s">
         <v>19</v>
       </c>
@@ -5232,16 +5256,16 @@
       </c>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="67">
+      <c r="A87" s="55">
         <v>1</v>
       </c>
-      <c r="B87" s="61" t="s">
+      <c r="B87" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C87" s="62"/>
-      <c r="D87" s="63"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="59"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="69"/>
+      <c r="F87" s="69"/>
       <c r="G87" s="53"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
@@ -5260,12 +5284,12 @@
       <c r="S87" s="31"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="68"/>
-      <c r="B88" s="64"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="66"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="60"/>
+      <c r="A88" s="56"/>
+      <c r="B88" s="61"/>
+      <c r="C88" s="68"/>
+      <c r="D88" s="62"/>
+      <c r="E88" s="70"/>
+      <c r="F88" s="70"/>
       <c r="G88" s="54"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
@@ -5284,17 +5308,17 @@
       <c r="S88" s="32"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="67"/>
-      <c r="B89" s="69" t="s">
+      <c r="A89" s="55"/>
+      <c r="B89" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="61" t="s">
+      <c r="C89" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="D89" s="63"/>
-      <c r="E89" s="55"/>
-      <c r="F89" s="55"/>
-      <c r="G89" s="57"/>
+      <c r="D89" s="60"/>
+      <c r="E89" s="63"/>
+      <c r="F89" s="63"/>
+      <c r="G89" s="65"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -5321,12 +5345,12 @@
       <c r="S89" s="31"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="68"/>
+      <c r="A90" s="56"/>
       <c r="B90" s="58"/>
-      <c r="C90" s="64"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="56"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="62"/>
+      <c r="E90" s="64"/>
+      <c r="F90" s="64"/>
       <c r="G90" s="58"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
@@ -5348,17 +5372,17 @@
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="67"/>
-      <c r="B91" s="69" t="s">
+      <c r="A91" s="55"/>
+      <c r="B91" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C91" s="120" t="s">
+      <c r="C91" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="D91" s="63"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="57"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="63"/>
+      <c r="F91" s="63"/>
+      <c r="G91" s="65"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5379,12 +5403,12 @@
       <c r="S91" s="31"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="68"/>
+      <c r="A92" s="56"/>
       <c r="B92" s="58"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="66"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="56"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="64"/>
       <c r="G92" s="58"/>
       <c r="H92" s="52" t="str">
         <f>IF(E91="","","実績")</f>
@@ -5406,16 +5430,16 @@
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="67">
+      <c r="A93" s="55">
         <v>2</v>
       </c>
-      <c r="B93" s="61" t="s">
+      <c r="B93" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C93" s="62"/>
-      <c r="D93" s="63"/>
-      <c r="E93" s="59"/>
-      <c r="F93" s="59"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="60"/>
+      <c r="E93" s="69"/>
+      <c r="F93" s="69"/>
       <c r="G93" s="53"/>
       <c r="H93" s="23" t="str">
         <f>IF(E93="","","予定")</f>
@@ -5434,12 +5458,12 @@
       <c r="S93" s="31"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="68"/>
-      <c r="B94" s="64"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="60"/>
-      <c r="F94" s="60"/>
+      <c r="A94" s="56"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="68"/>
+      <c r="D94" s="62"/>
+      <c r="E94" s="70"/>
+      <c r="F94" s="70"/>
       <c r="G94" s="54"/>
       <c r="H94" s="24" t="str">
         <f>IF(E93="","","実績")</f>
@@ -5458,17 +5482,17 @@
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="67"/>
-      <c r="B95" s="69" t="s">
+      <c r="A95" s="55"/>
+      <c r="B95" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="61" t="s">
+      <c r="C95" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D95" s="63"/>
-      <c r="E95" s="55"/>
-      <c r="F95" s="55"/>
-      <c r="G95" s="57"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="63"/>
+      <c r="F95" s="63"/>
+      <c r="G95" s="65"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5495,12 +5519,12 @@
       <c r="S95" s="31"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="68"/>
+      <c r="A96" s="56"/>
       <c r="B96" s="58"/>
-      <c r="C96" s="64"/>
-      <c r="D96" s="66"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="56"/>
+      <c r="C96" s="61"/>
+      <c r="D96" s="62"/>
+      <c r="E96" s="64"/>
+      <c r="F96" s="64"/>
       <c r="G96" s="58"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
@@ -5522,17 +5546,17 @@
       <c r="S96" s="32"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="67"/>
-      <c r="B97" s="69" t="s">
+      <c r="A97" s="55"/>
+      <c r="B97" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C97" s="61" t="s">
+      <c r="C97" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D97" s="63"/>
-      <c r="E97" s="55"/>
-      <c r="F97" s="55"/>
-      <c r="G97" s="57"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="63"/>
+      <c r="F97" s="63"/>
+      <c r="G97" s="65"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -5559,12 +5583,12 @@
       <c r="S97" s="31"/>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="68"/>
+      <c r="A98" s="56"/>
       <c r="B98" s="58"/>
-      <c r="C98" s="64"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="56"/>
-      <c r="F98" s="56"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="62"/>
+      <c r="E98" s="64"/>
+      <c r="F98" s="64"/>
       <c r="G98" s="58"/>
       <c r="H98" s="52" t="str">
         <f>IF(E97="","","実績")</f>
@@ -5586,15 +5610,15 @@
       <c r="S98" s="44"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="70" t="s">
+      <c r="A99" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="B99" s="71"/>
-      <c r="C99" s="71"/>
-      <c r="D99" s="72"/>
-      <c r="E99" s="76"/>
-      <c r="F99" s="76"/>
-      <c r="G99" s="114"/>
+      <c r="B99" s="74"/>
+      <c r="C99" s="74"/>
+      <c r="D99" s="75"/>
+      <c r="E99" s="79"/>
+      <c r="F99" s="79"/>
+      <c r="G99" s="71"/>
       <c r="H99" s="20" t="s">
         <v>18</v>
       </c>
@@ -5638,13 +5662,13 @@
       </c>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="73"/>
-      <c r="B100" s="74"/>
-      <c r="C100" s="74"/>
-      <c r="D100" s="75"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="115"/>
+      <c r="A100" s="76"/>
+      <c r="B100" s="77"/>
+      <c r="C100" s="77"/>
+      <c r="D100" s="78"/>
+      <c r="E100" s="80"/>
+      <c r="F100" s="80"/>
+      <c r="G100" s="72"/>
       <c r="H100" s="7" t="s">
         <v>19</v>
       </c>
@@ -5688,16 +5712,16 @@
       </c>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="67">
+      <c r="A101" s="55">
         <v>1</v>
       </c>
-      <c r="B101" s="61" t="s">
+      <c r="B101" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C101" s="62"/>
-      <c r="D101" s="63"/>
-      <c r="E101" s="59"/>
-      <c r="F101" s="59"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="60"/>
+      <c r="E101" s="69"/>
+      <c r="F101" s="69"/>
       <c r="G101" s="53"/>
       <c r="H101" s="23" t="str">
         <f>IF(E101="","","予定")</f>
@@ -5716,12 +5740,12 @@
       <c r="S101" s="31"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="68"/>
-      <c r="B102" s="64"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="66"/>
-      <c r="E102" s="60"/>
-      <c r="F102" s="60"/>
+      <c r="A102" s="56"/>
+      <c r="B102" s="61"/>
+      <c r="C102" s="68"/>
+      <c r="D102" s="62"/>
+      <c r="E102" s="70"/>
+      <c r="F102" s="70"/>
       <c r="G102" s="54"/>
       <c r="H102" s="24" t="str">
         <f>IF(E101="","","実績")</f>
@@ -5740,17 +5764,17 @@
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="67"/>
-      <c r="B103" s="69" t="s">
+      <c r="A103" s="55"/>
+      <c r="B103" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C103" s="61" t="s">
+      <c r="C103" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="D103" s="63"/>
-      <c r="E103" s="55"/>
-      <c r="F103" s="55"/>
-      <c r="G103" s="57"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="63"/>
+      <c r="F103" s="63"/>
+      <c r="G103" s="65"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -5777,12 +5801,12 @@
       <c r="S103" s="31"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="68"/>
+      <c r="A104" s="56"/>
       <c r="B104" s="58"/>
-      <c r="C104" s="64"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="56"/>
+      <c r="C104" s="61"/>
+      <c r="D104" s="62"/>
+      <c r="E104" s="64"/>
+      <c r="F104" s="64"/>
       <c r="G104" s="58"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
@@ -5804,17 +5828,17 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="67"/>
-      <c r="B105" s="69" t="s">
+      <c r="A105" s="55"/>
+      <c r="B105" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C105" s="61" t="s">
+      <c r="C105" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D105" s="63"/>
-      <c r="E105" s="55"/>
-      <c r="F105" s="55"/>
-      <c r="G105" s="57"/>
+      <c r="D105" s="60"/>
+      <c r="E105" s="63"/>
+      <c r="F105" s="63"/>
+      <c r="G105" s="65"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v/>
@@ -5841,12 +5865,12 @@
       <c r="S105" s="31"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="68"/>
+      <c r="A106" s="56"/>
       <c r="B106" s="58"/>
-      <c r="C106" s="64"/>
-      <c r="D106" s="66"/>
-      <c r="E106" s="56"/>
-      <c r="F106" s="56"/>
+      <c r="C106" s="61"/>
+      <c r="D106" s="62"/>
+      <c r="E106" s="64"/>
+      <c r="F106" s="64"/>
       <c r="G106" s="58"/>
       <c r="H106" s="52" t="str">
         <f>IF(E105="","","実績")</f>
@@ -5868,16 +5892,16 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="67">
+      <c r="A107" s="55">
         <v>2</v>
       </c>
-      <c r="B107" s="61" t="s">
+      <c r="B107" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C107" s="62"/>
-      <c r="D107" s="63"/>
-      <c r="E107" s="59"/>
-      <c r="F107" s="59"/>
+      <c r="C107" s="67"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="69"/>
+      <c r="F107" s="69"/>
       <c r="G107" s="53"/>
       <c r="H107" s="23" t="str">
         <f>IF(E107="","","予定")</f>
@@ -5896,12 +5920,12 @@
       <c r="S107" s="31"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="68"/>
-      <c r="B108" s="64"/>
-      <c r="C108" s="65"/>
-      <c r="D108" s="66"/>
-      <c r="E108" s="60"/>
-      <c r="F108" s="60"/>
+      <c r="A108" s="56"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="68"/>
+      <c r="D108" s="62"/>
+      <c r="E108" s="70"/>
+      <c r="F108" s="70"/>
       <c r="G108" s="54"/>
       <c r="H108" s="24" t="str">
         <f>IF(E107="","","実績")</f>
@@ -5920,17 +5944,17 @@
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="67"/>
-      <c r="B109" s="69" t="s">
+      <c r="A109" s="55"/>
+      <c r="B109" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C109" s="61" t="s">
+      <c r="C109" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D109" s="63"/>
-      <c r="E109" s="55"/>
-      <c r="F109" s="55"/>
-      <c r="G109" s="57"/>
+      <c r="D109" s="60"/>
+      <c r="E109" s="63"/>
+      <c r="F109" s="63"/>
+      <c r="G109" s="65"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -5957,12 +5981,12 @@
       <c r="S109" s="31"/>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="68"/>
+      <c r="A110" s="56"/>
       <c r="B110" s="58"/>
-      <c r="C110" s="64"/>
-      <c r="D110" s="66"/>
-      <c r="E110" s="56"/>
-      <c r="F110" s="56"/>
+      <c r="C110" s="61"/>
+      <c r="D110" s="62"/>
+      <c r="E110" s="64"/>
+      <c r="F110" s="64"/>
       <c r="G110" s="58"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
@@ -5984,17 +6008,17 @@
       <c r="S110" s="32"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="67"/>
-      <c r="B111" s="69" t="s">
+      <c r="A111" s="55"/>
+      <c r="B111" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C111" s="61" t="s">
+      <c r="C111" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D111" s="63"/>
-      <c r="E111" s="55"/>
-      <c r="F111" s="55"/>
-      <c r="G111" s="57"/>
+      <c r="D111" s="60"/>
+      <c r="E111" s="63"/>
+      <c r="F111" s="63"/>
+      <c r="G111" s="65"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v/>
@@ -6021,12 +6045,12 @@
       <c r="S111" s="31"/>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="68"/>
+      <c r="A112" s="56"/>
       <c r="B112" s="58"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="66"/>
-      <c r="E112" s="56"/>
-      <c r="F112" s="56"/>
+      <c r="C112" s="61"/>
+      <c r="D112" s="62"/>
+      <c r="E112" s="64"/>
+      <c r="F112" s="64"/>
       <c r="G112" s="58"/>
       <c r="H112" s="52" t="str">
         <f>IF(E111="","","実績")</f>
@@ -6063,95 +6087,208 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="G59:G60"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
@@ -6176,208 +6313,95 @@
     <mergeCell ref="G57:G58"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L9:S18 L25:S36 L101:S112 L87:S98">
@@ -6481,15 +6505,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6673,6 +6688,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
@@ -6683,14 +6707,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{820382CB-708E-4EB8-A8B5-B0353CDDD771}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6706,4 +6722,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/反復２/反復２WBSガントチャート.xlsx
+++ b/反復２/反復２WBSガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17594FBA-8FAB-48D1-8A57-B72276410289}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E576E3-F894-49ED-AB5A-6968FC9FA94E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="62">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -545,6 +545,13 @@
     <t>徳竹</t>
     <rPh sb="0" eb="2">
       <t>トクタケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ゲツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1520,6 +1527,42 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1529,194 +1572,158 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2326,10 +2333,10 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomRight" activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2348,120 +2355,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="81" t="s">
+      <c r="A1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="G1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="I1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="J1" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="111">
+      <c r="L1" s="78">
         <v>43992</v>
       </c>
-      <c r="M1" s="112"/>
-      <c r="N1" s="111">
+      <c r="M1" s="79"/>
+      <c r="N1" s="78">
         <v>43993</v>
       </c>
-      <c r="O1" s="112"/>
-      <c r="P1" s="111">
+      <c r="O1" s="79"/>
+      <c r="P1" s="78">
         <v>43994</v>
       </c>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="111">
-        <v>43987</v>
-      </c>
-      <c r="S1" s="112"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="78">
+        <v>43997</v>
+      </c>
+      <c r="S1" s="79"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="97"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="115" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="114"/>
-      <c r="N2" s="116" t="s">
+      <c r="M2" s="81"/>
+      <c r="N2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="114"/>
-      <c r="P2" s="113" t="s">
+      <c r="O2" s="81"/>
+      <c r="P2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="114"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="81"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="97"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="119" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="118"/>
-      <c r="N3" s="117" t="s">
+      <c r="M3" s="85"/>
+      <c r="N3" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="118"/>
-      <c r="P3" s="117" t="s">
+      <c r="O3" s="85"/>
+      <c r="P3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="120" t="s">
+      <c r="Q3" s="85"/>
+      <c r="R3" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="120"/>
+      <c r="S3" s="87"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="98"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="92"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="90"/>
       <c r="L4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2488,15 +2495,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="86"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="118"/>
       <c r="H5" s="16" t="s">
         <v>18</v>
       </c>
@@ -2512,11 +2519,11 @@
       </c>
       <c r="M5" s="27">
         <f t="shared" ref="M5:S5" si="0">SUM(M7,M23,M43,M59,M77,M85,M99)</f>
-        <v>20.25</v>
+        <v>11</v>
       </c>
       <c r="N5" s="27">
         <f t="shared" si="0"/>
-        <v>16.5</v>
+        <v>16.75</v>
       </c>
       <c r="O5" s="27">
         <f t="shared" si="0"/>
@@ -2528,11 +2535,11 @@
       </c>
       <c r="Q5" s="27">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>18.25</v>
       </c>
       <c r="R5" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="S5" s="27">
         <f t="shared" si="0"/>
@@ -2540,13 +2547,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="87"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="119"/>
       <c r="H6" s="18" t="s">
         <v>19</v>
       </c>
@@ -2566,11 +2573,11 @@
       </c>
       <c r="N6" s="47">
         <f t="shared" si="1"/>
-        <v>16.75</v>
+        <v>13.75</v>
       </c>
       <c r="O6" s="47">
         <f>SUM(O8,O24,O44,O60,O78,O86)</f>
-        <v>16.75</v>
+        <v>13.75</v>
       </c>
       <c r="P6" s="47">
         <f t="shared" si="1"/>
@@ -2590,15 +2597,15 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="108"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="111"/>
       <c r="H7" s="4" t="s">
         <v>18</v>
       </c>
@@ -2642,13 +2649,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="109"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="112"/>
       <c r="H8" s="6" t="s">
         <v>19</v>
       </c>
@@ -2692,16 +2699,16 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="55">
+      <c r="A9" s="67">
         <v>1</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="53"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
@@ -2720,12 +2727,12 @@
       <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="56"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="54"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
@@ -2744,17 +2751,17 @@
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="55"/>
-      <c r="B11" s="57" t="s">
+      <c r="A11" s="67"/>
+      <c r="B11" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="65"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v/>
@@ -2781,12 +2788,12 @@
       <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="56"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="58"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
       <c r="G12" s="58"/>
       <c r="H12" s="52" t="str">
         <f>IF(E11="","","実績")</f>
@@ -2810,17 +2817,17 @@
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="55"/>
-      <c r="B13" s="57" t="s">
+      <c r="A13" s="67"/>
+      <c r="B13" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="65"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="57"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v/>
@@ -2847,12 +2854,12 @@
       <c r="S13" s="31"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="56"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="58"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
       <c r="G14" s="58"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
@@ -2876,16 +2883,16 @@
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="55">
+      <c r="A15" s="67">
         <v>2</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
       <c r="G15" s="53"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
@@ -2904,12 +2911,12 @@
       <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="56"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="54"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
@@ -2928,17 +2935,17 @@
       <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="55"/>
-      <c r="B17" s="57" t="s">
+      <c r="A17" s="67"/>
+      <c r="B17" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="65"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="57"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v/>
@@ -2965,12 +2972,12 @@
       <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="56"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="58"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
       <c r="G18" s="58"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
@@ -2994,17 +3001,17 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="55"/>
-      <c r="B19" s="57" t="s">
+      <c r="A19" s="67"/>
+      <c r="B19" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="65"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="57"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v/>
@@ -3031,12 +3038,12 @@
       <c r="S19" s="31"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="56"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="58"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="58"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
@@ -3060,17 +3067,17 @@
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="55"/>
-      <c r="B21" s="57" t="s">
+      <c r="A21" s="67"/>
+      <c r="B21" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="65"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="57"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v/>
@@ -3097,12 +3104,12 @@
       <c r="S21" s="31"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="56"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="58"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
       <c r="G22" s="58"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
@@ -3126,15 +3133,15 @@
       <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="71"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="114"/>
       <c r="H23" s="20" t="s">
         <v>18</v>
       </c>
@@ -3178,13 +3185,13 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="72"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="115"/>
       <c r="H24" s="7" t="s">
         <v>19</v>
       </c>
@@ -3228,16 +3235,16 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="55">
+      <c r="A25" s="67">
         <v>1</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
       <c r="G25" s="53"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
@@ -3256,12 +3263,12 @@
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="56"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="54"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
@@ -3280,17 +3287,17 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="55"/>
-      <c r="B27" s="57" t="s">
+      <c r="A27" s="67"/>
+      <c r="B27" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="65"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="57"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v/>
@@ -3311,12 +3318,12 @@
       <c r="S27" s="31"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="56"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="58"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
       <c r="G28" s="58"/>
       <c r="H28" s="52" t="str">
         <f>IF(E27="","","実績")</f>
@@ -3338,17 +3345,17 @@
       <c r="S28" s="32"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="55"/>
-      <c r="B29" s="57" t="s">
+      <c r="A29" s="67"/>
+      <c r="B29" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="65"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="57"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v/>
@@ -3369,12 +3376,12 @@
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="56"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="58"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
       <c r="G30" s="58"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
@@ -3396,17 +3403,17 @@
       <c r="S30" s="32"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="55"/>
-      <c r="B31" s="57" t="s">
+      <c r="A31" s="67"/>
+      <c r="B31" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="65"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="57"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v/>
@@ -3427,12 +3434,12 @@
       <c r="S31" s="31"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="56"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="58"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
       <c r="G32" s="58"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
@@ -3454,17 +3461,17 @@
       <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="55"/>
-      <c r="B33" s="57" t="s">
+      <c r="A33" s="67"/>
+      <c r="B33" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="60"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="65"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="57"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v/>
@@ -3485,12 +3492,12 @@
       <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="56"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="58"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
       <c r="G34" s="58"/>
       <c r="H34" s="52" t="str">
         <f>IF(E33="","","実績")</f>
@@ -3512,16 +3519,16 @@
       <c r="S34" s="32"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="55">
+      <c r="A35" s="67">
         <v>2</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
       <c r="G35" s="53"/>
       <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
@@ -3540,12 +3547,12 @@
       <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="56"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
       <c r="G36" s="54"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
@@ -3564,17 +3571,17 @@
       <c r="S36" s="32"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="55"/>
-      <c r="B37" s="57" t="s">
+      <c r="A37" s="67"/>
+      <c r="B37" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="65"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="57"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3595,12 +3602,12 @@
       <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="56"/>
+      <c r="A38" s="68"/>
       <c r="B38" s="58"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
       <c r="G38" s="58"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
@@ -3622,17 +3629,17 @@
       <c r="S38" s="32"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="55"/>
-      <c r="B39" s="57" t="s">
+      <c r="A39" s="67"/>
+      <c r="B39" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="65"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="57"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v/>
@@ -3653,12 +3660,12 @@
       <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="56"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="58"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
       <c r="G40" s="58"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
@@ -3680,17 +3687,17 @@
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="55"/>
-      <c r="B41" s="57" t="s">
+      <c r="A41" s="67"/>
+      <c r="B41" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="60"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="65"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="57"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v/>
@@ -3711,12 +3718,12 @@
       <c r="S41" s="31"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="56"/>
+      <c r="A42" s="68"/>
       <c r="B42" s="58"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
       <c r="G42" s="58"/>
       <c r="H42" s="52" t="str">
         <f>IF(E41="","","実績")</f>
@@ -3738,15 +3745,15 @@
       <c r="S42" s="32"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="73" t="s">
+      <c r="A43" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="74"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="71"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="114"/>
       <c r="H43" s="20" t="s">
         <v>18</v>
       </c>
@@ -3762,11 +3769,11 @@
       </c>
       <c r="M43" s="35">
         <f t="shared" si="9"/>
-        <v>15.25</v>
+        <v>6</v>
       </c>
       <c r="N43" s="35">
         <f>SUMPRODUCT((MOD(ROW(N$45:N$58),2)=1)*N$45:N$58)</f>
-        <v>0</v>
+        <v>9.25</v>
       </c>
       <c r="O43" s="35">
         <f t="shared" ref="O43:S43" si="10">SUMPRODUCT((MOD(ROW(O$45:O$58),2)=1)*O$45:O$58)</f>
@@ -3790,13 +3797,13 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="76"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="72"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="115"/>
       <c r="H44" s="7" t="s">
         <v>19</v>
       </c>
@@ -3804,7 +3811,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$45:K$58),2)=0)*K$45:K$58)</f>
-        <v>39.25</v>
+        <v>36.25</v>
       </c>
       <c r="L44" s="36">
         <f t="shared" ref="L44:S44" si="11">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=0)*L$45:L$58)</f>
@@ -3820,7 +3827,7 @@
       </c>
       <c r="O44" s="36">
         <f t="shared" si="11"/>
-        <v>16.75</v>
+        <v>13.75</v>
       </c>
       <c r="P44" s="36">
         <f t="shared" si="11"/>
@@ -3840,16 +3847,16 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="55">
+      <c r="A45" s="67">
         <v>1</v>
       </c>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="67"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
       <c r="G45" s="53"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
@@ -3868,12 +3875,12 @@
       <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="56"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
+      <c r="A46" s="68"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
       <c r="G46" s="54"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
@@ -3892,17 +3899,17 @@
       <c r="S46" s="32"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="55"/>
-      <c r="B47" s="57" t="s">
+      <c r="A47" s="67"/>
+      <c r="B47" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="60"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="65"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="57"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
@@ -3929,12 +3936,12 @@
       <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="56"/>
+      <c r="A48" s="68"/>
       <c r="B48" s="58"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
       <c r="G48" s="58"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
@@ -3960,17 +3967,17 @@
       <c r="S48" s="32"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="55"/>
-      <c r="B49" s="57" t="s">
+      <c r="A49" s="67"/>
+      <c r="B49" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="59" t="s">
+      <c r="C49" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="60"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="65"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="57"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
@@ -3986,10 +3993,10 @@
         <v>6</v>
       </c>
       <c r="L49" s="33"/>
-      <c r="M49" s="31">
+      <c r="M49" s="31"/>
+      <c r="N49" s="31">
         <v>6</v>
       </c>
-      <c r="N49" s="31"/>
       <c r="O49" s="31"/>
       <c r="P49" s="31"/>
       <c r="Q49" s="31"/>
@@ -3997,12 +4004,12 @@
       <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="56"/>
+      <c r="A50" s="68"/>
       <c r="B50" s="58"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
       <c r="G50" s="58"/>
       <c r="H50" s="52" t="str">
         <f>IF(E49="","","実績")</f>
@@ -4012,15 +4019,13 @@
       <c r="J50" s="52"/>
       <c r="K50" s="10">
         <f>SUM(L50:S50)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L50" s="41"/>
-      <c r="M50" s="32">
-        <v>0</v>
-      </c>
+      <c r="M50" s="32"/>
       <c r="N50" s="32"/>
       <c r="O50" s="32">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P50" s="32"/>
       <c r="Q50" s="32"/>
@@ -4028,16 +4033,16 @@
       <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="55">
+      <c r="A51" s="67">
         <v>2</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="67"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
       <c r="G51" s="53"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
@@ -4056,12 +4061,12 @@
       <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="56"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
+      <c r="A52" s="68"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
       <c r="G52" s="54"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
@@ -4080,17 +4085,17 @@
       <c r="S52" s="32"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="55"/>
-      <c r="B53" s="57" t="s">
+      <c r="A53" s="67"/>
+      <c r="B53" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="60"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="65"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="57"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4106,10 +4111,10 @@
         <v>1.5</v>
       </c>
       <c r="L53" s="33"/>
-      <c r="M53" s="31">
+      <c r="M53" s="31"/>
+      <c r="N53" s="31">
         <v>1.5</v>
       </c>
-      <c r="N53" s="31"/>
       <c r="O53" s="31"/>
       <c r="P53" s="31"/>
       <c r="Q53" s="31"/>
@@ -4117,12 +4122,12 @@
       <c r="S53" s="31"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="56"/>
+      <c r="A54" s="68"/>
       <c r="B54" s="58"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
       <c r="G54" s="58"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
@@ -4146,17 +4151,17 @@
       <c r="S54" s="32"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="55"/>
-      <c r="B55" s="57" t="s">
+      <c r="A55" s="67"/>
+      <c r="B55" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="59" t="s">
+      <c r="C55" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="60"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="65"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="57"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4172,10 +4177,10 @@
         <v>1.5</v>
       </c>
       <c r="L55" s="33"/>
-      <c r="M55" s="31">
+      <c r="M55" s="31"/>
+      <c r="N55" s="31">
         <v>1.5</v>
       </c>
-      <c r="N55" s="31"/>
       <c r="O55" s="31"/>
       <c r="P55" s="31"/>
       <c r="Q55" s="31"/>
@@ -4183,12 +4188,12 @@
       <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="56"/>
+      <c r="A56" s="68"/>
       <c r="B56" s="58"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
       <c r="G56" s="58"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
@@ -4212,17 +4217,17 @@
       <c r="S56" s="32"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="55"/>
-      <c r="B57" s="57" t="s">
+      <c r="A57" s="67"/>
+      <c r="B57" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="59" t="s">
+      <c r="C57" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D57" s="60"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="65"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="57"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -4238,10 +4243,10 @@
         <v>0.25</v>
       </c>
       <c r="L57" s="33"/>
-      <c r="M57" s="31">
+      <c r="M57" s="31"/>
+      <c r="N57" s="31">
         <v>0.25</v>
       </c>
-      <c r="N57" s="31"/>
       <c r="O57" s="31"/>
       <c r="P57" s="31"/>
       <c r="Q57" s="31"/>
@@ -4249,12 +4254,12 @@
       <c r="S57" s="31"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="56"/>
+      <c r="A58" s="68"/>
       <c r="B58" s="58"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
       <c r="G58" s="58"/>
       <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
@@ -4278,15 +4283,15 @@
       <c r="S58" s="44"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="73" t="s">
+      <c r="A59" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B59" s="74"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="71"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="114"/>
       <c r="H59" s="20" t="s">
         <v>18</v>
       </c>
@@ -4306,11 +4311,11 @@
       </c>
       <c r="N59" s="35">
         <f t="shared" si="13"/>
-        <v>16.5</v>
+        <v>7.5</v>
       </c>
       <c r="O59" s="35">
         <f>SUMPRODUCT((MOD(ROW(O$61:O$76),2)=1)*O$61:O$76)</f>
-        <v>7.75</v>
+        <v>16.75</v>
       </c>
       <c r="P59" s="35">
         <f t="shared" ref="P59:S59" si="14">SUMPRODUCT((MOD(ROW(P$61:P$76),2)=1)*P$61:P$76)</f>
@@ -4330,13 +4335,13 @@
       </c>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="76"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="72"/>
+      <c r="A60" s="73"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="115"/>
       <c r="H60" s="7" t="s">
         <v>19</v>
       </c>
@@ -4380,16 +4385,16 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="55">
+      <c r="A61" s="67">
         <v>1</v>
       </c>
-      <c r="B61" s="59" t="s">
+      <c r="B61" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="67"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="69"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
       <c r="G61" s="53"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
@@ -4408,12 +4413,12 @@
       <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="56"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
+      <c r="A62" s="68"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
       <c r="G62" s="54"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
@@ -4432,17 +4437,17 @@
       <c r="S62" s="32"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="55"/>
-      <c r="B63" s="57" t="s">
+      <c r="A63" s="67"/>
+      <c r="B63" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="59" t="s">
+      <c r="C63" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D63" s="60"/>
-      <c r="E63" s="63"/>
-      <c r="F63" s="63"/>
-      <c r="G63" s="65"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="57"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4469,12 +4474,12 @@
       <c r="S63" s="31"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="56"/>
+      <c r="A64" s="68"/>
       <c r="B64" s="58"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
       <c r="G64" s="58"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
@@ -4496,17 +4501,17 @@
       <c r="S64" s="32"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="55"/>
-      <c r="B65" s="57" t="s">
+      <c r="A65" s="67"/>
+      <c r="B65" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="59" t="s">
+      <c r="C65" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D65" s="60"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="65"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="57"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -4524,21 +4529,23 @@
       <c r="L65" s="33"/>
       <c r="M65" s="31"/>
       <c r="N65" s="31">
-        <v>6</v>
-      </c>
-      <c r="O65" s="31"/>
+        <v>1.5</v>
+      </c>
+      <c r="O65" s="31">
+        <v>4.5</v>
+      </c>
       <c r="P65" s="31"/>
       <c r="Q65" s="31"/>
       <c r="R65" s="31"/>
       <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="56"/>
+      <c r="A66" s="68"/>
       <c r="B66" s="58"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
       <c r="G66" s="58"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
@@ -4560,17 +4567,17 @@
       <c r="S66" s="32"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="55"/>
-      <c r="B67" s="57" t="s">
+      <c r="A67" s="67"/>
+      <c r="B67" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="59" t="s">
+      <c r="C67" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D67" s="60"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="63"/>
-      <c r="G67" s="65"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="57"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -4587,11 +4594,9 @@
       </c>
       <c r="L67" s="33"/>
       <c r="M67" s="31"/>
-      <c r="N67" s="31">
-        <v>4.5</v>
-      </c>
+      <c r="N67" s="31"/>
       <c r="O67" s="31">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="P67" s="31"/>
       <c r="Q67" s="31"/>
@@ -4599,12 +4604,12 @@
       <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="56"/>
+      <c r="A68" s="68"/>
       <c r="B68" s="58"/>
-      <c r="C68" s="61"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
       <c r="G68" s="58"/>
       <c r="H68" s="52" t="str">
         <f>IF(E67="","","実績")</f>
@@ -4626,16 +4631,16 @@
       <c r="S68" s="32"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="55">
+      <c r="A69" s="67">
         <v>2</v>
       </c>
-      <c r="B69" s="59" t="s">
+      <c r="B69" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="67"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="69"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
       <c r="G69" s="53"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
@@ -4654,12 +4659,12 @@
       <c r="S69" s="31"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="56"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="68"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
+      <c r="A70" s="68"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="60"/>
       <c r="G70" s="54"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
@@ -4678,17 +4683,17 @@
       <c r="S70" s="32"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="55"/>
-      <c r="B71" s="57" t="s">
+      <c r="A71" s="67"/>
+      <c r="B71" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="59" t="s">
+      <c r="C71" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D71" s="60"/>
-      <c r="E71" s="63"/>
-      <c r="F71" s="63"/>
-      <c r="G71" s="65"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="57"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -4715,12 +4720,12 @@
       <c r="S71" s="31"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="56"/>
+      <c r="A72" s="68"/>
       <c r="B72" s="58"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
       <c r="G72" s="58"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
@@ -4742,17 +4747,17 @@
       <c r="S72" s="32"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="55"/>
-      <c r="B73" s="57" t="s">
+      <c r="A73" s="67"/>
+      <c r="B73" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="59" t="s">
+      <c r="C73" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="D73" s="60"/>
-      <c r="E73" s="63"/>
-      <c r="F73" s="63"/>
-      <c r="G73" s="65"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="57"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -4779,12 +4784,12 @@
       <c r="S73" s="31"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="56"/>
+      <c r="A74" s="68"/>
       <c r="B74" s="58"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
       <c r="G74" s="58"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
@@ -4806,17 +4811,17 @@
       <c r="S74" s="32"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="55"/>
-      <c r="B75" s="57" t="s">
+      <c r="A75" s="67"/>
+      <c r="B75" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C75" s="59" t="s">
+      <c r="C75" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D75" s="60"/>
-      <c r="E75" s="63"/>
-      <c r="F75" s="63"/>
-      <c r="G75" s="65"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="57"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -4843,12 +4848,12 @@
       <c r="S75" s="31"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="56"/>
+      <c r="A76" s="68"/>
       <c r="B76" s="58"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
       <c r="G76" s="58"/>
       <c r="H76" s="52" t="str">
         <f>IF(E75="","","実績")</f>
@@ -4870,15 +4875,15 @@
       <c r="S76" s="44"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="73" t="s">
+      <c r="A77" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="74"/>
-      <c r="C77" s="74"/>
-      <c r="D77" s="75"/>
-      <c r="E77" s="79"/>
-      <c r="F77" s="79"/>
-      <c r="G77" s="71"/>
+      <c r="B77" s="71"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="114"/>
       <c r="H77" s="20" t="s">
         <v>18</v>
       </c>
@@ -4902,7 +4907,7 @@
       </c>
       <c r="O77" s="35">
         <f t="shared" si="18"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P77" s="35">
         <f t="shared" si="18"/>
@@ -4910,7 +4915,7 @@
       </c>
       <c r="Q77" s="35">
         <f>SUMPRODUCT((MOD(ROW(Q$79:Q$84),2)=1)*Q$79:Q$84)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R77" s="35">
         <f t="shared" ref="R77:S77" si="19">SUMPRODUCT((MOD(ROW(R$79:R$84),2)=1)*R$79:R$84)</f>
@@ -4922,13 +4927,13 @@
       </c>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="76"/>
-      <c r="B78" s="77"/>
-      <c r="C78" s="77"/>
-      <c r="D78" s="78"/>
-      <c r="E78" s="80"/>
-      <c r="F78" s="80"/>
-      <c r="G78" s="72"/>
+      <c r="A78" s="73"/>
+      <c r="B78" s="74"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="77"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="115"/>
       <c r="H78" s="7" t="s">
         <v>19</v>
       </c>
@@ -4972,16 +4977,16 @@
       </c>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="55">
+      <c r="A79" s="67">
         <v>1</v>
       </c>
-      <c r="B79" s="59" t="s">
+      <c r="B79" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="67"/>
-      <c r="D79" s="60"/>
-      <c r="E79" s="69"/>
-      <c r="F79" s="69"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
       <c r="G79" s="53"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
@@ -5000,12 +5005,12 @@
       <c r="S79" s="31"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="56"/>
-      <c r="B80" s="61"/>
-      <c r="C80" s="68"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="70"/>
+      <c r="A80" s="68"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="60"/>
       <c r="G80" s="54"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
@@ -5024,17 +5029,17 @@
       <c r="S80" s="32"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="55"/>
-      <c r="B81" s="57" t="s">
+      <c r="A81" s="67"/>
+      <c r="B81" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="59" t="s">
+      <c r="C81" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="D81" s="60"/>
-      <c r="E81" s="63"/>
-      <c r="F81" s="63"/>
-      <c r="G81" s="65"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="57"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5053,22 +5058,22 @@
       <c r="M81" s="31"/>
       <c r="N81" s="31"/>
       <c r="O81" s="31">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P81" s="31">
-        <v>4.5</v>
+        <v>13.5</v>
       </c>
       <c r="Q81" s="31"/>
       <c r="R81" s="31"/>
       <c r="S81" s="31"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="56"/>
+      <c r="A82" s="68"/>
       <c r="B82" s="58"/>
-      <c r="C82" s="61"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="64"/>
-      <c r="F82" s="64"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
       <c r="G82" s="58"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
@@ -5090,17 +5095,17 @@
       <c r="S82" s="32"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="55"/>
-      <c r="B83" s="57" t="s">
+      <c r="A83" s="67"/>
+      <c r="B83" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C83" s="59" t="s">
+      <c r="C83" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="D83" s="60"/>
-      <c r="E83" s="63"/>
-      <c r="F83" s="63"/>
-      <c r="G83" s="65"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="57"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -5120,19 +5125,21 @@
       <c r="N83" s="31"/>
       <c r="O83" s="31"/>
       <c r="P83" s="31">
-        <v>12</v>
-      </c>
-      <c r="Q83" s="31"/>
+        <v>3</v>
+      </c>
+      <c r="Q83" s="31">
+        <v>9</v>
+      </c>
       <c r="R83" s="31"/>
       <c r="S83" s="31"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="56"/>
+      <c r="A84" s="68"/>
       <c r="B84" s="58"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
       <c r="G84" s="58"/>
       <c r="H84" s="52" t="str">
         <f>IF(E83="","","実績")</f>
@@ -5154,15 +5161,15 @@
       <c r="S84" s="32"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="73" t="s">
+      <c r="A85" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B85" s="74"/>
-      <c r="C85" s="74"/>
-      <c r="D85" s="75"/>
-      <c r="E85" s="79"/>
-      <c r="F85" s="79"/>
-      <c r="G85" s="71"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="71"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="114"/>
       <c r="H85" s="20" t="s">
         <v>18</v>
       </c>
@@ -5206,13 +5213,13 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="76"/>
-      <c r="B86" s="77"/>
-      <c r="C86" s="77"/>
-      <c r="D86" s="78"/>
-      <c r="E86" s="80"/>
-      <c r="F86" s="80"/>
-      <c r="G86" s="72"/>
+      <c r="A86" s="73"/>
+      <c r="B86" s="74"/>
+      <c r="C86" s="74"/>
+      <c r="D86" s="75"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="115"/>
       <c r="H86" s="7" t="s">
         <v>19</v>
       </c>
@@ -5256,16 +5263,16 @@
       </c>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="55">
+      <c r="A87" s="67">
         <v>1</v>
       </c>
-      <c r="B87" s="59" t="s">
+      <c r="B87" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C87" s="67"/>
-      <c r="D87" s="60"/>
-      <c r="E87" s="69"/>
-      <c r="F87" s="69"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="59"/>
       <c r="G87" s="53"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
@@ -5284,12 +5291,12 @@
       <c r="S87" s="31"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="56"/>
-      <c r="B88" s="61"/>
-      <c r="C88" s="68"/>
-      <c r="D88" s="62"/>
-      <c r="E88" s="70"/>
-      <c r="F88" s="70"/>
+      <c r="A88" s="68"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="60"/>
       <c r="G88" s="54"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
@@ -5308,17 +5315,17 @@
       <c r="S88" s="32"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="55"/>
-      <c r="B89" s="57" t="s">
+      <c r="A89" s="67"/>
+      <c r="B89" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="59" t="s">
+      <c r="C89" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="D89" s="60"/>
-      <c r="E89" s="63"/>
-      <c r="F89" s="63"/>
-      <c r="G89" s="65"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="57"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -5345,12 +5352,12 @@
       <c r="S89" s="31"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="56"/>
+      <c r="A90" s="68"/>
       <c r="B90" s="58"/>
-      <c r="C90" s="61"/>
-      <c r="D90" s="62"/>
-      <c r="E90" s="64"/>
-      <c r="F90" s="64"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
       <c r="G90" s="58"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
@@ -5372,17 +5379,17 @@
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="55"/>
-      <c r="B91" s="57" t="s">
+      <c r="A91" s="67"/>
+      <c r="B91" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C91" s="66" t="s">
+      <c r="C91" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="D91" s="60"/>
-      <c r="E91" s="63"/>
-      <c r="F91" s="63"/>
-      <c r="G91" s="65"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="57"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5403,12 +5410,12 @@
       <c r="S91" s="31"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="56"/>
+      <c r="A92" s="68"/>
       <c r="B92" s="58"/>
-      <c r="C92" s="61"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="64"/>
-      <c r="F92" s="64"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="66"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="56"/>
       <c r="G92" s="58"/>
       <c r="H92" s="52" t="str">
         <f>IF(E91="","","実績")</f>
@@ -5430,16 +5437,16 @@
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="55">
+      <c r="A93" s="67">
         <v>2</v>
       </c>
-      <c r="B93" s="59" t="s">
+      <c r="B93" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C93" s="67"/>
-      <c r="D93" s="60"/>
-      <c r="E93" s="69"/>
-      <c r="F93" s="69"/>
+      <c r="C93" s="62"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="59"/>
+      <c r="F93" s="59"/>
       <c r="G93" s="53"/>
       <c r="H93" s="23" t="str">
         <f>IF(E93="","","予定")</f>
@@ -5458,12 +5465,12 @@
       <c r="S93" s="31"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="56"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="68"/>
-      <c r="D94" s="62"/>
-      <c r="E94" s="70"/>
-      <c r="F94" s="70"/>
+      <c r="A94" s="68"/>
+      <c r="B94" s="64"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="66"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="60"/>
       <c r="G94" s="54"/>
       <c r="H94" s="24" t="str">
         <f>IF(E93="","","実績")</f>
@@ -5482,17 +5489,17 @@
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="55"/>
-      <c r="B95" s="57" t="s">
+      <c r="A95" s="67"/>
+      <c r="B95" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="59" t="s">
+      <c r="C95" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D95" s="60"/>
-      <c r="E95" s="63"/>
-      <c r="F95" s="63"/>
-      <c r="G95" s="65"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="57"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5519,12 +5526,12 @@
       <c r="S95" s="31"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="56"/>
+      <c r="A96" s="68"/>
       <c r="B96" s="58"/>
-      <c r="C96" s="61"/>
-      <c r="D96" s="62"/>
-      <c r="E96" s="64"/>
-      <c r="F96" s="64"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="56"/>
       <c r="G96" s="58"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
@@ -5546,17 +5553,17 @@
       <c r="S96" s="32"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="55"/>
-      <c r="B97" s="57" t="s">
+      <c r="A97" s="67"/>
+      <c r="B97" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C97" s="59" t="s">
+      <c r="C97" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D97" s="60"/>
-      <c r="E97" s="63"/>
-      <c r="F97" s="63"/>
-      <c r="G97" s="65"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="57"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -5583,12 +5590,12 @@
       <c r="S97" s="31"/>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="56"/>
+      <c r="A98" s="68"/>
       <c r="B98" s="58"/>
-      <c r="C98" s="61"/>
-      <c r="D98" s="62"/>
-      <c r="E98" s="64"/>
-      <c r="F98" s="64"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="66"/>
+      <c r="E98" s="56"/>
+      <c r="F98" s="56"/>
       <c r="G98" s="58"/>
       <c r="H98" s="52" t="str">
         <f>IF(E97="","","実績")</f>
@@ -5610,15 +5617,15 @@
       <c r="S98" s="44"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="73" t="s">
+      <c r="A99" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="B99" s="74"/>
-      <c r="C99" s="74"/>
-      <c r="D99" s="75"/>
-      <c r="E99" s="79"/>
-      <c r="F99" s="79"/>
-      <c r="G99" s="71"/>
+      <c r="B99" s="71"/>
+      <c r="C99" s="71"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="76"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="114"/>
       <c r="H99" s="20" t="s">
         <v>18</v>
       </c>
@@ -5650,11 +5657,11 @@
       </c>
       <c r="Q99" s="35">
         <f t="shared" si="26"/>
-        <v>10.75</v>
+        <v>0</v>
       </c>
       <c r="R99" s="35">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="S99" s="35">
         <f>SUMPRODUCT((MOD(ROW(S$101:S$112),2)=1)*S$101:S$112)</f>
@@ -5662,13 +5669,13 @@
       </c>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="76"/>
-      <c r="B100" s="77"/>
-      <c r="C100" s="77"/>
-      <c r="D100" s="78"/>
-      <c r="E100" s="80"/>
-      <c r="F100" s="80"/>
-      <c r="G100" s="72"/>
+      <c r="A100" s="73"/>
+      <c r="B100" s="74"/>
+      <c r="C100" s="74"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="115"/>
       <c r="H100" s="7" t="s">
         <v>19</v>
       </c>
@@ -5712,16 +5719,16 @@
       </c>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="55">
+      <c r="A101" s="67">
         <v>1</v>
       </c>
-      <c r="B101" s="59" t="s">
+      <c r="B101" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C101" s="67"/>
-      <c r="D101" s="60"/>
-      <c r="E101" s="69"/>
-      <c r="F101" s="69"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="59"/>
+      <c r="F101" s="59"/>
       <c r="G101" s="53"/>
       <c r="H101" s="23" t="str">
         <f>IF(E101="","","予定")</f>
@@ -5740,12 +5747,12 @@
       <c r="S101" s="31"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="56"/>
-      <c r="B102" s="61"/>
-      <c r="C102" s="68"/>
-      <c r="D102" s="62"/>
-      <c r="E102" s="70"/>
-      <c r="F102" s="70"/>
+      <c r="A102" s="68"/>
+      <c r="B102" s="64"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="66"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="60"/>
       <c r="G102" s="54"/>
       <c r="H102" s="24" t="str">
         <f>IF(E101="","","実績")</f>
@@ -5764,17 +5771,17 @@
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="55"/>
-      <c r="B103" s="57" t="s">
+      <c r="A103" s="67"/>
+      <c r="B103" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C103" s="59" t="s">
+      <c r="C103" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="D103" s="60"/>
-      <c r="E103" s="63"/>
-      <c r="F103" s="63"/>
-      <c r="G103" s="65"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="55"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="57"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -5794,19 +5801,19 @@
       <c r="N103" s="31"/>
       <c r="O103" s="31"/>
       <c r="P103" s="31"/>
-      <c r="Q103" s="31">
+      <c r="Q103" s="31"/>
+      <c r="R103" s="31">
         <v>6</v>
       </c>
-      <c r="R103" s="31"/>
       <c r="S103" s="31"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="56"/>
+      <c r="A104" s="68"/>
       <c r="B104" s="58"/>
-      <c r="C104" s="61"/>
-      <c r="D104" s="62"/>
-      <c r="E104" s="64"/>
-      <c r="F104" s="64"/>
+      <c r="C104" s="64"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="56"/>
+      <c r="F104" s="56"/>
       <c r="G104" s="58"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
@@ -5828,17 +5835,17 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="55"/>
-      <c r="B105" s="57" t="s">
+      <c r="A105" s="67"/>
+      <c r="B105" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C105" s="59" t="s">
+      <c r="C105" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="D105" s="60"/>
-      <c r="E105" s="63"/>
-      <c r="F105" s="63"/>
-      <c r="G105" s="65"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="55"/>
+      <c r="F105" s="55"/>
+      <c r="G105" s="57"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v/>
@@ -5858,19 +5865,19 @@
       <c r="N105" s="31"/>
       <c r="O105" s="31"/>
       <c r="P105" s="31"/>
-      <c r="Q105" s="31">
+      <c r="Q105" s="31"/>
+      <c r="R105" s="31">
         <v>3</v>
       </c>
-      <c r="R105" s="31"/>
       <c r="S105" s="31"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="56"/>
+      <c r="A106" s="68"/>
       <c r="B106" s="58"/>
-      <c r="C106" s="61"/>
-      <c r="D106" s="62"/>
-      <c r="E106" s="64"/>
-      <c r="F106" s="64"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="66"/>
+      <c r="E106" s="56"/>
+      <c r="F106" s="56"/>
       <c r="G106" s="58"/>
       <c r="H106" s="52" t="str">
         <f>IF(E105="","","実績")</f>
@@ -5892,16 +5899,16 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="55">
+      <c r="A107" s="67">
         <v>2</v>
       </c>
-      <c r="B107" s="59" t="s">
+      <c r="B107" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C107" s="67"/>
-      <c r="D107" s="60"/>
-      <c r="E107" s="69"/>
-      <c r="F107" s="69"/>
+      <c r="C107" s="62"/>
+      <c r="D107" s="63"/>
+      <c r="E107" s="59"/>
+      <c r="F107" s="59"/>
       <c r="G107" s="53"/>
       <c r="H107" s="23" t="str">
         <f>IF(E107="","","予定")</f>
@@ -5920,12 +5927,12 @@
       <c r="S107" s="31"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="56"/>
-      <c r="B108" s="61"/>
-      <c r="C108" s="68"/>
-      <c r="D108" s="62"/>
-      <c r="E108" s="70"/>
-      <c r="F108" s="70"/>
+      <c r="A108" s="68"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="65"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="60"/>
+      <c r="F108" s="60"/>
       <c r="G108" s="54"/>
       <c r="H108" s="24" t="str">
         <f>IF(E107="","","実績")</f>
@@ -5944,17 +5951,17 @@
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="55"/>
-      <c r="B109" s="57" t="s">
+      <c r="A109" s="67"/>
+      <c r="B109" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C109" s="59" t="s">
+      <c r="C109" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D109" s="60"/>
-      <c r="E109" s="63"/>
-      <c r="F109" s="63"/>
-      <c r="G109" s="65"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="55"/>
+      <c r="F109" s="55"/>
+      <c r="G109" s="57"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -5974,19 +5981,19 @@
       <c r="N109" s="31"/>
       <c r="O109" s="31"/>
       <c r="P109" s="31"/>
-      <c r="Q109" s="31">
+      <c r="Q109" s="31"/>
+      <c r="R109" s="31">
         <v>1.5</v>
       </c>
-      <c r="R109" s="31"/>
       <c r="S109" s="31"/>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="56"/>
+      <c r="A110" s="68"/>
       <c r="B110" s="58"/>
-      <c r="C110" s="61"/>
-      <c r="D110" s="62"/>
-      <c r="E110" s="64"/>
-      <c r="F110" s="64"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="66"/>
+      <c r="E110" s="56"/>
+      <c r="F110" s="56"/>
       <c r="G110" s="58"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
@@ -6008,17 +6015,17 @@
       <c r="S110" s="32"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="55"/>
-      <c r="B111" s="57" t="s">
+      <c r="A111" s="67"/>
+      <c r="B111" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C111" s="59" t="s">
+      <c r="C111" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D111" s="60"/>
-      <c r="E111" s="63"/>
-      <c r="F111" s="63"/>
-      <c r="G111" s="65"/>
+      <c r="D111" s="63"/>
+      <c r="E111" s="55"/>
+      <c r="F111" s="55"/>
+      <c r="G111" s="57"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v/>
@@ -6038,19 +6045,19 @@
       <c r="N111" s="31"/>
       <c r="O111" s="31"/>
       <c r="P111" s="31"/>
-      <c r="Q111" s="31">
+      <c r="Q111" s="31"/>
+      <c r="R111" s="31">
         <v>0.25</v>
       </c>
-      <c r="R111" s="31"/>
       <c r="S111" s="31"/>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="56"/>
+      <c r="A112" s="68"/>
       <c r="B112" s="58"/>
-      <c r="C112" s="61"/>
-      <c r="D112" s="62"/>
-      <c r="E112" s="64"/>
-      <c r="F112" s="64"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="66"/>
+      <c r="E112" s="56"/>
+      <c r="F112" s="56"/>
       <c r="G112" s="58"/>
       <c r="H112" s="52" t="str">
         <f>IF(E111="","","実績")</f>
@@ -6087,19 +6094,284 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="B27:B28"/>
@@ -6124,284 +6396,19 @@
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L9:S18 L25:S36 L101:S112 L87:S98">
@@ -6505,6 +6512,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6688,15 +6704,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
@@ -6707,6 +6714,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{820382CB-708E-4EB8-A8B5-B0353CDDD771}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6722,12 +6737,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/反復２/反復２WBSガントチャート.xlsx
+++ b/反復２/反復２WBSガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E576E3-F894-49ED-AB5A-6968FC9FA94E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A4DC02-22D3-4D38-BDD3-5C59A6AB62F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1527,6 +1527,30 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1536,7 +1560,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1545,31 +1575,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1596,6 +1605,96 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1625,105 +1724,6 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2333,10 +2333,10 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="J53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O56" sqref="O56"/>
+      <selection pane="bottomRight" activeCell="O68" sqref="O68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2355,120 +2355,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="94" t="s">
+      <c r="A1" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="94" t="s">
+      <c r="I1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="94" t="s">
+      <c r="J1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="88" t="s">
+      <c r="K1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="78">
+      <c r="L1" s="111">
         <v>43992</v>
       </c>
-      <c r="M1" s="79"/>
-      <c r="N1" s="78">
+      <c r="M1" s="112"/>
+      <c r="N1" s="111">
         <v>43993</v>
       </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="78">
+      <c r="O1" s="112"/>
+      <c r="P1" s="111">
         <v>43994</v>
       </c>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="78">
+      <c r="Q1" s="112"/>
+      <c r="R1" s="111">
         <v>43997</v>
       </c>
-      <c r="S1" s="79"/>
+      <c r="S1" s="112"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="98"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="82" t="s">
+      <c r="A2" s="97"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="81"/>
-      <c r="N2" s="83" t="s">
+      <c r="M2" s="114"/>
+      <c r="N2" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="81"/>
-      <c r="P2" s="80" t="s">
+      <c r="O2" s="114"/>
+      <c r="P2" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="80" t="s">
+      <c r="Q2" s="114"/>
+      <c r="R2" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="81"/>
+      <c r="S2" s="114"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="98"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="86" t="s">
+      <c r="A3" s="97"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="84" t="s">
+      <c r="M3" s="118"/>
+      <c r="N3" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="84" t="s">
+      <c r="O3" s="118"/>
+      <c r="P3" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="87" t="s">
+      <c r="Q3" s="118"/>
+      <c r="R3" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="87"/>
+      <c r="S3" s="120"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="99"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="90"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="92"/>
       <c r="L4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2495,15 +2495,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="118"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="86"/>
       <c r="H5" s="16" t="s">
         <v>18</v>
       </c>
@@ -2547,13 +2547,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="103"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="119"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="87"/>
       <c r="H6" s="18" t="s">
         <v>19</v>
       </c>
@@ -2564,31 +2564,31 @@
         <v>0</v>
       </c>
       <c r="L6" s="47">
-        <f t="shared" ref="L6:S6" si="1">SUM(M8,M24,M44,M60,M78,M86)</f>
+        <f>SUM(L8,L24,L44,L60,L78,L86)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="47">
+        <f>SUM(M8,M24,M44,M60,M78,N86)</f>
         <v>11</v>
       </c>
-      <c r="M6" s="47">
-        <f t="shared" si="1"/>
+      <c r="N6" s="47">
+        <f>SUM(N8,N24,N44,N60,N78,O86)</f>
         <v>16.5</v>
       </c>
-      <c r="N6" s="47">
-        <f t="shared" si="1"/>
-        <v>13.75</v>
-      </c>
       <c r="O6" s="47">
-        <f>SUM(O8,O24,O44,O60,O78,O86)</f>
-        <v>13.75</v>
+        <f>SUM(O8,O24,O44,O60,O78,P86)</f>
+        <v>19.75</v>
       </c>
       <c r="P6" s="47">
-        <f t="shared" si="1"/>
+        <f>SUM(P8,P24,P44,P60,P78,Q86)</f>
         <v>0</v>
       </c>
       <c r="Q6" s="47">
-        <f t="shared" si="1"/>
+        <f>SUM(Q8,Q24,Q44,Q60,Q78,R86)</f>
         <v>0</v>
       </c>
       <c r="R6" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L6:S6" si="1">SUM(S8,S24,S44,S60,S78,S86)</f>
         <v>0</v>
       </c>
       <c r="S6" s="47">
@@ -2597,15 +2597,15 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="111"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="108"/>
       <c r="H7" s="4" t="s">
         <v>18</v>
       </c>
@@ -2649,13 +2649,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="73"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="112"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="6" t="s">
         <v>19</v>
       </c>
@@ -2699,16 +2699,16 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="67">
+      <c r="A9" s="55">
         <v>1</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="53"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
@@ -2727,12 +2727,12 @@
       <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="68"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
       <c r="G10" s="54"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
@@ -2751,17 +2751,17 @@
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="67"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="57"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="65"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v/>
@@ -2788,12 +2788,12 @@
       <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="68"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="58"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
       <c r="G12" s="58"/>
       <c r="H12" s="52" t="str">
         <f>IF(E11="","","実績")</f>
@@ -2817,17 +2817,17 @@
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="67"/>
-      <c r="B13" s="69" t="s">
+      <c r="A13" s="55"/>
+      <c r="B13" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="57"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="65"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v/>
@@ -2854,12 +2854,12 @@
       <c r="S13" s="31"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="68"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="58"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
       <c r="G14" s="58"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
@@ -2883,16 +2883,16 @@
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="67">
+      <c r="A15" s="55">
         <v>2</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="53"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
@@ -2911,12 +2911,12 @@
       <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="68"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
       <c r="G16" s="54"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
@@ -2935,17 +2935,17 @@
       <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="67"/>
-      <c r="B17" s="69" t="s">
+      <c r="A17" s="55"/>
+      <c r="B17" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="57"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="65"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v/>
@@ -2972,12 +2972,12 @@
       <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="68"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="58"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
       <c r="G18" s="58"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
@@ -3001,17 +3001,17 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="67"/>
-      <c r="B19" s="69" t="s">
+      <c r="A19" s="55"/>
+      <c r="B19" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="57"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="65"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v/>
@@ -3038,12 +3038,12 @@
       <c r="S19" s="31"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="68"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="58"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
       <c r="G20" s="58"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
@@ -3067,17 +3067,17 @@
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="67"/>
-      <c r="B21" s="69" t="s">
+      <c r="A21" s="55"/>
+      <c r="B21" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="57"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="65"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v/>
@@ -3104,12 +3104,12 @@
       <c r="S21" s="31"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="68"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="58"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
       <c r="G22" s="58"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
@@ -3133,15 +3133,15 @@
       <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="114"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="71"/>
       <c r="H23" s="20" t="s">
         <v>18</v>
       </c>
@@ -3185,13 +3185,13 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="115"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="72"/>
       <c r="H24" s="7" t="s">
         <v>19</v>
       </c>
@@ -3235,16 +3235,16 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="67">
+      <c r="A25" s="55">
         <v>1</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
       <c r="G25" s="53"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
@@ -3263,12 +3263,12 @@
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="68"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
       <c r="G26" s="54"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
@@ -3287,17 +3287,17 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="67"/>
-      <c r="B27" s="69" t="s">
+      <c r="A27" s="55"/>
+      <c r="B27" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="57"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="65"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v/>
@@ -3318,12 +3318,12 @@
       <c r="S27" s="31"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="68"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="58"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
       <c r="G28" s="58"/>
       <c r="H28" s="52" t="str">
         <f>IF(E27="","","実績")</f>
@@ -3345,17 +3345,17 @@
       <c r="S28" s="32"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="67"/>
-      <c r="B29" s="69" t="s">
+      <c r="A29" s="55"/>
+      <c r="B29" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="57"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="65"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v/>
@@ -3376,12 +3376,12 @@
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="68"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="58"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
       <c r="G30" s="58"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
@@ -3403,17 +3403,17 @@
       <c r="S30" s="32"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="67"/>
-      <c r="B31" s="69" t="s">
+      <c r="A31" s="55"/>
+      <c r="B31" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="57"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="65"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v/>
@@ -3434,12 +3434,12 @@
       <c r="S31" s="31"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="68"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="58"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
       <c r="G32" s="58"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
@@ -3461,17 +3461,17 @@
       <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="67"/>
-      <c r="B33" s="69" t="s">
+      <c r="A33" s="55"/>
+      <c r="B33" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="57"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="65"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v/>
@@ -3492,12 +3492,12 @@
       <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="68"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="58"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
       <c r="G34" s="58"/>
       <c r="H34" s="52" t="str">
         <f>IF(E33="","","実績")</f>
@@ -3519,16 +3519,16 @@
       <c r="S34" s="32"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="67">
+      <c r="A35" s="55">
         <v>2</v>
       </c>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
       <c r="G35" s="53"/>
       <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
@@ -3547,12 +3547,12 @@
       <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="68"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
       <c r="G36" s="54"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
@@ -3571,17 +3571,17 @@
       <c r="S36" s="32"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="67"/>
-      <c r="B37" s="69" t="s">
+      <c r="A37" s="55"/>
+      <c r="B37" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="57"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="65"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3602,12 +3602,12 @@
       <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="68"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="58"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
       <c r="G38" s="58"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
@@ -3629,17 +3629,17 @@
       <c r="S38" s="32"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="67"/>
-      <c r="B39" s="69" t="s">
+      <c r="A39" s="55"/>
+      <c r="B39" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="57"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="65"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v/>
@@ -3660,12 +3660,12 @@
       <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="68"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="58"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
       <c r="G40" s="58"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
@@ -3687,17 +3687,17 @@
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="67"/>
-      <c r="B41" s="69" t="s">
+      <c r="A41" s="55"/>
+      <c r="B41" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="C41" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="57"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="65"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v/>
@@ -3718,12 +3718,12 @@
       <c r="S41" s="31"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="68"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="58"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
       <c r="G42" s="58"/>
       <c r="H42" s="52" t="str">
         <f>IF(E41="","","実績")</f>
@@ -3745,15 +3745,15 @@
       <c r="S42" s="32"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="114"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="71"/>
       <c r="H43" s="20" t="s">
         <v>18</v>
       </c>
@@ -3797,13 +3797,13 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="73"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="115"/>
+      <c r="A44" s="76"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="72"/>
       <c r="H44" s="7" t="s">
         <v>19</v>
       </c>
@@ -3847,16 +3847,16 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="67">
+      <c r="A45" s="55">
         <v>1</v>
       </c>
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="62"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
       <c r="G45" s="53"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
@@ -3875,12 +3875,12 @@
       <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="68"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
       <c r="G46" s="54"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
@@ -3899,17 +3899,17 @@
       <c r="S46" s="32"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="67"/>
-      <c r="B47" s="69" t="s">
+      <c r="A47" s="55"/>
+      <c r="B47" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="61" t="s">
+      <c r="C47" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="57"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="65"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
@@ -3936,12 +3936,12 @@
       <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="68"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="58"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
       <c r="G48" s="58"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
@@ -3967,17 +3967,17 @@
       <c r="S48" s="32"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="67"/>
-      <c r="B49" s="69" t="s">
+      <c r="A49" s="55"/>
+      <c r="B49" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="63"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="57"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="65"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
@@ -4004,12 +4004,12 @@
       <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="68"/>
+      <c r="A50" s="56"/>
       <c r="B50" s="58"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
       <c r="G50" s="58"/>
       <c r="H50" s="52" t="str">
         <f>IF(E49="","","実績")</f>
@@ -4033,16 +4033,16 @@
       <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="67">
+      <c r="A51" s="55">
         <v>2</v>
       </c>
-      <c r="B51" s="61" t="s">
+      <c r="B51" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="62"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
       <c r="G51" s="53"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
@@ -4061,12 +4061,12 @@
       <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="68"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
       <c r="G52" s="54"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
@@ -4085,17 +4085,17 @@
       <c r="S52" s="32"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="67"/>
-      <c r="B53" s="69" t="s">
+      <c r="A53" s="55"/>
+      <c r="B53" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="61" t="s">
+      <c r="C53" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="63"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="57"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="65"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4122,12 +4122,12 @@
       <c r="S53" s="31"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="68"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="58"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
       <c r="G54" s="58"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
@@ -4151,17 +4151,17 @@
       <c r="S54" s="32"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="67"/>
-      <c r="B55" s="69" t="s">
+      <c r="A55" s="55"/>
+      <c r="B55" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="61" t="s">
+      <c r="C55" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="63"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="57"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="65"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4188,12 +4188,12 @@
       <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="68"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="58"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
       <c r="G56" s="58"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
@@ -4217,17 +4217,17 @@
       <c r="S56" s="32"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="67"/>
-      <c r="B57" s="69" t="s">
+      <c r="A57" s="55"/>
+      <c r="B57" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="61" t="s">
+      <c r="C57" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D57" s="63"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="57"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="65"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -4254,12 +4254,12 @@
       <c r="S57" s="31"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="68"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="58"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
       <c r="G58" s="58"/>
       <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
@@ -4283,15 +4283,15 @@
       <c r="S58" s="44"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="70" t="s">
+      <c r="A59" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="B59" s="71"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="114"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="71"/>
       <c r="H59" s="20" t="s">
         <v>18</v>
       </c>
@@ -4335,13 +4335,13 @@
       </c>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="73"/>
-      <c r="B60" s="74"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="115"/>
+      <c r="A60" s="76"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="80"/>
+      <c r="G60" s="72"/>
       <c r="H60" s="7" t="s">
         <v>19</v>
       </c>
@@ -4349,7 +4349,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$61:K$76),2)=0)*K$61:K$76)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L60" s="36">
         <f>SUMPRODUCT((MOD(ROW(L$61:L$76),2)=0)*L$61:L$76)</f>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="O60" s="36">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P60" s="36">
         <f t="shared" si="15"/>
@@ -4385,16 +4385,16 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="67">
+      <c r="A61" s="55">
         <v>1</v>
       </c>
-      <c r="B61" s="61" t="s">
+      <c r="B61" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="62"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="69"/>
       <c r="G61" s="53"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
@@ -4413,12 +4413,12 @@
       <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="68"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
+      <c r="A62" s="56"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
       <c r="G62" s="54"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
@@ -4437,17 +4437,17 @@
       <c r="S62" s="32"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="67"/>
-      <c r="B63" s="69" t="s">
+      <c r="A63" s="55"/>
+      <c r="B63" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="61" t="s">
+      <c r="C63" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D63" s="63"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="57"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="65"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4474,12 +4474,12 @@
       <c r="S63" s="31"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="68"/>
+      <c r="A64" s="56"/>
       <c r="B64" s="58"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
       <c r="G64" s="58"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
@@ -4489,29 +4489,31 @@
       <c r="J64" s="52"/>
       <c r="K64" s="10">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L64" s="41"/>
       <c r="M64" s="32"/>
       <c r="N64" s="32"/>
-      <c r="O64" s="32"/>
+      <c r="O64" s="32">
+        <v>3</v>
+      </c>
       <c r="P64" s="32"/>
       <c r="Q64" s="32"/>
       <c r="R64" s="32"/>
       <c r="S64" s="32"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="67"/>
-      <c r="B65" s="69" t="s">
+      <c r="A65" s="55"/>
+      <c r="B65" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="61" t="s">
+      <c r="C65" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="D65" s="63"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="57"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="65"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -4540,12 +4542,12 @@
       <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="68"/>
+      <c r="A66" s="56"/>
       <c r="B66" s="58"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
       <c r="G66" s="58"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
@@ -4555,29 +4557,31 @@
       <c r="J66" s="52"/>
       <c r="K66" s="10">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L66" s="41"/>
       <c r="M66" s="32"/>
       <c r="N66" s="32"/>
-      <c r="O66" s="32"/>
+      <c r="O66" s="32">
+        <v>3</v>
+      </c>
       <c r="P66" s="32"/>
       <c r="Q66" s="32"/>
       <c r="R66" s="32"/>
       <c r="S66" s="32"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="67"/>
-      <c r="B67" s="69" t="s">
+      <c r="A67" s="55"/>
+      <c r="B67" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="61" t="s">
+      <c r="C67" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D67" s="63"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="57"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="65"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -4604,12 +4608,12 @@
       <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="68"/>
+      <c r="A68" s="56"/>
       <c r="B68" s="58"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
       <c r="G68" s="58"/>
       <c r="H68" s="52" t="str">
         <f>IF(E67="","","実績")</f>
@@ -4631,16 +4635,16 @@
       <c r="S68" s="32"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="67">
+      <c r="A69" s="55">
         <v>2</v>
       </c>
-      <c r="B69" s="61" t="s">
+      <c r="B69" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="62"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="69"/>
       <c r="G69" s="53"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
@@ -4659,12 +4663,12 @@
       <c r="S69" s="31"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="68"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="60"/>
+      <c r="A70" s="56"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="70"/>
       <c r="G70" s="54"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
@@ -4683,17 +4687,17 @@
       <c r="S70" s="32"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="67"/>
-      <c r="B71" s="69" t="s">
+      <c r="A71" s="55"/>
+      <c r="B71" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="61" t="s">
+      <c r="C71" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D71" s="63"/>
-      <c r="E71" s="55"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="57"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="65"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -4720,12 +4724,12 @@
       <c r="S71" s="31"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="68"/>
+      <c r="A72" s="56"/>
       <c r="B72" s="58"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
       <c r="G72" s="58"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
@@ -4747,17 +4751,17 @@
       <c r="S72" s="32"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="67"/>
-      <c r="B73" s="69" t="s">
+      <c r="A73" s="55"/>
+      <c r="B73" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="61" t="s">
+      <c r="C73" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D73" s="63"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="57"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="65"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -4784,12 +4788,12 @@
       <c r="S73" s="31"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="68"/>
+      <c r="A74" s="56"/>
       <c r="B74" s="58"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="56"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
       <c r="G74" s="58"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
@@ -4811,17 +4815,17 @@
       <c r="S74" s="32"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="67"/>
-      <c r="B75" s="69" t="s">
+      <c r="A75" s="55"/>
+      <c r="B75" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C75" s="61" t="s">
+      <c r="C75" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D75" s="63"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="57"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="65"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -4848,12 +4852,12 @@
       <c r="S75" s="31"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="68"/>
+      <c r="A76" s="56"/>
       <c r="B76" s="58"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
       <c r="G76" s="58"/>
       <c r="H76" s="52" t="str">
         <f>IF(E75="","","実績")</f>
@@ -4875,15 +4879,15 @@
       <c r="S76" s="44"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="70" t="s">
+      <c r="A77" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="71"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="114"/>
+      <c r="B77" s="74"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="79"/>
+      <c r="G77" s="71"/>
       <c r="H77" s="20" t="s">
         <v>18</v>
       </c>
@@ -4927,13 +4931,13 @@
       </c>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="73"/>
-      <c r="B78" s="74"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="75"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="77"/>
-      <c r="G78" s="115"/>
+      <c r="A78" s="76"/>
+      <c r="B78" s="77"/>
+      <c r="C78" s="77"/>
+      <c r="D78" s="78"/>
+      <c r="E78" s="80"/>
+      <c r="F78" s="80"/>
+      <c r="G78" s="72"/>
       <c r="H78" s="7" t="s">
         <v>19</v>
       </c>
@@ -4977,16 +4981,16 @@
       </c>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="67">
+      <c r="A79" s="55">
         <v>1</v>
       </c>
-      <c r="B79" s="61" t="s">
+      <c r="B79" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="62"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="59"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="69"/>
+      <c r="F79" s="69"/>
       <c r="G79" s="53"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
@@ -5005,12 +5009,12 @@
       <c r="S79" s="31"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="68"/>
-      <c r="B80" s="64"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="60"/>
+      <c r="A80" s="56"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="68"/>
+      <c r="D80" s="62"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="70"/>
       <c r="G80" s="54"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
@@ -5029,17 +5033,17 @@
       <c r="S80" s="32"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="67"/>
-      <c r="B81" s="69" t="s">
+      <c r="A81" s="55"/>
+      <c r="B81" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="61" t="s">
+      <c r="C81" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="D81" s="63"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="55"/>
-      <c r="G81" s="57"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="65"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5068,12 +5072,12 @@
       <c r="S81" s="31"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="68"/>
+      <c r="A82" s="56"/>
       <c r="B82" s="58"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="66"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="64"/>
+      <c r="F82" s="64"/>
       <c r="G82" s="58"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
@@ -5095,17 +5099,17 @@
       <c r="S82" s="32"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="67"/>
-      <c r="B83" s="69" t="s">
+      <c r="A83" s="55"/>
+      <c r="B83" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C83" s="61" t="s">
+      <c r="C83" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="D83" s="63"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="57"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="65"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -5134,12 +5138,12 @@
       <c r="S83" s="31"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="68"/>
+      <c r="A84" s="56"/>
       <c r="B84" s="58"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="62"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="64"/>
       <c r="G84" s="58"/>
       <c r="H84" s="52" t="str">
         <f>IF(E83="","","実績")</f>
@@ -5161,15 +5165,15 @@
       <c r="S84" s="32"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="70" t="s">
+      <c r="A85" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="B85" s="71"/>
-      <c r="C85" s="71"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="76"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="114"/>
+      <c r="B85" s="74"/>
+      <c r="C85" s="74"/>
+      <c r="D85" s="75"/>
+      <c r="E85" s="79"/>
+      <c r="F85" s="79"/>
+      <c r="G85" s="71"/>
       <c r="H85" s="20" t="s">
         <v>18</v>
       </c>
@@ -5213,13 +5217,13 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="73"/>
-      <c r="B86" s="74"/>
-      <c r="C86" s="74"/>
-      <c r="D86" s="75"/>
-      <c r="E86" s="77"/>
-      <c r="F86" s="77"/>
-      <c r="G86" s="115"/>
+      <c r="A86" s="76"/>
+      <c r="B86" s="77"/>
+      <c r="C86" s="77"/>
+      <c r="D86" s="78"/>
+      <c r="E86" s="80"/>
+      <c r="F86" s="80"/>
+      <c r="G86" s="72"/>
       <c r="H86" s="7" t="s">
         <v>19</v>
       </c>
@@ -5263,16 +5267,16 @@
       </c>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="67">
+      <c r="A87" s="55">
         <v>1</v>
       </c>
-      <c r="B87" s="61" t="s">
+      <c r="B87" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C87" s="62"/>
-      <c r="D87" s="63"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="59"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="69"/>
+      <c r="F87" s="69"/>
       <c r="G87" s="53"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
@@ -5291,12 +5295,12 @@
       <c r="S87" s="31"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="68"/>
-      <c r="B88" s="64"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="66"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="60"/>
+      <c r="A88" s="56"/>
+      <c r="B88" s="61"/>
+      <c r="C88" s="68"/>
+      <c r="D88" s="62"/>
+      <c r="E88" s="70"/>
+      <c r="F88" s="70"/>
       <c r="G88" s="54"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
@@ -5315,17 +5319,17 @@
       <c r="S88" s="32"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="67"/>
-      <c r="B89" s="69" t="s">
+      <c r="A89" s="55"/>
+      <c r="B89" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="61" t="s">
+      <c r="C89" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="D89" s="63"/>
-      <c r="E89" s="55"/>
-      <c r="F89" s="55"/>
-      <c r="G89" s="57"/>
+      <c r="D89" s="60"/>
+      <c r="E89" s="63"/>
+      <c r="F89" s="63"/>
+      <c r="G89" s="65"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -5352,12 +5356,12 @@
       <c r="S89" s="31"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="68"/>
+      <c r="A90" s="56"/>
       <c r="B90" s="58"/>
-      <c r="C90" s="64"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="56"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="62"/>
+      <c r="E90" s="64"/>
+      <c r="F90" s="64"/>
       <c r="G90" s="58"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
@@ -5379,17 +5383,17 @@
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="67"/>
-      <c r="B91" s="69" t="s">
+      <c r="A91" s="55"/>
+      <c r="B91" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C91" s="120" t="s">
+      <c r="C91" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="D91" s="63"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="57"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="63"/>
+      <c r="F91" s="63"/>
+      <c r="G91" s="65"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5410,12 +5414,12 @@
       <c r="S91" s="31"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="68"/>
+      <c r="A92" s="56"/>
       <c r="B92" s="58"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="66"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="56"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="64"/>
       <c r="G92" s="58"/>
       <c r="H92" s="52" t="str">
         <f>IF(E91="","","実績")</f>
@@ -5437,16 +5441,16 @@
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="67">
+      <c r="A93" s="55">
         <v>2</v>
       </c>
-      <c r="B93" s="61" t="s">
+      <c r="B93" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C93" s="62"/>
-      <c r="D93" s="63"/>
-      <c r="E93" s="59"/>
-      <c r="F93" s="59"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="60"/>
+      <c r="E93" s="69"/>
+      <c r="F93" s="69"/>
       <c r="G93" s="53"/>
       <c r="H93" s="23" t="str">
         <f>IF(E93="","","予定")</f>
@@ -5465,12 +5469,12 @@
       <c r="S93" s="31"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="68"/>
-      <c r="B94" s="64"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="60"/>
-      <c r="F94" s="60"/>
+      <c r="A94" s="56"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="68"/>
+      <c r="D94" s="62"/>
+      <c r="E94" s="70"/>
+      <c r="F94" s="70"/>
       <c r="G94" s="54"/>
       <c r="H94" s="24" t="str">
         <f>IF(E93="","","実績")</f>
@@ -5489,17 +5493,17 @@
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="67"/>
-      <c r="B95" s="69" t="s">
+      <c r="A95" s="55"/>
+      <c r="B95" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="61" t="s">
+      <c r="C95" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D95" s="63"/>
-      <c r="E95" s="55"/>
-      <c r="F95" s="55"/>
-      <c r="G95" s="57"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="63"/>
+      <c r="F95" s="63"/>
+      <c r="G95" s="65"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5526,12 +5530,12 @@
       <c r="S95" s="31"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="68"/>
+      <c r="A96" s="56"/>
       <c r="B96" s="58"/>
-      <c r="C96" s="64"/>
-      <c r="D96" s="66"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="56"/>
+      <c r="C96" s="61"/>
+      <c r="D96" s="62"/>
+      <c r="E96" s="64"/>
+      <c r="F96" s="64"/>
       <c r="G96" s="58"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
@@ -5553,17 +5557,17 @@
       <c r="S96" s="32"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="67"/>
-      <c r="B97" s="69" t="s">
+      <c r="A97" s="55"/>
+      <c r="B97" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C97" s="61" t="s">
+      <c r="C97" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D97" s="63"/>
-      <c r="E97" s="55"/>
-      <c r="F97" s="55"/>
-      <c r="G97" s="57"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="63"/>
+      <c r="F97" s="63"/>
+      <c r="G97" s="65"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -5590,12 +5594,12 @@
       <c r="S97" s="31"/>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="68"/>
+      <c r="A98" s="56"/>
       <c r="B98" s="58"/>
-      <c r="C98" s="64"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="56"/>
-      <c r="F98" s="56"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="62"/>
+      <c r="E98" s="64"/>
+      <c r="F98" s="64"/>
       <c r="G98" s="58"/>
       <c r="H98" s="52" t="str">
         <f>IF(E97="","","実績")</f>
@@ -5617,15 +5621,15 @@
       <c r="S98" s="44"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="70" t="s">
+      <c r="A99" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="B99" s="71"/>
-      <c r="C99" s="71"/>
-      <c r="D99" s="72"/>
-      <c r="E99" s="76"/>
-      <c r="F99" s="76"/>
-      <c r="G99" s="114"/>
+      <c r="B99" s="74"/>
+      <c r="C99" s="74"/>
+      <c r="D99" s="75"/>
+      <c r="E99" s="79"/>
+      <c r="F99" s="79"/>
+      <c r="G99" s="71"/>
       <c r="H99" s="20" t="s">
         <v>18</v>
       </c>
@@ -5669,13 +5673,13 @@
       </c>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="73"/>
-      <c r="B100" s="74"/>
-      <c r="C100" s="74"/>
-      <c r="D100" s="75"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="115"/>
+      <c r="A100" s="76"/>
+      <c r="B100" s="77"/>
+      <c r="C100" s="77"/>
+      <c r="D100" s="78"/>
+      <c r="E100" s="80"/>
+      <c r="F100" s="80"/>
+      <c r="G100" s="72"/>
       <c r="H100" s="7" t="s">
         <v>19</v>
       </c>
@@ -5719,16 +5723,16 @@
       </c>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="67">
+      <c r="A101" s="55">
         <v>1</v>
       </c>
-      <c r="B101" s="61" t="s">
+      <c r="B101" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C101" s="62"/>
-      <c r="D101" s="63"/>
-      <c r="E101" s="59"/>
-      <c r="F101" s="59"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="60"/>
+      <c r="E101" s="69"/>
+      <c r="F101" s="69"/>
       <c r="G101" s="53"/>
       <c r="H101" s="23" t="str">
         <f>IF(E101="","","予定")</f>
@@ -5747,12 +5751,12 @@
       <c r="S101" s="31"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="68"/>
-      <c r="B102" s="64"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="66"/>
-      <c r="E102" s="60"/>
-      <c r="F102" s="60"/>
+      <c r="A102" s="56"/>
+      <c r="B102" s="61"/>
+      <c r="C102" s="68"/>
+      <c r="D102" s="62"/>
+      <c r="E102" s="70"/>
+      <c r="F102" s="70"/>
       <c r="G102" s="54"/>
       <c r="H102" s="24" t="str">
         <f>IF(E101="","","実績")</f>
@@ -5771,17 +5775,17 @@
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="67"/>
-      <c r="B103" s="69" t="s">
+      <c r="A103" s="55"/>
+      <c r="B103" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C103" s="61" t="s">
+      <c r="C103" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="D103" s="63"/>
-      <c r="E103" s="55"/>
-      <c r="F103" s="55"/>
-      <c r="G103" s="57"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="63"/>
+      <c r="F103" s="63"/>
+      <c r="G103" s="65"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -5808,12 +5812,12 @@
       <c r="S103" s="31"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="68"/>
+      <c r="A104" s="56"/>
       <c r="B104" s="58"/>
-      <c r="C104" s="64"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="56"/>
+      <c r="C104" s="61"/>
+      <c r="D104" s="62"/>
+      <c r="E104" s="64"/>
+      <c r="F104" s="64"/>
       <c r="G104" s="58"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
@@ -5835,17 +5839,17 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="67"/>
-      <c r="B105" s="69" t="s">
+      <c r="A105" s="55"/>
+      <c r="B105" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C105" s="61" t="s">
+      <c r="C105" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D105" s="63"/>
-      <c r="E105" s="55"/>
-      <c r="F105" s="55"/>
-      <c r="G105" s="57"/>
+      <c r="D105" s="60"/>
+      <c r="E105" s="63"/>
+      <c r="F105" s="63"/>
+      <c r="G105" s="65"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v/>
@@ -5872,12 +5876,12 @@
       <c r="S105" s="31"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="68"/>
+      <c r="A106" s="56"/>
       <c r="B106" s="58"/>
-      <c r="C106" s="64"/>
-      <c r="D106" s="66"/>
-      <c r="E106" s="56"/>
-      <c r="F106" s="56"/>
+      <c r="C106" s="61"/>
+      <c r="D106" s="62"/>
+      <c r="E106" s="64"/>
+      <c r="F106" s="64"/>
       <c r="G106" s="58"/>
       <c r="H106" s="52" t="str">
         <f>IF(E105="","","実績")</f>
@@ -5899,16 +5903,16 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="67">
+      <c r="A107" s="55">
         <v>2</v>
       </c>
-      <c r="B107" s="61" t="s">
+      <c r="B107" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C107" s="62"/>
-      <c r="D107" s="63"/>
-      <c r="E107" s="59"/>
-      <c r="F107" s="59"/>
+      <c r="C107" s="67"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="69"/>
+      <c r="F107" s="69"/>
       <c r="G107" s="53"/>
       <c r="H107" s="23" t="str">
         <f>IF(E107="","","予定")</f>
@@ -5927,12 +5931,12 @@
       <c r="S107" s="31"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="68"/>
-      <c r="B108" s="64"/>
-      <c r="C108" s="65"/>
-      <c r="D108" s="66"/>
-      <c r="E108" s="60"/>
-      <c r="F108" s="60"/>
+      <c r="A108" s="56"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="68"/>
+      <c r="D108" s="62"/>
+      <c r="E108" s="70"/>
+      <c r="F108" s="70"/>
       <c r="G108" s="54"/>
       <c r="H108" s="24" t="str">
         <f>IF(E107="","","実績")</f>
@@ -5951,17 +5955,17 @@
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="67"/>
-      <c r="B109" s="69" t="s">
+      <c r="A109" s="55"/>
+      <c r="B109" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C109" s="61" t="s">
+      <c r="C109" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D109" s="63"/>
-      <c r="E109" s="55"/>
-      <c r="F109" s="55"/>
-      <c r="G109" s="57"/>
+      <c r="D109" s="60"/>
+      <c r="E109" s="63"/>
+      <c r="F109" s="63"/>
+      <c r="G109" s="65"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -5988,12 +5992,12 @@
       <c r="S109" s="31"/>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="68"/>
+      <c r="A110" s="56"/>
       <c r="B110" s="58"/>
-      <c r="C110" s="64"/>
-      <c r="D110" s="66"/>
-      <c r="E110" s="56"/>
-      <c r="F110" s="56"/>
+      <c r="C110" s="61"/>
+      <c r="D110" s="62"/>
+      <c r="E110" s="64"/>
+      <c r="F110" s="64"/>
       <c r="G110" s="58"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
@@ -6015,17 +6019,17 @@
       <c r="S110" s="32"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="67"/>
-      <c r="B111" s="69" t="s">
+      <c r="A111" s="55"/>
+      <c r="B111" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C111" s="61" t="s">
+      <c r="C111" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D111" s="63"/>
-      <c r="E111" s="55"/>
-      <c r="F111" s="55"/>
-      <c r="G111" s="57"/>
+      <c r="D111" s="60"/>
+      <c r="E111" s="63"/>
+      <c r="F111" s="63"/>
+      <c r="G111" s="65"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v/>
@@ -6052,12 +6056,12 @@
       <c r="S111" s="31"/>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="68"/>
+      <c r="A112" s="56"/>
       <c r="B112" s="58"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="66"/>
-      <c r="E112" s="56"/>
-      <c r="F112" s="56"/>
+      <c r="C112" s="61"/>
+      <c r="D112" s="62"/>
+      <c r="E112" s="64"/>
+      <c r="F112" s="64"/>
       <c r="G112" s="58"/>
       <c r="H112" s="52" t="str">
         <f>IF(E111="","","実績")</f>
@@ -6094,95 +6098,208 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="G59:G60"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
@@ -6207,208 +6324,95 @@
     <mergeCell ref="G57:G58"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L9:S18 L25:S36 L101:S112 L87:S98">
@@ -6512,15 +6516,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6704,6 +6699,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
@@ -6714,14 +6718,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{820382CB-708E-4EB8-A8B5-B0353CDDD771}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6737,4 +6733,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/反復２/反復２WBSガントチャート.xlsx
+++ b/反復２/反復２WBSガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A4DC02-22D3-4D38-BDD3-5C59A6AB62F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5596491-4BD4-4808-8FE8-7E036318D346}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,13 +532,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>鈴木</t>
-    <rPh sb="0" eb="2">
-      <t>スズキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>徳竹</t>
   </si>
   <si>
@@ -552,6 +545,13 @@
     <t>月</t>
     <rPh sb="0" eb="1">
       <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>林</t>
+    <rPh sb="0" eb="1">
+      <t>ハヤシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1527,6 +1527,42 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1536,194 +1572,158 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2333,10 +2333,10 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="J53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O68" sqref="O68"/>
+      <selection pane="bottomRight" activeCell="Q82" sqref="Q82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2355,120 +2355,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="81" t="s">
+      <c r="A1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="G1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="I1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="J1" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="111">
+      <c r="L1" s="78">
         <v>43992</v>
       </c>
-      <c r="M1" s="112"/>
-      <c r="N1" s="111">
+      <c r="M1" s="79"/>
+      <c r="N1" s="78">
         <v>43993</v>
       </c>
-      <c r="O1" s="112"/>
-      <c r="P1" s="111">
+      <c r="O1" s="79"/>
+      <c r="P1" s="78">
         <v>43994</v>
       </c>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="111">
+      <c r="Q1" s="79"/>
+      <c r="R1" s="78">
         <v>43997</v>
       </c>
-      <c r="S1" s="112"/>
+      <c r="S1" s="79"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="97"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="115" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="114"/>
-      <c r="N2" s="116" t="s">
+      <c r="M2" s="81"/>
+      <c r="N2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="114"/>
-      <c r="P2" s="113" t="s">
+      <c r="O2" s="81"/>
+      <c r="P2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="113" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" s="114"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="81"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="97"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="119" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="118"/>
-      <c r="N3" s="117" t="s">
+      <c r="M3" s="85"/>
+      <c r="N3" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="118"/>
-      <c r="P3" s="117" t="s">
+      <c r="O3" s="85"/>
+      <c r="P3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="120" t="s">
+      <c r="Q3" s="85"/>
+      <c r="R3" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="120"/>
+      <c r="S3" s="87"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="98"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="92"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="90"/>
       <c r="L4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2495,15 +2495,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="86"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="118"/>
       <c r="H5" s="16" t="s">
         <v>18</v>
       </c>
@@ -2547,13 +2547,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="87"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="119"/>
       <c r="H6" s="18" t="s">
         <v>19</v>
       </c>
@@ -2581,14 +2581,14 @@
       </c>
       <c r="P6" s="47">
         <f>SUM(P8,P24,P44,P60,P78,Q86)</f>
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="Q6" s="47">
         <f>SUM(Q8,Q24,Q44,Q60,Q78,R86)</f>
         <v>0</v>
       </c>
       <c r="R6" s="47">
-        <f t="shared" ref="L6:S6" si="1">SUM(S8,S24,S44,S60,S78,S86)</f>
+        <f t="shared" ref="R6:S6" si="1">SUM(S8,S24,S44,S60,S78,S86)</f>
         <v>0</v>
       </c>
       <c r="S6" s="47">
@@ -2597,15 +2597,15 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="108"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="111"/>
       <c r="H7" s="4" t="s">
         <v>18</v>
       </c>
@@ -2649,13 +2649,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="109"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="112"/>
       <c r="H8" s="6" t="s">
         <v>19</v>
       </c>
@@ -2699,16 +2699,16 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="55">
+      <c r="A9" s="67">
         <v>1</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="53"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
@@ -2727,12 +2727,12 @@
       <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="56"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="54"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
@@ -2751,17 +2751,17 @@
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="55"/>
-      <c r="B11" s="57" t="s">
+      <c r="A11" s="67"/>
+      <c r="B11" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="65"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v/>
@@ -2788,12 +2788,12 @@
       <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="56"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="58"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
       <c r="G12" s="58"/>
       <c r="H12" s="52" t="str">
         <f>IF(E11="","","実績")</f>
@@ -2817,17 +2817,17 @@
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="55"/>
-      <c r="B13" s="57" t="s">
+      <c r="A13" s="67"/>
+      <c r="B13" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="65"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="57"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v/>
@@ -2854,12 +2854,12 @@
       <c r="S13" s="31"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="56"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="58"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
       <c r="G14" s="58"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
@@ -2883,16 +2883,16 @@
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="55">
+      <c r="A15" s="67">
         <v>2</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
       <c r="G15" s="53"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
@@ -2911,12 +2911,12 @@
       <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="56"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="54"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
@@ -2935,17 +2935,17 @@
       <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="55"/>
-      <c r="B17" s="57" t="s">
+      <c r="A17" s="67"/>
+      <c r="B17" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="65"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="57"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v/>
@@ -2972,12 +2972,12 @@
       <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="56"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="58"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
       <c r="G18" s="58"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
@@ -3001,17 +3001,17 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="55"/>
-      <c r="B19" s="57" t="s">
+      <c r="A19" s="67"/>
+      <c r="B19" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="65"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="57"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v/>
@@ -3038,12 +3038,12 @@
       <c r="S19" s="31"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="56"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="58"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="58"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
@@ -3067,17 +3067,17 @@
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="55"/>
-      <c r="B21" s="57" t="s">
+      <c r="A21" s="67"/>
+      <c r="B21" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="65"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="57"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v/>
@@ -3104,12 +3104,12 @@
       <c r="S21" s="31"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="56"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="58"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
       <c r="G22" s="58"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
@@ -3133,15 +3133,15 @@
       <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="71"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="114"/>
       <c r="H23" s="20" t="s">
         <v>18</v>
       </c>
@@ -3185,13 +3185,13 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="72"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="115"/>
       <c r="H24" s="7" t="s">
         <v>19</v>
       </c>
@@ -3235,16 +3235,16 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="55">
+      <c r="A25" s="67">
         <v>1</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
       <c r="G25" s="53"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
@@ -3263,12 +3263,12 @@
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="56"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="54"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
@@ -3287,17 +3287,17 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="55"/>
-      <c r="B27" s="57" t="s">
+      <c r="A27" s="67"/>
+      <c r="B27" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="65"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="57"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v/>
@@ -3318,12 +3318,12 @@
       <c r="S27" s="31"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="56"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="58"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
       <c r="G28" s="58"/>
       <c r="H28" s="52" t="str">
         <f>IF(E27="","","実績")</f>
@@ -3345,17 +3345,17 @@
       <c r="S28" s="32"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="55"/>
-      <c r="B29" s="57" t="s">
+      <c r="A29" s="67"/>
+      <c r="B29" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="65"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="57"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v/>
@@ -3376,12 +3376,12 @@
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="56"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="58"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
       <c r="G30" s="58"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
@@ -3403,17 +3403,17 @@
       <c r="S30" s="32"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="55"/>
-      <c r="B31" s="57" t="s">
+      <c r="A31" s="67"/>
+      <c r="B31" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="65"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="57"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v/>
@@ -3434,12 +3434,12 @@
       <c r="S31" s="31"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="56"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="58"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
       <c r="G32" s="58"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
@@ -3461,17 +3461,17 @@
       <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="55"/>
-      <c r="B33" s="57" t="s">
+      <c r="A33" s="67"/>
+      <c r="B33" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="60"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="65"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="57"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v/>
@@ -3492,12 +3492,12 @@
       <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="56"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="58"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
       <c r="G34" s="58"/>
       <c r="H34" s="52" t="str">
         <f>IF(E33="","","実績")</f>
@@ -3519,16 +3519,16 @@
       <c r="S34" s="32"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="55">
+      <c r="A35" s="67">
         <v>2</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
       <c r="G35" s="53"/>
       <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
@@ -3547,12 +3547,12 @@
       <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="56"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
       <c r="G36" s="54"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
@@ -3571,17 +3571,17 @@
       <c r="S36" s="32"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="55"/>
-      <c r="B37" s="57" t="s">
+      <c r="A37" s="67"/>
+      <c r="B37" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="65"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="57"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3602,12 +3602,12 @@
       <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="56"/>
+      <c r="A38" s="68"/>
       <c r="B38" s="58"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
       <c r="G38" s="58"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
@@ -3629,17 +3629,17 @@
       <c r="S38" s="32"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="55"/>
-      <c r="B39" s="57" t="s">
+      <c r="A39" s="67"/>
+      <c r="B39" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="65"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="57"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v/>
@@ -3660,12 +3660,12 @@
       <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="56"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="58"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
       <c r="G40" s="58"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
@@ -3687,17 +3687,17 @@
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="55"/>
-      <c r="B41" s="57" t="s">
+      <c r="A41" s="67"/>
+      <c r="B41" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="60"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="65"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="57"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v/>
@@ -3718,12 +3718,12 @@
       <c r="S41" s="31"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="56"/>
+      <c r="A42" s="68"/>
       <c r="B42" s="58"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
       <c r="G42" s="58"/>
       <c r="H42" s="52" t="str">
         <f>IF(E41="","","実績")</f>
@@ -3745,15 +3745,15 @@
       <c r="S42" s="32"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="73" t="s">
+      <c r="A43" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="74"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="71"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="114"/>
       <c r="H43" s="20" t="s">
         <v>18</v>
       </c>
@@ -3797,13 +3797,13 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="76"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="72"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="115"/>
       <c r="H44" s="7" t="s">
         <v>19</v>
       </c>
@@ -3847,16 +3847,16 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="55">
+      <c r="A45" s="67">
         <v>1</v>
       </c>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="67"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
       <c r="G45" s="53"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
@@ -3875,12 +3875,12 @@
       <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="56"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
+      <c r="A46" s="68"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
       <c r="G46" s="54"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
@@ -3899,17 +3899,17 @@
       <c r="S46" s="32"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="55"/>
-      <c r="B47" s="57" t="s">
+      <c r="A47" s="67"/>
+      <c r="B47" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="60"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="65"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="57"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
@@ -3936,12 +3936,12 @@
       <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="56"/>
+      <c r="A48" s="68"/>
       <c r="B48" s="58"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
       <c r="G48" s="58"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
@@ -3967,17 +3967,17 @@
       <c r="S48" s="32"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="55"/>
-      <c r="B49" s="57" t="s">
+      <c r="A49" s="67"/>
+      <c r="B49" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="59" t="s">
+      <c r="C49" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="60"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="65"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="57"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
@@ -4004,12 +4004,12 @@
       <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="56"/>
+      <c r="A50" s="68"/>
       <c r="B50" s="58"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
       <c r="G50" s="58"/>
       <c r="H50" s="52" t="str">
         <f>IF(E49="","","実績")</f>
@@ -4033,16 +4033,16 @@
       <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="55">
+      <c r="A51" s="67">
         <v>2</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="67"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
       <c r="G51" s="53"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
@@ -4061,12 +4061,12 @@
       <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="56"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
+      <c r="A52" s="68"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
       <c r="G52" s="54"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
@@ -4085,17 +4085,17 @@
       <c r="S52" s="32"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="55"/>
-      <c r="B53" s="57" t="s">
+      <c r="A53" s="67"/>
+      <c r="B53" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="60"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="65"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="57"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4122,12 +4122,12 @@
       <c r="S53" s="31"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="56"/>
+      <c r="A54" s="68"/>
       <c r="B54" s="58"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
       <c r="G54" s="58"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
@@ -4151,17 +4151,17 @@
       <c r="S54" s="32"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="55"/>
-      <c r="B55" s="57" t="s">
+      <c r="A55" s="67"/>
+      <c r="B55" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="59" t="s">
+      <c r="C55" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="60"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="65"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="57"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4188,12 +4188,12 @@
       <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="56"/>
+      <c r="A56" s="68"/>
       <c r="B56" s="58"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
       <c r="G56" s="58"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
@@ -4217,17 +4217,17 @@
       <c r="S56" s="32"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="55"/>
-      <c r="B57" s="57" t="s">
+      <c r="A57" s="67"/>
+      <c r="B57" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="59" t="s">
+      <c r="C57" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D57" s="60"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="65"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="57"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -4254,12 +4254,12 @@
       <c r="S57" s="31"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="56"/>
+      <c r="A58" s="68"/>
       <c r="B58" s="58"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
       <c r="G58" s="58"/>
       <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
@@ -4283,15 +4283,15 @@
       <c r="S58" s="44"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="73" t="s">
+      <c r="A59" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B59" s="74"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="71"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="114"/>
       <c r="H59" s="20" t="s">
         <v>18</v>
       </c>
@@ -4335,13 +4335,13 @@
       </c>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="76"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="72"/>
+      <c r="A60" s="73"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="115"/>
       <c r="H60" s="7" t="s">
         <v>19</v>
       </c>
@@ -4349,7 +4349,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$61:K$76),2)=0)*K$61:K$76)</f>
-        <v>6</v>
+        <v>22.75</v>
       </c>
       <c r="L60" s="36">
         <f>SUMPRODUCT((MOD(ROW(L$61:L$76),2)=0)*L$61:L$76)</f>
@@ -4369,7 +4369,7 @@
       </c>
       <c r="P60" s="36">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="Q60" s="36">
         <f t="shared" si="15"/>
@@ -4385,16 +4385,16 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="55">
+      <c r="A61" s="67">
         <v>1</v>
       </c>
-      <c r="B61" s="59" t="s">
+      <c r="B61" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="67"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="69"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
       <c r="G61" s="53"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
@@ -4413,12 +4413,12 @@
       <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="56"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
+      <c r="A62" s="68"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
       <c r="G62" s="54"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
@@ -4437,17 +4437,17 @@
       <c r="S62" s="32"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="55"/>
-      <c r="B63" s="57" t="s">
+      <c r="A63" s="67"/>
+      <c r="B63" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="59" t="s">
+      <c r="C63" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D63" s="60"/>
-      <c r="E63" s="63"/>
-      <c r="F63" s="63"/>
-      <c r="G63" s="65"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="57"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4474,12 +4474,12 @@
       <c r="S63" s="31"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="56"/>
+      <c r="A64" s="68"/>
       <c r="B64" s="58"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
       <c r="G64" s="58"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
@@ -4489,7 +4489,7 @@
       <c r="J64" s="52"/>
       <c r="K64" s="10">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L64" s="41"/>
       <c r="M64" s="32"/>
@@ -4497,23 +4497,25 @@
       <c r="O64" s="32">
         <v>3</v>
       </c>
-      <c r="P64" s="32"/>
+      <c r="P64" s="32">
+        <v>3</v>
+      </c>
       <c r="Q64" s="32"/>
       <c r="R64" s="32"/>
       <c r="S64" s="32"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="55"/>
-      <c r="B65" s="57" t="s">
+      <c r="A65" s="67"/>
+      <c r="B65" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="59" t="s">
+      <c r="C65" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D65" s="60"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="65"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="57"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -4542,12 +4544,12 @@
       <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="56"/>
+      <c r="A66" s="68"/>
       <c r="B66" s="58"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
       <c r="G66" s="58"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
@@ -4557,7 +4559,7 @@
       <c r="J66" s="52"/>
       <c r="K66" s="10">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="L66" s="41"/>
       <c r="M66" s="32"/>
@@ -4565,23 +4567,25 @@
       <c r="O66" s="32">
         <v>3</v>
       </c>
-      <c r="P66" s="32"/>
+      <c r="P66" s="32">
+        <v>1.5</v>
+      </c>
       <c r="Q66" s="32"/>
       <c r="R66" s="32"/>
       <c r="S66" s="32"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="55"/>
-      <c r="B67" s="57" t="s">
+      <c r="A67" s="67"/>
+      <c r="B67" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="59" t="s">
+      <c r="C67" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D67" s="60"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="63"/>
-      <c r="G67" s="65"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="57"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -4608,12 +4612,12 @@
       <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="56"/>
+      <c r="A68" s="68"/>
       <c r="B68" s="58"/>
-      <c r="C68" s="61"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
       <c r="G68" s="58"/>
       <c r="H68" s="52" t="str">
         <f>IF(E67="","","実績")</f>
@@ -4623,28 +4627,30 @@
       <c r="J68" s="52"/>
       <c r="K68" s="10">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L68" s="41"/>
       <c r="M68" s="32"/>
       <c r="N68" s="32"/>
       <c r="O68" s="32"/>
-      <c r="P68" s="32"/>
+      <c r="P68" s="32">
+        <v>9</v>
+      </c>
       <c r="Q68" s="32"/>
       <c r="R68" s="32"/>
       <c r="S68" s="32"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="55">
+      <c r="A69" s="67">
         <v>2</v>
       </c>
-      <c r="B69" s="59" t="s">
+      <c r="B69" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="67"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="69"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
       <c r="G69" s="53"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
@@ -4663,12 +4669,12 @@
       <c r="S69" s="31"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="56"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="68"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
+      <c r="A70" s="68"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="60"/>
       <c r="G70" s="54"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
@@ -4687,17 +4693,17 @@
       <c r="S70" s="32"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="55"/>
-      <c r="B71" s="57" t="s">
+      <c r="A71" s="67"/>
+      <c r="B71" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="59" t="s">
+      <c r="C71" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D71" s="60"/>
-      <c r="E71" s="63"/>
-      <c r="F71" s="63"/>
-      <c r="G71" s="65"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="57"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -4724,12 +4730,12 @@
       <c r="S71" s="31"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="56"/>
+      <c r="A72" s="68"/>
       <c r="B72" s="58"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
       <c r="G72" s="58"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
@@ -4739,29 +4745,31 @@
       <c r="J72" s="52"/>
       <c r="K72" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L72" s="41"/>
       <c r="M72" s="32"/>
       <c r="N72" s="32"/>
       <c r="O72" s="32"/>
-      <c r="P72" s="32"/>
+      <c r="P72" s="32">
+        <v>1.5</v>
+      </c>
       <c r="Q72" s="32"/>
       <c r="R72" s="32"/>
       <c r="S72" s="32"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="55"/>
-      <c r="B73" s="57" t="s">
+      <c r="A73" s="67"/>
+      <c r="B73" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="59" t="s">
+      <c r="C73" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="D73" s="60"/>
-      <c r="E73" s="63"/>
-      <c r="F73" s="63"/>
-      <c r="G73" s="65"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="57"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -4788,12 +4796,12 @@
       <c r="S73" s="31"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="56"/>
+      <c r="A74" s="68"/>
       <c r="B74" s="58"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
       <c r="G74" s="58"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
@@ -4803,35 +4811,37 @@
       <c r="J74" s="52"/>
       <c r="K74" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L74" s="41"/>
       <c r="M74" s="32"/>
       <c r="N74" s="32"/>
       <c r="O74" s="32"/>
-      <c r="P74" s="32"/>
+      <c r="P74" s="32">
+        <v>1.5</v>
+      </c>
       <c r="Q74" s="32"/>
       <c r="R74" s="32"/>
       <c r="S74" s="32"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="55"/>
-      <c r="B75" s="57" t="s">
+      <c r="A75" s="67"/>
+      <c r="B75" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C75" s="59" t="s">
+      <c r="C75" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D75" s="60"/>
-      <c r="E75" s="63"/>
-      <c r="F75" s="63"/>
-      <c r="G75" s="65"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="57"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
       </c>
       <c r="I75" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J75" s="8">
         <v>1</v>
@@ -4852,12 +4862,12 @@
       <c r="S75" s="31"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="56"/>
+      <c r="A76" s="68"/>
       <c r="B76" s="58"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
       <c r="G76" s="58"/>
       <c r="H76" s="52" t="str">
         <f>IF(E75="","","実績")</f>
@@ -4867,27 +4877,29 @@
       <c r="J76" s="52"/>
       <c r="K76" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L76" s="43"/>
       <c r="M76" s="44"/>
       <c r="N76" s="44"/>
       <c r="O76" s="44"/>
-      <c r="P76" s="44"/>
+      <c r="P76" s="44">
+        <v>0.25</v>
+      </c>
       <c r="Q76" s="44"/>
       <c r="R76" s="44"/>
       <c r="S76" s="44"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="73" t="s">
+      <c r="A77" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="74"/>
-      <c r="C77" s="74"/>
-      <c r="D77" s="75"/>
-      <c r="E77" s="79"/>
-      <c r="F77" s="79"/>
-      <c r="G77" s="71"/>
+      <c r="B77" s="71"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="114"/>
       <c r="H77" s="20" t="s">
         <v>18</v>
       </c>
@@ -4931,13 +4943,13 @@
       </c>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="76"/>
-      <c r="B78" s="77"/>
-      <c r="C78" s="77"/>
-      <c r="D78" s="78"/>
-      <c r="E78" s="80"/>
-      <c r="F78" s="80"/>
-      <c r="G78" s="72"/>
+      <c r="A78" s="73"/>
+      <c r="B78" s="74"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="77"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="115"/>
       <c r="H78" s="7" t="s">
         <v>19</v>
       </c>
@@ -4981,16 +4993,16 @@
       </c>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="55">
+      <c r="A79" s="67">
         <v>1</v>
       </c>
-      <c r="B79" s="59" t="s">
+      <c r="B79" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="67"/>
-      <c r="D79" s="60"/>
-      <c r="E79" s="69"/>
-      <c r="F79" s="69"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
       <c r="G79" s="53"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
@@ -5009,12 +5021,12 @@
       <c r="S79" s="31"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="56"/>
-      <c r="B80" s="61"/>
-      <c r="C80" s="68"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="70"/>
+      <c r="A80" s="68"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="60"/>
       <c r="G80" s="54"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
@@ -5033,17 +5045,17 @@
       <c r="S80" s="32"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="55"/>
-      <c r="B81" s="57" t="s">
+      <c r="A81" s="67"/>
+      <c r="B81" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="59" t="s">
+      <c r="C81" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="D81" s="60"/>
-      <c r="E81" s="63"/>
-      <c r="F81" s="63"/>
-      <c r="G81" s="65"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="57"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5072,12 +5084,12 @@
       <c r="S81" s="31"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="56"/>
+      <c r="A82" s="68"/>
       <c r="B82" s="58"/>
-      <c r="C82" s="61"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="64"/>
-      <c r="F82" s="64"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
       <c r="G82" s="58"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
@@ -5099,17 +5111,17 @@
       <c r="S82" s="32"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="55"/>
-      <c r="B83" s="57" t="s">
+      <c r="A83" s="67"/>
+      <c r="B83" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C83" s="59" t="s">
+      <c r="C83" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="D83" s="60"/>
-      <c r="E83" s="63"/>
-      <c r="F83" s="63"/>
-      <c r="G83" s="65"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="57"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -5138,12 +5150,12 @@
       <c r="S83" s="31"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="56"/>
+      <c r="A84" s="68"/>
       <c r="B84" s="58"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
       <c r="G84" s="58"/>
       <c r="H84" s="52" t="str">
         <f>IF(E83="","","実績")</f>
@@ -5165,15 +5177,15 @@
       <c r="S84" s="32"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="73" t="s">
+      <c r="A85" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B85" s="74"/>
-      <c r="C85" s="74"/>
-      <c r="D85" s="75"/>
-      <c r="E85" s="79"/>
-      <c r="F85" s="79"/>
-      <c r="G85" s="71"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="71"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="114"/>
       <c r="H85" s="20" t="s">
         <v>18</v>
       </c>
@@ -5217,13 +5229,13 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="76"/>
-      <c r="B86" s="77"/>
-      <c r="C86" s="77"/>
-      <c r="D86" s="78"/>
-      <c r="E86" s="80"/>
-      <c r="F86" s="80"/>
-      <c r="G86" s="72"/>
+      <c r="A86" s="73"/>
+      <c r="B86" s="74"/>
+      <c r="C86" s="74"/>
+      <c r="D86" s="75"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="115"/>
       <c r="H86" s="7" t="s">
         <v>19</v>
       </c>
@@ -5267,16 +5279,16 @@
       </c>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="55">
+      <c r="A87" s="67">
         <v>1</v>
       </c>
-      <c r="B87" s="59" t="s">
+      <c r="B87" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C87" s="67"/>
-      <c r="D87" s="60"/>
-      <c r="E87" s="69"/>
-      <c r="F87" s="69"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="59"/>
       <c r="G87" s="53"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
@@ -5295,12 +5307,12 @@
       <c r="S87" s="31"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="56"/>
-      <c r="B88" s="61"/>
-      <c r="C88" s="68"/>
-      <c r="D88" s="62"/>
-      <c r="E88" s="70"/>
-      <c r="F88" s="70"/>
+      <c r="A88" s="68"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="60"/>
       <c r="G88" s="54"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
@@ -5319,17 +5331,17 @@
       <c r="S88" s="32"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="55"/>
-      <c r="B89" s="57" t="s">
+      <c r="A89" s="67"/>
+      <c r="B89" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="59" t="s">
+      <c r="C89" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="D89" s="60"/>
-      <c r="E89" s="63"/>
-      <c r="F89" s="63"/>
-      <c r="G89" s="65"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="57"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -5356,12 +5368,12 @@
       <c r="S89" s="31"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="56"/>
+      <c r="A90" s="68"/>
       <c r="B90" s="58"/>
-      <c r="C90" s="61"/>
-      <c r="D90" s="62"/>
-      <c r="E90" s="64"/>
-      <c r="F90" s="64"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
       <c r="G90" s="58"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
@@ -5383,17 +5395,17 @@
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="55"/>
-      <c r="B91" s="57" t="s">
+      <c r="A91" s="67"/>
+      <c r="B91" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C91" s="66" t="s">
+      <c r="C91" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="D91" s="60"/>
-      <c r="E91" s="63"/>
-      <c r="F91" s="63"/>
-      <c r="G91" s="65"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="57"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5414,12 +5426,12 @@
       <c r="S91" s="31"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="56"/>
+      <c r="A92" s="68"/>
       <c r="B92" s="58"/>
-      <c r="C92" s="61"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="64"/>
-      <c r="F92" s="64"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="66"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="56"/>
       <c r="G92" s="58"/>
       <c r="H92" s="52" t="str">
         <f>IF(E91="","","実績")</f>
@@ -5441,16 +5453,16 @@
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="55">
+      <c r="A93" s="67">
         <v>2</v>
       </c>
-      <c r="B93" s="59" t="s">
+      <c r="B93" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C93" s="67"/>
-      <c r="D93" s="60"/>
-      <c r="E93" s="69"/>
-      <c r="F93" s="69"/>
+      <c r="C93" s="62"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="59"/>
+      <c r="F93" s="59"/>
       <c r="G93" s="53"/>
       <c r="H93" s="23" t="str">
         <f>IF(E93="","","予定")</f>
@@ -5469,12 +5481,12 @@
       <c r="S93" s="31"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="56"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="68"/>
-      <c r="D94" s="62"/>
-      <c r="E94" s="70"/>
-      <c r="F94" s="70"/>
+      <c r="A94" s="68"/>
+      <c r="B94" s="64"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="66"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="60"/>
       <c r="G94" s="54"/>
       <c r="H94" s="24" t="str">
         <f>IF(E93="","","実績")</f>
@@ -5493,17 +5505,17 @@
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="55"/>
-      <c r="B95" s="57" t="s">
+      <c r="A95" s="67"/>
+      <c r="B95" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="59" t="s">
+      <c r="C95" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D95" s="60"/>
-      <c r="E95" s="63"/>
-      <c r="F95" s="63"/>
-      <c r="G95" s="65"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="57"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5530,12 +5542,12 @@
       <c r="S95" s="31"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="56"/>
+      <c r="A96" s="68"/>
       <c r="B96" s="58"/>
-      <c r="C96" s="61"/>
-      <c r="D96" s="62"/>
-      <c r="E96" s="64"/>
-      <c r="F96" s="64"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="56"/>
       <c r="G96" s="58"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
@@ -5557,23 +5569,23 @@
       <c r="S96" s="32"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="55"/>
-      <c r="B97" s="57" t="s">
+      <c r="A97" s="67"/>
+      <c r="B97" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C97" s="59" t="s">
+      <c r="C97" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D97" s="60"/>
-      <c r="E97" s="63"/>
-      <c r="F97" s="63"/>
-      <c r="G97" s="65"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="57"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
       </c>
       <c r="I97" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J97" s="8">
         <v>1</v>
@@ -5594,12 +5606,12 @@
       <c r="S97" s="31"/>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="56"/>
+      <c r="A98" s="68"/>
       <c r="B98" s="58"/>
-      <c r="C98" s="61"/>
-      <c r="D98" s="62"/>
-      <c r="E98" s="64"/>
-      <c r="F98" s="64"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="66"/>
+      <c r="E98" s="56"/>
+      <c r="F98" s="56"/>
       <c r="G98" s="58"/>
       <c r="H98" s="52" t="str">
         <f>IF(E97="","","実績")</f>
@@ -5621,15 +5633,15 @@
       <c r="S98" s="44"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="73" t="s">
+      <c r="A99" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="B99" s="74"/>
-      <c r="C99" s="74"/>
-      <c r="D99" s="75"/>
-      <c r="E99" s="79"/>
-      <c r="F99" s="79"/>
-      <c r="G99" s="71"/>
+      <c r="B99" s="71"/>
+      <c r="C99" s="71"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="76"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="114"/>
       <c r="H99" s="20" t="s">
         <v>18</v>
       </c>
@@ -5673,13 +5685,13 @@
       </c>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="76"/>
-      <c r="B100" s="77"/>
-      <c r="C100" s="77"/>
-      <c r="D100" s="78"/>
-      <c r="E100" s="80"/>
-      <c r="F100" s="80"/>
-      <c r="G100" s="72"/>
+      <c r="A100" s="73"/>
+      <c r="B100" s="74"/>
+      <c r="C100" s="74"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="115"/>
       <c r="H100" s="7" t="s">
         <v>19</v>
       </c>
@@ -5723,16 +5735,16 @@
       </c>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="55">
+      <c r="A101" s="67">
         <v>1</v>
       </c>
-      <c r="B101" s="59" t="s">
+      <c r="B101" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C101" s="67"/>
-      <c r="D101" s="60"/>
-      <c r="E101" s="69"/>
-      <c r="F101" s="69"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="59"/>
+      <c r="F101" s="59"/>
       <c r="G101" s="53"/>
       <c r="H101" s="23" t="str">
         <f>IF(E101="","","予定")</f>
@@ -5751,12 +5763,12 @@
       <c r="S101" s="31"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="56"/>
-      <c r="B102" s="61"/>
-      <c r="C102" s="68"/>
-      <c r="D102" s="62"/>
-      <c r="E102" s="70"/>
-      <c r="F102" s="70"/>
+      <c r="A102" s="68"/>
+      <c r="B102" s="64"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="66"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="60"/>
       <c r="G102" s="54"/>
       <c r="H102" s="24" t="str">
         <f>IF(E101="","","実績")</f>
@@ -5775,17 +5787,17 @@
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="55"/>
-      <c r="B103" s="57" t="s">
+      <c r="A103" s="67"/>
+      <c r="B103" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C103" s="59" t="s">
+      <c r="C103" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="D103" s="60"/>
-      <c r="E103" s="63"/>
-      <c r="F103" s="63"/>
-      <c r="G103" s="65"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="55"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="57"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -5812,12 +5824,12 @@
       <c r="S103" s="31"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="56"/>
+      <c r="A104" s="68"/>
       <c r="B104" s="58"/>
-      <c r="C104" s="61"/>
-      <c r="D104" s="62"/>
-      <c r="E104" s="64"/>
-      <c r="F104" s="64"/>
+      <c r="C104" s="64"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="56"/>
+      <c r="F104" s="56"/>
       <c r="G104" s="58"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
@@ -5839,17 +5851,17 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="55"/>
-      <c r="B105" s="57" t="s">
+      <c r="A105" s="67"/>
+      <c r="B105" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C105" s="59" t="s">
+      <c r="C105" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="D105" s="60"/>
-      <c r="E105" s="63"/>
-      <c r="F105" s="63"/>
-      <c r="G105" s="65"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="55"/>
+      <c r="F105" s="55"/>
+      <c r="G105" s="57"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v/>
@@ -5876,12 +5888,12 @@
       <c r="S105" s="31"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="56"/>
+      <c r="A106" s="68"/>
       <c r="B106" s="58"/>
-      <c r="C106" s="61"/>
-      <c r="D106" s="62"/>
-      <c r="E106" s="64"/>
-      <c r="F106" s="64"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="66"/>
+      <c r="E106" s="56"/>
+      <c r="F106" s="56"/>
       <c r="G106" s="58"/>
       <c r="H106" s="52" t="str">
         <f>IF(E105="","","実績")</f>
@@ -5903,16 +5915,16 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="55">
+      <c r="A107" s="67">
         <v>2</v>
       </c>
-      <c r="B107" s="59" t="s">
+      <c r="B107" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C107" s="67"/>
-      <c r="D107" s="60"/>
-      <c r="E107" s="69"/>
-      <c r="F107" s="69"/>
+      <c r="C107" s="62"/>
+      <c r="D107" s="63"/>
+      <c r="E107" s="59"/>
+      <c r="F107" s="59"/>
       <c r="G107" s="53"/>
       <c r="H107" s="23" t="str">
         <f>IF(E107="","","予定")</f>
@@ -5931,12 +5943,12 @@
       <c r="S107" s="31"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="56"/>
-      <c r="B108" s="61"/>
-      <c r="C108" s="68"/>
-      <c r="D108" s="62"/>
-      <c r="E108" s="70"/>
-      <c r="F108" s="70"/>
+      <c r="A108" s="68"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="65"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="60"/>
+      <c r="F108" s="60"/>
       <c r="G108" s="54"/>
       <c r="H108" s="24" t="str">
         <f>IF(E107="","","実績")</f>
@@ -5955,17 +5967,17 @@
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="55"/>
-      <c r="B109" s="57" t="s">
+      <c r="A109" s="67"/>
+      <c r="B109" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C109" s="59" t="s">
+      <c r="C109" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D109" s="60"/>
-      <c r="E109" s="63"/>
-      <c r="F109" s="63"/>
-      <c r="G109" s="65"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="55"/>
+      <c r="F109" s="55"/>
+      <c r="G109" s="57"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -5992,12 +6004,12 @@
       <c r="S109" s="31"/>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="56"/>
+      <c r="A110" s="68"/>
       <c r="B110" s="58"/>
-      <c r="C110" s="61"/>
-      <c r="D110" s="62"/>
-      <c r="E110" s="64"/>
-      <c r="F110" s="64"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="66"/>
+      <c r="E110" s="56"/>
+      <c r="F110" s="56"/>
       <c r="G110" s="58"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
@@ -6019,23 +6031,23 @@
       <c r="S110" s="32"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="55"/>
-      <c r="B111" s="57" t="s">
+      <c r="A111" s="67"/>
+      <c r="B111" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C111" s="59" t="s">
+      <c r="C111" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D111" s="60"/>
-      <c r="E111" s="63"/>
-      <c r="F111" s="63"/>
-      <c r="G111" s="65"/>
+      <c r="D111" s="63"/>
+      <c r="E111" s="55"/>
+      <c r="F111" s="55"/>
+      <c r="G111" s="57"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v/>
       </c>
       <c r="I111" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J111" s="8">
         <v>1</v>
@@ -6056,12 +6068,12 @@
       <c r="S111" s="31"/>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="56"/>
+      <c r="A112" s="68"/>
       <c r="B112" s="58"/>
-      <c r="C112" s="61"/>
-      <c r="D112" s="62"/>
-      <c r="E112" s="64"/>
-      <c r="F112" s="64"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="66"/>
+      <c r="E112" s="56"/>
+      <c r="F112" s="56"/>
       <c r="G112" s="58"/>
       <c r="H112" s="52" t="str">
         <f>IF(E111="","","実績")</f>
@@ -6098,19 +6110,284 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="B27:B28"/>
@@ -6135,284 +6412,19 @@
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L9:S18 L25:S36 L101:S112 L87:S98">
@@ -6510,12 +6522,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6699,6 +6705,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6709,15 +6721,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{820382CB-708E-4EB8-A8B5-B0353CDDD771}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6735,6 +6738,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
   <ds:schemaRefs>

--- a/反復２/反復２WBSガントチャート.xlsx
+++ b/反復２/反復２WBSガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5596491-4BD4-4808-8FE8-7E036318D346}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1F7C01-62D5-4512-83CD-1B707A618A99}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="62">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -1527,6 +1527,30 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1536,7 +1560,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1545,31 +1575,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1596,6 +1605,96 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1625,105 +1724,6 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2333,10 +2333,10 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q82" sqref="Q82"/>
+      <selection pane="bottomRight" activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2355,120 +2355,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="94" t="s">
+      <c r="A1" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="94" t="s">
+      <c r="I1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="94" t="s">
+      <c r="J1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="88" t="s">
+      <c r="K1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="78">
+      <c r="L1" s="111">
         <v>43992</v>
       </c>
-      <c r="M1" s="79"/>
-      <c r="N1" s="78">
+      <c r="M1" s="112"/>
+      <c r="N1" s="111">
         <v>43993</v>
       </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="78">
+      <c r="O1" s="112"/>
+      <c r="P1" s="111">
         <v>43994</v>
       </c>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="78">
+      <c r="Q1" s="112"/>
+      <c r="R1" s="111">
         <v>43997</v>
       </c>
-      <c r="S1" s="79"/>
+      <c r="S1" s="112"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="98"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="82" t="s">
+      <c r="A2" s="97"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="81"/>
-      <c r="N2" s="83" t="s">
+      <c r="M2" s="114"/>
+      <c r="N2" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="81"/>
-      <c r="P2" s="80" t="s">
+      <c r="O2" s="114"/>
+      <c r="P2" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="80" t="s">
+      <c r="Q2" s="114"/>
+      <c r="R2" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="81"/>
+      <c r="S2" s="114"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="98"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="86" t="s">
+      <c r="A3" s="97"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="84" t="s">
+      <c r="M3" s="118"/>
+      <c r="N3" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="84" t="s">
+      <c r="O3" s="118"/>
+      <c r="P3" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="87" t="s">
+      <c r="Q3" s="118"/>
+      <c r="R3" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="87"/>
+      <c r="S3" s="120"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="99"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="90"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="92"/>
       <c r="L4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2495,15 +2495,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="118"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="86"/>
       <c r="H5" s="16" t="s">
         <v>18</v>
       </c>
@@ -2547,13 +2547,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="103"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="119"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="87"/>
       <c r="H6" s="18" t="s">
         <v>19</v>
       </c>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="Q6" s="47">
         <f>SUM(Q8,Q24,Q44,Q60,Q78,R86)</f>
-        <v>0</v>
+        <v>18.25</v>
       </c>
       <c r="R6" s="47">
         <f t="shared" ref="R6:S6" si="1">SUM(S8,S24,S44,S60,S78,S86)</f>
@@ -2597,15 +2597,15 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="111"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="108"/>
       <c r="H7" s="4" t="s">
         <v>18</v>
       </c>
@@ -2649,13 +2649,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="73"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="112"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="6" t="s">
         <v>19</v>
       </c>
@@ -2699,16 +2699,16 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="67">
+      <c r="A9" s="55">
         <v>1</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="53"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
@@ -2727,12 +2727,12 @@
       <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="68"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
       <c r="G10" s="54"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
@@ -2751,17 +2751,17 @@
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="67"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="57"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="65"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v/>
@@ -2788,12 +2788,12 @@
       <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="68"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="58"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
       <c r="G12" s="58"/>
       <c r="H12" s="52" t="str">
         <f>IF(E11="","","実績")</f>
@@ -2817,17 +2817,17 @@
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="67"/>
-      <c r="B13" s="69" t="s">
+      <c r="A13" s="55"/>
+      <c r="B13" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="57"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="65"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v/>
@@ -2854,12 +2854,12 @@
       <c r="S13" s="31"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="68"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="58"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
       <c r="G14" s="58"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
@@ -2883,16 +2883,16 @@
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="67">
+      <c r="A15" s="55">
         <v>2</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="53"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
@@ -2911,12 +2911,12 @@
       <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="68"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
       <c r="G16" s="54"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
@@ -2935,17 +2935,17 @@
       <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="67"/>
-      <c r="B17" s="69" t="s">
+      <c r="A17" s="55"/>
+      <c r="B17" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="57"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="65"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v/>
@@ -2972,19 +2972,23 @@
       <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="68"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="58"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
       <c r="G18" s="58"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
         <v/>
       </c>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
+      <c r="I18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="52">
+        <v>6</v>
+      </c>
       <c r="K18" s="10">
         <f t="shared" si="4"/>
         <v>1.5</v>
@@ -3001,17 +3005,17 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="67"/>
-      <c r="B19" s="69" t="s">
+      <c r="A19" s="55"/>
+      <c r="B19" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="57"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="65"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v/>
@@ -3038,19 +3042,23 @@
       <c r="S19" s="31"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="68"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="58"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
       <c r="G20" s="58"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
         <v/>
       </c>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
+      <c r="I20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="52">
+        <v>5</v>
+      </c>
       <c r="K20" s="10">
         <f t="shared" si="4"/>
         <v>1.25</v>
@@ -3067,17 +3075,17 @@
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="67"/>
-      <c r="B21" s="69" t="s">
+      <c r="A21" s="55"/>
+      <c r="B21" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="57"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="65"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v/>
@@ -3104,19 +3112,23 @@
       <c r="S21" s="31"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="68"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="58"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
       <c r="G22" s="58"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
         <v/>
       </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
+      <c r="I22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="52">
+        <v>1</v>
+      </c>
       <c r="K22" s="10">
         <f t="shared" si="4"/>
         <v>0.25</v>
@@ -3133,15 +3145,15 @@
       <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="114"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="71"/>
       <c r="H23" s="20" t="s">
         <v>18</v>
       </c>
@@ -3185,13 +3197,13 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="115"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="72"/>
       <c r="H24" s="7" t="s">
         <v>19</v>
       </c>
@@ -3235,16 +3247,16 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="67">
+      <c r="A25" s="55">
         <v>1</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
       <c r="G25" s="53"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
@@ -3263,12 +3275,12 @@
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="68"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
       <c r="G26" s="54"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
@@ -3287,17 +3299,17 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="67"/>
-      <c r="B27" s="69" t="s">
+      <c r="A27" s="55"/>
+      <c r="B27" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="57"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="65"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v/>
@@ -3318,12 +3330,12 @@
       <c r="S27" s="31"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="68"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="58"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
       <c r="G28" s="58"/>
       <c r="H28" s="52" t="str">
         <f>IF(E27="","","実績")</f>
@@ -3345,17 +3357,17 @@
       <c r="S28" s="32"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="67"/>
-      <c r="B29" s="69" t="s">
+      <c r="A29" s="55"/>
+      <c r="B29" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="57"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="65"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v/>
@@ -3376,12 +3388,12 @@
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="68"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="58"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
       <c r="G30" s="58"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
@@ -3403,17 +3415,17 @@
       <c r="S30" s="32"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="67"/>
-      <c r="B31" s="69" t="s">
+      <c r="A31" s="55"/>
+      <c r="B31" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="57"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="65"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v/>
@@ -3434,12 +3446,12 @@
       <c r="S31" s="31"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="68"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="58"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
       <c r="G32" s="58"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
@@ -3461,17 +3473,17 @@
       <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="67"/>
-      <c r="B33" s="69" t="s">
+      <c r="A33" s="55"/>
+      <c r="B33" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="57"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="65"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v/>
@@ -3492,12 +3504,12 @@
       <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="68"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="58"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
       <c r="G34" s="58"/>
       <c r="H34" s="52" t="str">
         <f>IF(E33="","","実績")</f>
@@ -3519,16 +3531,16 @@
       <c r="S34" s="32"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="67">
+      <c r="A35" s="55">
         <v>2</v>
       </c>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
       <c r="G35" s="53"/>
       <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
@@ -3547,12 +3559,12 @@
       <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="68"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
       <c r="G36" s="54"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
@@ -3571,17 +3583,17 @@
       <c r="S36" s="32"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="67"/>
-      <c r="B37" s="69" t="s">
+      <c r="A37" s="55"/>
+      <c r="B37" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="57"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="65"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3602,12 +3614,12 @@
       <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="68"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="58"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
       <c r="G38" s="58"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
@@ -3629,17 +3641,17 @@
       <c r="S38" s="32"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="67"/>
-      <c r="B39" s="69" t="s">
+      <c r="A39" s="55"/>
+      <c r="B39" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="57"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="65"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v/>
@@ -3660,12 +3672,12 @@
       <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="68"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="58"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
       <c r="G40" s="58"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
@@ -3687,17 +3699,17 @@
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="67"/>
-      <c r="B41" s="69" t="s">
+      <c r="A41" s="55"/>
+      <c r="B41" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="C41" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="57"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="65"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v/>
@@ -3718,12 +3730,12 @@
       <c r="S41" s="31"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="68"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="58"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
       <c r="G42" s="58"/>
       <c r="H42" s="52" t="str">
         <f>IF(E41="","","実績")</f>
@@ -3745,15 +3757,15 @@
       <c r="S42" s="32"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="114"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="71"/>
       <c r="H43" s="20" t="s">
         <v>18</v>
       </c>
@@ -3797,13 +3809,13 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="73"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="115"/>
+      <c r="A44" s="76"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="72"/>
       <c r="H44" s="7" t="s">
         <v>19</v>
       </c>
@@ -3847,16 +3859,16 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="67">
+      <c r="A45" s="55">
         <v>1</v>
       </c>
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="62"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
       <c r="G45" s="53"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
@@ -3875,12 +3887,12 @@
       <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="68"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
       <c r="G46" s="54"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
@@ -3899,23 +3911,23 @@
       <c r="S46" s="32"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="67"/>
-      <c r="B47" s="69" t="s">
+      <c r="A47" s="55"/>
+      <c r="B47" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="61" t="s">
+      <c r="C47" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="57"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="65"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
       </c>
       <c r="I47" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J47" s="8">
         <v>6</v>
@@ -3936,19 +3948,23 @@
       <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="68"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="58"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
       <c r="G48" s="58"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
         <v/>
       </c>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
+      <c r="I48" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J48" s="52">
+        <v>6</v>
+      </c>
       <c r="K48" s="10">
         <f>SUM(L48:S48)</f>
         <v>22.5</v>
@@ -3967,23 +3983,23 @@
       <c r="S48" s="32"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="67"/>
-      <c r="B49" s="69" t="s">
+      <c r="A49" s="55"/>
+      <c r="B49" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="63"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="57"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="65"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
       </c>
       <c r="I49" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J49" s="8">
         <v>6</v>
@@ -4004,19 +4020,23 @@
       <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="68"/>
+      <c r="A50" s="56"/>
       <c r="B50" s="58"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
       <c r="G50" s="58"/>
       <c r="H50" s="52" t="str">
         <f>IF(E49="","","実績")</f>
         <v/>
       </c>
-      <c r="I50" s="52"/>
-      <c r="J50" s="52"/>
+      <c r="I50" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J50" s="52">
+        <v>6</v>
+      </c>
       <c r="K50" s="10">
         <f>SUM(L50:S50)</f>
         <v>9</v>
@@ -4033,16 +4053,16 @@
       <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="67">
+      <c r="A51" s="55">
         <v>2</v>
       </c>
-      <c r="B51" s="61" t="s">
+      <c r="B51" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="62"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
       <c r="G51" s="53"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
@@ -4061,12 +4081,12 @@
       <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="68"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
       <c r="G52" s="54"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
@@ -4085,17 +4105,17 @@
       <c r="S52" s="32"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="67"/>
-      <c r="B53" s="69" t="s">
+      <c r="A53" s="55"/>
+      <c r="B53" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="61" t="s">
+      <c r="C53" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="63"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="57"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="65"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4122,19 +4142,23 @@
       <c r="S53" s="31"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="68"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="58"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
       <c r="G54" s="58"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
       </c>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
+      <c r="I54" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J54" s="52">
+        <v>6</v>
+      </c>
       <c r="K54" s="10">
         <f t="shared" si="12"/>
         <v>1.5</v>
@@ -4151,17 +4175,17 @@
       <c r="S54" s="32"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="67"/>
-      <c r="B55" s="69" t="s">
+      <c r="A55" s="55"/>
+      <c r="B55" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="61" t="s">
+      <c r="C55" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="63"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="57"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="65"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4188,19 +4212,23 @@
       <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="68"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="58"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
       <c r="G56" s="58"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
       </c>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
+      <c r="I56" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J56" s="52">
+        <v>6</v>
+      </c>
       <c r="K56" s="10">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -4217,17 +4245,17 @@
       <c r="S56" s="32"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="67"/>
-      <c r="B57" s="69" t="s">
+      <c r="A57" s="55"/>
+      <c r="B57" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="61" t="s">
+      <c r="C57" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D57" s="63"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="57"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="65"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -4254,19 +4282,23 @@
       <c r="S57" s="31"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="68"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="58"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
       <c r="G58" s="58"/>
       <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
         <v/>
       </c>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
+      <c r="I58" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J58" s="52">
+        <v>1</v>
+      </c>
       <c r="K58" s="10">
         <f t="shared" si="12"/>
         <v>0.25</v>
@@ -4283,15 +4315,15 @@
       <c r="S58" s="44"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="70" t="s">
+      <c r="A59" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="B59" s="71"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="114"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="71"/>
       <c r="H59" s="20" t="s">
         <v>18</v>
       </c>
@@ -4335,13 +4367,13 @@
       </c>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="73"/>
-      <c r="B60" s="74"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="115"/>
+      <c r="A60" s="76"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="80"/>
+      <c r="G60" s="72"/>
       <c r="H60" s="7" t="s">
         <v>19</v>
       </c>
@@ -4349,7 +4381,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$61:K$76),2)=0)*K$61:K$76)</f>
-        <v>22.75</v>
+        <v>38</v>
       </c>
       <c r="L60" s="36">
         <f>SUMPRODUCT((MOD(ROW(L$61:L$76),2)=0)*L$61:L$76)</f>
@@ -4373,7 +4405,7 @@
       </c>
       <c r="Q60" s="36">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>15.25</v>
       </c>
       <c r="R60" s="36">
         <f t="shared" si="15"/>
@@ -4385,16 +4417,16 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="67">
+      <c r="A61" s="55">
         <v>1</v>
       </c>
-      <c r="B61" s="61" t="s">
+      <c r="B61" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="62"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="69"/>
       <c r="G61" s="53"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
@@ -4413,12 +4445,12 @@
       <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="68"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
+      <c r="A62" s="56"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
       <c r="G62" s="54"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
@@ -4437,17 +4469,17 @@
       <c r="S62" s="32"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="67"/>
-      <c r="B63" s="69" t="s">
+      <c r="A63" s="55"/>
+      <c r="B63" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="61" t="s">
+      <c r="C63" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D63" s="63"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="57"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="65"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4474,19 +4506,23 @@
       <c r="S63" s="31"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="68"/>
+      <c r="A64" s="56"/>
       <c r="B64" s="58"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
       <c r="G64" s="58"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
       </c>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
+      <c r="I64" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J64" s="52">
+        <v>6</v>
+      </c>
       <c r="K64" s="10">
         <f t="shared" si="16"/>
         <v>6</v>
@@ -4505,17 +4541,17 @@
       <c r="S64" s="32"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="67"/>
-      <c r="B65" s="69" t="s">
+      <c r="A65" s="55"/>
+      <c r="B65" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="61" t="s">
+      <c r="C65" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="D65" s="63"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="57"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="65"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -4544,22 +4580,26 @@
       <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="68"/>
+      <c r="A66" s="56"/>
       <c r="B66" s="58"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
       <c r="G66" s="58"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
         <v/>
       </c>
-      <c r="I66" s="52"/>
-      <c r="J66" s="52"/>
+      <c r="I66" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J66" s="52">
+        <v>6</v>
+      </c>
       <c r="K66" s="10">
         <f t="shared" si="16"/>
-        <v>4.5</v>
+        <v>10.5</v>
       </c>
       <c r="L66" s="41"/>
       <c r="M66" s="32"/>
@@ -4570,22 +4610,24 @@
       <c r="P66" s="32">
         <v>1.5</v>
       </c>
-      <c r="Q66" s="32"/>
+      <c r="Q66" s="32">
+        <v>6</v>
+      </c>
       <c r="R66" s="32"/>
       <c r="S66" s="32"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="67"/>
-      <c r="B67" s="69" t="s">
+      <c r="A67" s="55"/>
+      <c r="B67" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="61" t="s">
+      <c r="C67" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D67" s="63"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="57"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="65"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -4612,22 +4654,26 @@
       <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="68"/>
+      <c r="A68" s="56"/>
       <c r="B68" s="58"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
       <c r="G68" s="58"/>
       <c r="H68" s="52" t="str">
         <f>IF(E67="","","実績")</f>
         <v/>
       </c>
-      <c r="I68" s="52"/>
-      <c r="J68" s="52"/>
+      <c r="I68" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J68" s="52">
+        <v>6</v>
+      </c>
       <c r="K68" s="10">
         <f t="shared" si="16"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L68" s="41"/>
       <c r="M68" s="32"/>
@@ -4636,21 +4682,23 @@
       <c r="P68" s="32">
         <v>9</v>
       </c>
-      <c r="Q68" s="32"/>
+      <c r="Q68" s="32">
+        <v>6</v>
+      </c>
       <c r="R68" s="32"/>
       <c r="S68" s="32"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="67">
+      <c r="A69" s="55">
         <v>2</v>
       </c>
-      <c r="B69" s="61" t="s">
+      <c r="B69" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="62"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="69"/>
       <c r="G69" s="53"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
@@ -4669,12 +4717,12 @@
       <c r="S69" s="31"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="68"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="60"/>
+      <c r="A70" s="56"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="70"/>
       <c r="G70" s="54"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
@@ -4693,17 +4741,17 @@
       <c r="S70" s="32"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="67"/>
-      <c r="B71" s="69" t="s">
+      <c r="A71" s="55"/>
+      <c r="B71" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="61" t="s">
+      <c r="C71" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D71" s="63"/>
-      <c r="E71" s="55"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="57"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="65"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -4730,22 +4778,26 @@
       <c r="S71" s="31"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="68"/>
+      <c r="A72" s="56"/>
       <c r="B72" s="58"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
       <c r="G72" s="58"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
       </c>
-      <c r="I72" s="52"/>
-      <c r="J72" s="52"/>
+      <c r="I72" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J72" s="52">
+        <v>6</v>
+      </c>
       <c r="K72" s="10">
         <f t="shared" si="17"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L72" s="41"/>
       <c r="M72" s="32"/>
@@ -4754,22 +4806,24 @@
       <c r="P72" s="32">
         <v>1.5</v>
       </c>
-      <c r="Q72" s="32"/>
+      <c r="Q72" s="32">
+        <v>1.5</v>
+      </c>
       <c r="R72" s="32"/>
       <c r="S72" s="32"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="67"/>
-      <c r="B73" s="69" t="s">
+      <c r="A73" s="55"/>
+      <c r="B73" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="61" t="s">
+      <c r="C73" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D73" s="63"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="57"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="65"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -4796,22 +4850,26 @@
       <c r="S73" s="31"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="68"/>
+      <c r="A74" s="56"/>
       <c r="B74" s="58"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="56"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
       <c r="G74" s="58"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v/>
       </c>
-      <c r="I74" s="52"/>
-      <c r="J74" s="52"/>
+      <c r="I74" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J74" s="52">
+        <v>6</v>
+      </c>
       <c r="K74" s="10">
         <f t="shared" si="17"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L74" s="41"/>
       <c r="M74" s="32"/>
@@ -4820,22 +4878,24 @@
       <c r="P74" s="32">
         <v>1.5</v>
       </c>
-      <c r="Q74" s="32"/>
+      <c r="Q74" s="32">
+        <v>1.5</v>
+      </c>
       <c r="R74" s="32"/>
       <c r="S74" s="32"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="67"/>
-      <c r="B75" s="69" t="s">
+      <c r="A75" s="55"/>
+      <c r="B75" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C75" s="61" t="s">
+      <c r="C75" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D75" s="63"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="57"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="65"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -4862,22 +4922,26 @@
       <c r="S75" s="31"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="68"/>
+      <c r="A76" s="56"/>
       <c r="B76" s="58"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
       <c r="G76" s="58"/>
       <c r="H76" s="52" t="str">
         <f>IF(E75="","","実績")</f>
         <v/>
       </c>
-      <c r="I76" s="52"/>
-      <c r="J76" s="52"/>
+      <c r="I76" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J76" s="52">
+        <v>1</v>
+      </c>
       <c r="K76" s="10">
         <f t="shared" si="17"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L76" s="43"/>
       <c r="M76" s="44"/>
@@ -4886,20 +4950,22 @@
       <c r="P76" s="44">
         <v>0.25</v>
       </c>
-      <c r="Q76" s="44"/>
+      <c r="Q76" s="44">
+        <v>0.25</v>
+      </c>
       <c r="R76" s="44"/>
       <c r="S76" s="44"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="70" t="s">
+      <c r="A77" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="71"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="114"/>
+      <c r="B77" s="74"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="79"/>
+      <c r="G77" s="71"/>
       <c r="H77" s="20" t="s">
         <v>18</v>
       </c>
@@ -4943,13 +5009,13 @@
       </c>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="73"/>
-      <c r="B78" s="74"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="75"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="77"/>
-      <c r="G78" s="115"/>
+      <c r="A78" s="76"/>
+      <c r="B78" s="77"/>
+      <c r="C78" s="77"/>
+      <c r="D78" s="78"/>
+      <c r="E78" s="80"/>
+      <c r="F78" s="80"/>
+      <c r="G78" s="72"/>
       <c r="H78" s="7" t="s">
         <v>19</v>
       </c>
@@ -4957,7 +5023,7 @@
       <c r="J78" s="7"/>
       <c r="K78" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$79:K$84),2)=0)*K$79:K$84)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L78" s="36">
         <f t="shared" ref="L78:S78" si="20">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=0)*L$79:L$84)</f>
@@ -4981,7 +5047,7 @@
       </c>
       <c r="Q78" s="36">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R78" s="36">
         <f t="shared" si="20"/>
@@ -4993,16 +5059,16 @@
       </c>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="67">
+      <c r="A79" s="55">
         <v>1</v>
       </c>
-      <c r="B79" s="61" t="s">
+      <c r="B79" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="62"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="59"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="69"/>
+      <c r="F79" s="69"/>
       <c r="G79" s="53"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
@@ -5021,12 +5087,12 @@
       <c r="S79" s="31"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="68"/>
-      <c r="B80" s="64"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="60"/>
+      <c r="A80" s="56"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="68"/>
+      <c r="D80" s="62"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="70"/>
       <c r="G80" s="54"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
@@ -5045,17 +5111,17 @@
       <c r="S80" s="32"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="67"/>
-      <c r="B81" s="69" t="s">
+      <c r="A81" s="55"/>
+      <c r="B81" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="61" t="s">
+      <c r="C81" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="D81" s="63"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="55"/>
-      <c r="G81" s="57"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="65"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5084,12 +5150,12 @@
       <c r="S81" s="31"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="68"/>
+      <c r="A82" s="56"/>
       <c r="B82" s="58"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="66"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="64"/>
+      <c r="F82" s="64"/>
       <c r="G82" s="58"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
@@ -5099,29 +5165,31 @@
       <c r="J82" s="52"/>
       <c r="K82" s="10">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L82" s="41"/>
       <c r="M82" s="32"/>
       <c r="N82" s="32"/>
       <c r="O82" s="32"/>
       <c r="P82" s="32"/>
-      <c r="Q82" s="32"/>
+      <c r="Q82" s="32">
+        <v>3</v>
+      </c>
       <c r="R82" s="32"/>
       <c r="S82" s="32"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="67"/>
-      <c r="B83" s="69" t="s">
+      <c r="A83" s="55"/>
+      <c r="B83" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C83" s="61" t="s">
+      <c r="C83" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="D83" s="63"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="57"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="65"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -5150,12 +5218,12 @@
       <c r="S83" s="31"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="68"/>
+      <c r="A84" s="56"/>
       <c r="B84" s="58"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="62"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="64"/>
       <c r="G84" s="58"/>
       <c r="H84" s="52" t="str">
         <f>IF(E83="","","実績")</f>
@@ -5177,15 +5245,15 @@
       <c r="S84" s="32"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="70" t="s">
+      <c r="A85" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="B85" s="71"/>
-      <c r="C85" s="71"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="76"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="114"/>
+      <c r="B85" s="74"/>
+      <c r="C85" s="74"/>
+      <c r="D85" s="75"/>
+      <c r="E85" s="79"/>
+      <c r="F85" s="79"/>
+      <c r="G85" s="71"/>
       <c r="H85" s="20" t="s">
         <v>18</v>
       </c>
@@ -5229,13 +5297,13 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="73"/>
-      <c r="B86" s="74"/>
-      <c r="C86" s="74"/>
-      <c r="D86" s="75"/>
-      <c r="E86" s="77"/>
-      <c r="F86" s="77"/>
-      <c r="G86" s="115"/>
+      <c r="A86" s="76"/>
+      <c r="B86" s="77"/>
+      <c r="C86" s="77"/>
+      <c r="D86" s="78"/>
+      <c r="E86" s="80"/>
+      <c r="F86" s="80"/>
+      <c r="G86" s="72"/>
       <c r="H86" s="7" t="s">
         <v>19</v>
       </c>
@@ -5279,16 +5347,16 @@
       </c>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="67">
+      <c r="A87" s="55">
         <v>1</v>
       </c>
-      <c r="B87" s="61" t="s">
+      <c r="B87" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C87" s="62"/>
-      <c r="D87" s="63"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="59"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="69"/>
+      <c r="F87" s="69"/>
       <c r="G87" s="53"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
@@ -5307,12 +5375,12 @@
       <c r="S87" s="31"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="68"/>
-      <c r="B88" s="64"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="66"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="60"/>
+      <c r="A88" s="56"/>
+      <c r="B88" s="61"/>
+      <c r="C88" s="68"/>
+      <c r="D88" s="62"/>
+      <c r="E88" s="70"/>
+      <c r="F88" s="70"/>
       <c r="G88" s="54"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
@@ -5331,17 +5399,17 @@
       <c r="S88" s="32"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="67"/>
-      <c r="B89" s="69" t="s">
+      <c r="A89" s="55"/>
+      <c r="B89" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="61" t="s">
+      <c r="C89" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="D89" s="63"/>
-      <c r="E89" s="55"/>
-      <c r="F89" s="55"/>
-      <c r="G89" s="57"/>
+      <c r="D89" s="60"/>
+      <c r="E89" s="63"/>
+      <c r="F89" s="63"/>
+      <c r="G89" s="65"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -5368,12 +5436,12 @@
       <c r="S89" s="31"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="68"/>
+      <c r="A90" s="56"/>
       <c r="B90" s="58"/>
-      <c r="C90" s="64"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="56"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="62"/>
+      <c r="E90" s="64"/>
+      <c r="F90" s="64"/>
       <c r="G90" s="58"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
@@ -5395,17 +5463,17 @@
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="67"/>
-      <c r="B91" s="69" t="s">
+      <c r="A91" s="55"/>
+      <c r="B91" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C91" s="120" t="s">
+      <c r="C91" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="D91" s="63"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="57"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="63"/>
+      <c r="F91" s="63"/>
+      <c r="G91" s="65"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5426,12 +5494,12 @@
       <c r="S91" s="31"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="68"/>
+      <c r="A92" s="56"/>
       <c r="B92" s="58"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="66"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="56"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="64"/>
       <c r="G92" s="58"/>
       <c r="H92" s="52" t="str">
         <f>IF(E91="","","実績")</f>
@@ -5453,16 +5521,16 @@
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="67">
+      <c r="A93" s="55">
         <v>2</v>
       </c>
-      <c r="B93" s="61" t="s">
+      <c r="B93" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C93" s="62"/>
-      <c r="D93" s="63"/>
-      <c r="E93" s="59"/>
-      <c r="F93" s="59"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="60"/>
+      <c r="E93" s="69"/>
+      <c r="F93" s="69"/>
       <c r="G93" s="53"/>
       <c r="H93" s="23" t="str">
         <f>IF(E93="","","予定")</f>
@@ -5481,12 +5549,12 @@
       <c r="S93" s="31"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="68"/>
-      <c r="B94" s="64"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="60"/>
-      <c r="F94" s="60"/>
+      <c r="A94" s="56"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="68"/>
+      <c r="D94" s="62"/>
+      <c r="E94" s="70"/>
+      <c r="F94" s="70"/>
       <c r="G94" s="54"/>
       <c r="H94" s="24" t="str">
         <f>IF(E93="","","実績")</f>
@@ -5505,17 +5573,17 @@
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="67"/>
-      <c r="B95" s="69" t="s">
+      <c r="A95" s="55"/>
+      <c r="B95" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="61" t="s">
+      <c r="C95" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D95" s="63"/>
-      <c r="E95" s="55"/>
-      <c r="F95" s="55"/>
-      <c r="G95" s="57"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="63"/>
+      <c r="F95" s="63"/>
+      <c r="G95" s="65"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5542,12 +5610,12 @@
       <c r="S95" s="31"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="68"/>
+      <c r="A96" s="56"/>
       <c r="B96" s="58"/>
-      <c r="C96" s="64"/>
-      <c r="D96" s="66"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="56"/>
+      <c r="C96" s="61"/>
+      <c r="D96" s="62"/>
+      <c r="E96" s="64"/>
+      <c r="F96" s="64"/>
       <c r="G96" s="58"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
@@ -5569,17 +5637,17 @@
       <c r="S96" s="32"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="67"/>
-      <c r="B97" s="69" t="s">
+      <c r="A97" s="55"/>
+      <c r="B97" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C97" s="61" t="s">
+      <c r="C97" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D97" s="63"/>
-      <c r="E97" s="55"/>
-      <c r="F97" s="55"/>
-      <c r="G97" s="57"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="63"/>
+      <c r="F97" s="63"/>
+      <c r="G97" s="65"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -5606,12 +5674,12 @@
       <c r="S97" s="31"/>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="68"/>
+      <c r="A98" s="56"/>
       <c r="B98" s="58"/>
-      <c r="C98" s="64"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="56"/>
-      <c r="F98" s="56"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="62"/>
+      <c r="E98" s="64"/>
+      <c r="F98" s="64"/>
       <c r="G98" s="58"/>
       <c r="H98" s="52" t="str">
         <f>IF(E97="","","実績")</f>
@@ -5633,15 +5701,15 @@
       <c r="S98" s="44"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="70" t="s">
+      <c r="A99" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="B99" s="71"/>
-      <c r="C99" s="71"/>
-      <c r="D99" s="72"/>
-      <c r="E99" s="76"/>
-      <c r="F99" s="76"/>
-      <c r="G99" s="114"/>
+      <c r="B99" s="74"/>
+      <c r="C99" s="74"/>
+      <c r="D99" s="75"/>
+      <c r="E99" s="79"/>
+      <c r="F99" s="79"/>
+      <c r="G99" s="71"/>
       <c r="H99" s="20" t="s">
         <v>18</v>
       </c>
@@ -5685,13 +5753,13 @@
       </c>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="73"/>
-      <c r="B100" s="74"/>
-      <c r="C100" s="74"/>
-      <c r="D100" s="75"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="115"/>
+      <c r="A100" s="76"/>
+      <c r="B100" s="77"/>
+      <c r="C100" s="77"/>
+      <c r="D100" s="78"/>
+      <c r="E100" s="80"/>
+      <c r="F100" s="80"/>
+      <c r="G100" s="72"/>
       <c r="H100" s="7" t="s">
         <v>19</v>
       </c>
@@ -5735,16 +5803,16 @@
       </c>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="67">
+      <c r="A101" s="55">
         <v>1</v>
       </c>
-      <c r="B101" s="61" t="s">
+      <c r="B101" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C101" s="62"/>
-      <c r="D101" s="63"/>
-      <c r="E101" s="59"/>
-      <c r="F101" s="59"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="60"/>
+      <c r="E101" s="69"/>
+      <c r="F101" s="69"/>
       <c r="G101" s="53"/>
       <c r="H101" s="23" t="str">
         <f>IF(E101="","","予定")</f>
@@ -5763,12 +5831,12 @@
       <c r="S101" s="31"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="68"/>
-      <c r="B102" s="64"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="66"/>
-      <c r="E102" s="60"/>
-      <c r="F102" s="60"/>
+      <c r="A102" s="56"/>
+      <c r="B102" s="61"/>
+      <c r="C102" s="68"/>
+      <c r="D102" s="62"/>
+      <c r="E102" s="70"/>
+      <c r="F102" s="70"/>
       <c r="G102" s="54"/>
       <c r="H102" s="24" t="str">
         <f>IF(E101="","","実績")</f>
@@ -5787,17 +5855,17 @@
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="67"/>
-      <c r="B103" s="69" t="s">
+      <c r="A103" s="55"/>
+      <c r="B103" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C103" s="61" t="s">
+      <c r="C103" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="D103" s="63"/>
-      <c r="E103" s="55"/>
-      <c r="F103" s="55"/>
-      <c r="G103" s="57"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="63"/>
+      <c r="F103" s="63"/>
+      <c r="G103" s="65"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -5824,12 +5892,12 @@
       <c r="S103" s="31"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="68"/>
+      <c r="A104" s="56"/>
       <c r="B104" s="58"/>
-      <c r="C104" s="64"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="56"/>
+      <c r="C104" s="61"/>
+      <c r="D104" s="62"/>
+      <c r="E104" s="64"/>
+      <c r="F104" s="64"/>
       <c r="G104" s="58"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
@@ -5851,17 +5919,17 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="67"/>
-      <c r="B105" s="69" t="s">
+      <c r="A105" s="55"/>
+      <c r="B105" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C105" s="61" t="s">
+      <c r="C105" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D105" s="63"/>
-      <c r="E105" s="55"/>
-      <c r="F105" s="55"/>
-      <c r="G105" s="57"/>
+      <c r="D105" s="60"/>
+      <c r="E105" s="63"/>
+      <c r="F105" s="63"/>
+      <c r="G105" s="65"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v/>
@@ -5888,12 +5956,12 @@
       <c r="S105" s="31"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="68"/>
+      <c r="A106" s="56"/>
       <c r="B106" s="58"/>
-      <c r="C106" s="64"/>
-      <c r="D106" s="66"/>
-      <c r="E106" s="56"/>
-      <c r="F106" s="56"/>
+      <c r="C106" s="61"/>
+      <c r="D106" s="62"/>
+      <c r="E106" s="64"/>
+      <c r="F106" s="64"/>
       <c r="G106" s="58"/>
       <c r="H106" s="52" t="str">
         <f>IF(E105="","","実績")</f>
@@ -5915,16 +5983,16 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="67">
+      <c r="A107" s="55">
         <v>2</v>
       </c>
-      <c r="B107" s="61" t="s">
+      <c r="B107" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C107" s="62"/>
-      <c r="D107" s="63"/>
-      <c r="E107" s="59"/>
-      <c r="F107" s="59"/>
+      <c r="C107" s="67"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="69"/>
+      <c r="F107" s="69"/>
       <c r="G107" s="53"/>
       <c r="H107" s="23" t="str">
         <f>IF(E107="","","予定")</f>
@@ -5943,12 +6011,12 @@
       <c r="S107" s="31"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="68"/>
-      <c r="B108" s="64"/>
-      <c r="C108" s="65"/>
-      <c r="D108" s="66"/>
-      <c r="E108" s="60"/>
-      <c r="F108" s="60"/>
+      <c r="A108" s="56"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="68"/>
+      <c r="D108" s="62"/>
+      <c r="E108" s="70"/>
+      <c r="F108" s="70"/>
       <c r="G108" s="54"/>
       <c r="H108" s="24" t="str">
         <f>IF(E107="","","実績")</f>
@@ -5967,17 +6035,17 @@
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="67"/>
-      <c r="B109" s="69" t="s">
+      <c r="A109" s="55"/>
+      <c r="B109" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C109" s="61" t="s">
+      <c r="C109" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D109" s="63"/>
-      <c r="E109" s="55"/>
-      <c r="F109" s="55"/>
-      <c r="G109" s="57"/>
+      <c r="D109" s="60"/>
+      <c r="E109" s="63"/>
+      <c r="F109" s="63"/>
+      <c r="G109" s="65"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -6004,12 +6072,12 @@
       <c r="S109" s="31"/>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="68"/>
+      <c r="A110" s="56"/>
       <c r="B110" s="58"/>
-      <c r="C110" s="64"/>
-      <c r="D110" s="66"/>
-      <c r="E110" s="56"/>
-      <c r="F110" s="56"/>
+      <c r="C110" s="61"/>
+      <c r="D110" s="62"/>
+      <c r="E110" s="64"/>
+      <c r="F110" s="64"/>
       <c r="G110" s="58"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
@@ -6031,17 +6099,17 @@
       <c r="S110" s="32"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="67"/>
-      <c r="B111" s="69" t="s">
+      <c r="A111" s="55"/>
+      <c r="B111" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C111" s="61" t="s">
+      <c r="C111" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D111" s="63"/>
-      <c r="E111" s="55"/>
-      <c r="F111" s="55"/>
-      <c r="G111" s="57"/>
+      <c r="D111" s="60"/>
+      <c r="E111" s="63"/>
+      <c r="F111" s="63"/>
+      <c r="G111" s="65"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v/>
@@ -6068,12 +6136,12 @@
       <c r="S111" s="31"/>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="68"/>
+      <c r="A112" s="56"/>
       <c r="B112" s="58"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="66"/>
-      <c r="E112" s="56"/>
-      <c r="F112" s="56"/>
+      <c r="C112" s="61"/>
+      <c r="D112" s="62"/>
+      <c r="E112" s="64"/>
+      <c r="F112" s="64"/>
       <c r="G112" s="58"/>
       <c r="H112" s="52" t="str">
         <f>IF(E111="","","実績")</f>
@@ -6110,95 +6178,208 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="G59:G60"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
@@ -6223,208 +6404,95 @@
     <mergeCell ref="G57:G58"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L9:S18 L25:S36 L101:S112 L87:S98">
@@ -6706,18 +6774,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6739,18 +6807,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/反復２/反復２WBSガントチャート.xlsx
+++ b/反復２/反復２WBSガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1F7C01-62D5-4512-83CD-1B707A618A99}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C365C591-FD70-4F21-AA71-D5CD90F617E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="62">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -1527,6 +1527,42 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1536,194 +1572,158 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2333,10 +2333,10 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="G74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J82" sqref="J82"/>
+      <selection pane="bottomRight" activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2355,120 +2355,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="81" t="s">
+      <c r="A1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="G1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="I1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="J1" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="111">
+      <c r="L1" s="78">
         <v>43992</v>
       </c>
-      <c r="M1" s="112"/>
-      <c r="N1" s="111">
+      <c r="M1" s="79"/>
+      <c r="N1" s="78">
         <v>43993</v>
       </c>
-      <c r="O1" s="112"/>
-      <c r="P1" s="111">
+      <c r="O1" s="79"/>
+      <c r="P1" s="78">
         <v>43994</v>
       </c>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="111">
+      <c r="Q1" s="79"/>
+      <c r="R1" s="78">
         <v>43997</v>
       </c>
-      <c r="S1" s="112"/>
+      <c r="S1" s="79"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="97"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="115" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="114"/>
-      <c r="N2" s="116" t="s">
+      <c r="M2" s="81"/>
+      <c r="N2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="114"/>
-      <c r="P2" s="113" t="s">
+      <c r="O2" s="81"/>
+      <c r="P2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="113" t="s">
+      <c r="Q2" s="81"/>
+      <c r="R2" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="114"/>
+      <c r="S2" s="81"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="97"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="119" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="118"/>
-      <c r="N3" s="117" t="s">
+      <c r="M3" s="85"/>
+      <c r="N3" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="118"/>
-      <c r="P3" s="117" t="s">
+      <c r="O3" s="85"/>
+      <c r="P3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="120" t="s">
+      <c r="Q3" s="85"/>
+      <c r="R3" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="120"/>
+      <c r="S3" s="87"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="98"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="92"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="90"/>
       <c r="L4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2495,15 +2495,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="86"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="118"/>
       <c r="H5" s="16" t="s">
         <v>18</v>
       </c>
@@ -2547,13 +2547,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="87"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="119"/>
       <c r="H6" s="18" t="s">
         <v>19</v>
       </c>
@@ -2597,15 +2597,15 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="108"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="111"/>
       <c r="H7" s="4" t="s">
         <v>18</v>
       </c>
@@ -2649,13 +2649,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="109"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="112"/>
       <c r="H8" s="6" t="s">
         <v>19</v>
       </c>
@@ -2699,16 +2699,16 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="55">
+      <c r="A9" s="67">
         <v>1</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="53"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
@@ -2727,12 +2727,12 @@
       <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="56"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="54"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
@@ -2751,17 +2751,17 @@
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="55"/>
-      <c r="B11" s="57" t="s">
+      <c r="A11" s="67"/>
+      <c r="B11" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="65"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v/>
@@ -2788,19 +2788,23 @@
       <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="56"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="58"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
       <c r="G12" s="58"/>
       <c r="H12" s="52" t="str">
         <f>IF(E11="","","実績")</f>
         <v/>
       </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
+      <c r="I12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="52">
+        <v>2</v>
+      </c>
       <c r="K12" s="10">
         <f>SUM(L12:S12)</f>
         <v>1</v>
@@ -2817,17 +2821,17 @@
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="55"/>
-      <c r="B13" s="57" t="s">
+      <c r="A13" s="67"/>
+      <c r="B13" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="65"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="57"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v/>
@@ -2854,19 +2858,23 @@
       <c r="S13" s="31"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="56"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="58"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
       <c r="G14" s="58"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
         <v/>
       </c>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
+      <c r="I14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="52">
+        <v>2</v>
+      </c>
       <c r="K14" s="10">
         <f>SUM(L14:S14)</f>
         <v>1</v>
@@ -2883,16 +2891,16 @@
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="55">
+      <c r="A15" s="67">
         <v>2</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
       <c r="G15" s="53"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
@@ -2911,12 +2919,12 @@
       <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="56"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="54"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
@@ -2935,17 +2943,17 @@
       <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="55"/>
-      <c r="B17" s="57" t="s">
+      <c r="A17" s="67"/>
+      <c r="B17" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="65"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="57"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v/>
@@ -2972,12 +2980,12 @@
       <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="56"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="58"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
       <c r="G18" s="58"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
@@ -3005,17 +3013,17 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="55"/>
-      <c r="B19" s="57" t="s">
+      <c r="A19" s="67"/>
+      <c r="B19" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="65"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="57"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v/>
@@ -3042,12 +3050,12 @@
       <c r="S19" s="31"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="56"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="58"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="58"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
@@ -3075,17 +3083,17 @@
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="55"/>
-      <c r="B21" s="57" t="s">
+      <c r="A21" s="67"/>
+      <c r="B21" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="65"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="57"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v/>
@@ -3112,12 +3120,12 @@
       <c r="S21" s="31"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="56"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="58"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
       <c r="G22" s="58"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
@@ -3145,15 +3153,15 @@
       <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="71"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="114"/>
       <c r="H23" s="20" t="s">
         <v>18</v>
       </c>
@@ -3197,13 +3205,13 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="72"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="115"/>
       <c r="H24" s="7" t="s">
         <v>19</v>
       </c>
@@ -3247,16 +3255,16 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="55">
+      <c r="A25" s="67">
         <v>1</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
       <c r="G25" s="53"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
@@ -3275,12 +3283,12 @@
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="56"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="54"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
@@ -3299,17 +3307,17 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="55"/>
-      <c r="B27" s="57" t="s">
+      <c r="A27" s="67"/>
+      <c r="B27" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="65"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="57"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v/>
@@ -3330,12 +3338,12 @@
       <c r="S27" s="31"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="56"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="58"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
       <c r="G28" s="58"/>
       <c r="H28" s="52" t="str">
         <f>IF(E27="","","実績")</f>
@@ -3357,17 +3365,17 @@
       <c r="S28" s="32"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="55"/>
-      <c r="B29" s="57" t="s">
+      <c r="A29" s="67"/>
+      <c r="B29" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="65"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="57"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v/>
@@ -3388,12 +3396,12 @@
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="56"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="58"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
       <c r="G30" s="58"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
@@ -3415,17 +3423,17 @@
       <c r="S30" s="32"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="55"/>
-      <c r="B31" s="57" t="s">
+      <c r="A31" s="67"/>
+      <c r="B31" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="65"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="57"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v/>
@@ -3446,12 +3454,12 @@
       <c r="S31" s="31"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="56"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="58"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
       <c r="G32" s="58"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
@@ -3473,17 +3481,17 @@
       <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="55"/>
-      <c r="B33" s="57" t="s">
+      <c r="A33" s="67"/>
+      <c r="B33" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="60"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="65"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="57"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v/>
@@ -3504,12 +3512,12 @@
       <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="56"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="58"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
       <c r="G34" s="58"/>
       <c r="H34" s="52" t="str">
         <f>IF(E33="","","実績")</f>
@@ -3531,16 +3539,16 @@
       <c r="S34" s="32"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="55">
+      <c r="A35" s="67">
         <v>2</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
       <c r="G35" s="53"/>
       <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
@@ -3559,12 +3567,12 @@
       <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="56"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
       <c r="G36" s="54"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
@@ -3583,17 +3591,17 @@
       <c r="S36" s="32"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="55"/>
-      <c r="B37" s="57" t="s">
+      <c r="A37" s="67"/>
+      <c r="B37" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="65"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="57"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3614,12 +3622,12 @@
       <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="56"/>
+      <c r="A38" s="68"/>
       <c r="B38" s="58"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
       <c r="G38" s="58"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
@@ -3641,17 +3649,17 @@
       <c r="S38" s="32"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="55"/>
-      <c r="B39" s="57" t="s">
+      <c r="A39" s="67"/>
+      <c r="B39" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="65"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="57"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v/>
@@ -3672,12 +3680,12 @@
       <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="56"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="58"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
       <c r="G40" s="58"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
@@ -3699,17 +3707,17 @@
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="55"/>
-      <c r="B41" s="57" t="s">
+      <c r="A41" s="67"/>
+      <c r="B41" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="60"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="65"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="57"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v/>
@@ -3730,12 +3738,12 @@
       <c r="S41" s="31"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="56"/>
+      <c r="A42" s="68"/>
       <c r="B42" s="58"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
       <c r="G42" s="58"/>
       <c r="H42" s="52" t="str">
         <f>IF(E41="","","実績")</f>
@@ -3757,15 +3765,15 @@
       <c r="S42" s="32"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="73" t="s">
+      <c r="A43" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="74"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="71"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="114"/>
       <c r="H43" s="20" t="s">
         <v>18</v>
       </c>
@@ -3809,13 +3817,13 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="76"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="72"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="115"/>
       <c r="H44" s="7" t="s">
         <v>19</v>
       </c>
@@ -3859,16 +3867,16 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="55">
+      <c r="A45" s="67">
         <v>1</v>
       </c>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="67"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
       <c r="G45" s="53"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
@@ -3887,12 +3895,12 @@
       <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="56"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
+      <c r="A46" s="68"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
       <c r="G46" s="54"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
@@ -3911,17 +3919,17 @@
       <c r="S46" s="32"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="55"/>
-      <c r="B47" s="57" t="s">
+      <c r="A47" s="67"/>
+      <c r="B47" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="60"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="65"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="57"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
@@ -3948,12 +3956,12 @@
       <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="56"/>
+      <c r="A48" s="68"/>
       <c r="B48" s="58"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
       <c r="G48" s="58"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
@@ -3983,17 +3991,17 @@
       <c r="S48" s="32"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="55"/>
-      <c r="B49" s="57" t="s">
+      <c r="A49" s="67"/>
+      <c r="B49" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="59" t="s">
+      <c r="C49" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="60"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="65"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="57"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
@@ -4020,12 +4028,12 @@
       <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="56"/>
+      <c r="A50" s="68"/>
       <c r="B50" s="58"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
       <c r="G50" s="58"/>
       <c r="H50" s="52" t="str">
         <f>IF(E49="","","実績")</f>
@@ -4053,16 +4061,16 @@
       <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="55">
+      <c r="A51" s="67">
         <v>2</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="67"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
       <c r="G51" s="53"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
@@ -4081,12 +4089,12 @@
       <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="56"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
+      <c r="A52" s="68"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
       <c r="G52" s="54"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
@@ -4105,17 +4113,17 @@
       <c r="S52" s="32"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="55"/>
-      <c r="B53" s="57" t="s">
+      <c r="A53" s="67"/>
+      <c r="B53" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="60"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="65"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="57"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4142,12 +4150,12 @@
       <c r="S53" s="31"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="56"/>
+      <c r="A54" s="68"/>
       <c r="B54" s="58"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
       <c r="G54" s="58"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
@@ -4175,17 +4183,17 @@
       <c r="S54" s="32"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="55"/>
-      <c r="B55" s="57" t="s">
+      <c r="A55" s="67"/>
+      <c r="B55" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="59" t="s">
+      <c r="C55" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="60"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="65"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="57"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4212,12 +4220,12 @@
       <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="56"/>
+      <c r="A56" s="68"/>
       <c r="B56" s="58"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
       <c r="G56" s="58"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
@@ -4245,17 +4253,17 @@
       <c r="S56" s="32"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="55"/>
-      <c r="B57" s="57" t="s">
+      <c r="A57" s="67"/>
+      <c r="B57" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="59" t="s">
+      <c r="C57" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D57" s="60"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="65"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="57"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -4282,12 +4290,12 @@
       <c r="S57" s="31"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="56"/>
+      <c r="A58" s="68"/>
       <c r="B58" s="58"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
       <c r="G58" s="58"/>
       <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
@@ -4315,15 +4323,15 @@
       <c r="S58" s="44"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="73" t="s">
+      <c r="A59" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B59" s="74"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="71"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="114"/>
       <c r="H59" s="20" t="s">
         <v>18</v>
       </c>
@@ -4367,13 +4375,13 @@
       </c>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="76"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="72"/>
+      <c r="A60" s="73"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="115"/>
       <c r="H60" s="7" t="s">
         <v>19</v>
       </c>
@@ -4417,16 +4425,16 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="55">
+      <c r="A61" s="67">
         <v>1</v>
       </c>
-      <c r="B61" s="59" t="s">
+      <c r="B61" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="67"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="69"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
       <c r="G61" s="53"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
@@ -4445,12 +4453,12 @@
       <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="56"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
+      <c r="A62" s="68"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
       <c r="G62" s="54"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
@@ -4469,17 +4477,17 @@
       <c r="S62" s="32"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="55"/>
-      <c r="B63" s="57" t="s">
+      <c r="A63" s="67"/>
+      <c r="B63" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="59" t="s">
+      <c r="C63" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D63" s="60"/>
-      <c r="E63" s="63"/>
-      <c r="F63" s="63"/>
-      <c r="G63" s="65"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="57"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4506,12 +4514,12 @@
       <c r="S63" s="31"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="56"/>
+      <c r="A64" s="68"/>
       <c r="B64" s="58"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
       <c r="G64" s="58"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
@@ -4541,17 +4549,17 @@
       <c r="S64" s="32"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="55"/>
-      <c r="B65" s="57" t="s">
+      <c r="A65" s="67"/>
+      <c r="B65" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="59" t="s">
+      <c r="C65" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D65" s="60"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="65"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="57"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -4580,12 +4588,12 @@
       <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="56"/>
+      <c r="A66" s="68"/>
       <c r="B66" s="58"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
       <c r="G66" s="58"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
@@ -4617,17 +4625,17 @@
       <c r="S66" s="32"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="55"/>
-      <c r="B67" s="57" t="s">
+      <c r="A67" s="67"/>
+      <c r="B67" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="59" t="s">
+      <c r="C67" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D67" s="60"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="63"/>
-      <c r="G67" s="65"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="57"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -4654,12 +4662,12 @@
       <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="56"/>
+      <c r="A68" s="68"/>
       <c r="B68" s="58"/>
-      <c r="C68" s="61"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
       <c r="G68" s="58"/>
       <c r="H68" s="52" t="str">
         <f>IF(E67="","","実績")</f>
@@ -4689,16 +4697,16 @@
       <c r="S68" s="32"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="55">
+      <c r="A69" s="67">
         <v>2</v>
       </c>
-      <c r="B69" s="59" t="s">
+      <c r="B69" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="67"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="69"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
       <c r="G69" s="53"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
@@ -4717,12 +4725,12 @@
       <c r="S69" s="31"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="56"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="68"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
+      <c r="A70" s="68"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="60"/>
       <c r="G70" s="54"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
@@ -4741,17 +4749,17 @@
       <c r="S70" s="32"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="55"/>
-      <c r="B71" s="57" t="s">
+      <c r="A71" s="67"/>
+      <c r="B71" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="59" t="s">
+      <c r="C71" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D71" s="60"/>
-      <c r="E71" s="63"/>
-      <c r="F71" s="63"/>
-      <c r="G71" s="65"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="57"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -4778,12 +4786,12 @@
       <c r="S71" s="31"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="56"/>
+      <c r="A72" s="68"/>
       <c r="B72" s="58"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
       <c r="G72" s="58"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
@@ -4813,17 +4821,17 @@
       <c r="S72" s="32"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="55"/>
-      <c r="B73" s="57" t="s">
+      <c r="A73" s="67"/>
+      <c r="B73" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="59" t="s">
+      <c r="C73" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="D73" s="60"/>
-      <c r="E73" s="63"/>
-      <c r="F73" s="63"/>
-      <c r="G73" s="65"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="57"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -4850,12 +4858,12 @@
       <c r="S73" s="31"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="56"/>
+      <c r="A74" s="68"/>
       <c r="B74" s="58"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
       <c r="G74" s="58"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
@@ -4885,17 +4893,17 @@
       <c r="S74" s="32"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="55"/>
-      <c r="B75" s="57" t="s">
+      <c r="A75" s="67"/>
+      <c r="B75" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C75" s="59" t="s">
+      <c r="C75" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D75" s="60"/>
-      <c r="E75" s="63"/>
-      <c r="F75" s="63"/>
-      <c r="G75" s="65"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="57"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -4922,12 +4930,12 @@
       <c r="S75" s="31"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="56"/>
+      <c r="A76" s="68"/>
       <c r="B76" s="58"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
       <c r="G76" s="58"/>
       <c r="H76" s="52" t="str">
         <f>IF(E75="","","実績")</f>
@@ -4957,15 +4965,15 @@
       <c r="S76" s="44"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="73" t="s">
+      <c r="A77" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="74"/>
-      <c r="C77" s="74"/>
-      <c r="D77" s="75"/>
-      <c r="E77" s="79"/>
-      <c r="F77" s="79"/>
-      <c r="G77" s="71"/>
+      <c r="B77" s="71"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="114"/>
       <c r="H77" s="20" t="s">
         <v>18</v>
       </c>
@@ -5009,13 +5017,13 @@
       </c>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="76"/>
-      <c r="B78" s="77"/>
-      <c r="C78" s="77"/>
-      <c r="D78" s="78"/>
-      <c r="E78" s="80"/>
-      <c r="F78" s="80"/>
-      <c r="G78" s="72"/>
+      <c r="A78" s="73"/>
+      <c r="B78" s="74"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="77"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="115"/>
       <c r="H78" s="7" t="s">
         <v>19</v>
       </c>
@@ -5059,16 +5067,16 @@
       </c>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="55">
+      <c r="A79" s="67">
         <v>1</v>
       </c>
-      <c r="B79" s="59" t="s">
+      <c r="B79" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="67"/>
-      <c r="D79" s="60"/>
-      <c r="E79" s="69"/>
-      <c r="F79" s="69"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
       <c r="G79" s="53"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
@@ -5087,12 +5095,12 @@
       <c r="S79" s="31"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="56"/>
-      <c r="B80" s="61"/>
-      <c r="C80" s="68"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="70"/>
+      <c r="A80" s="68"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="60"/>
       <c r="G80" s="54"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
@@ -5111,17 +5119,17 @@
       <c r="S80" s="32"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="55"/>
-      <c r="B81" s="57" t="s">
+      <c r="A81" s="67"/>
+      <c r="B81" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="59" t="s">
+      <c r="C81" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="D81" s="60"/>
-      <c r="E81" s="63"/>
-      <c r="F81" s="63"/>
-      <c r="G81" s="65"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="57"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5150,12 +5158,12 @@
       <c r="S81" s="31"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="56"/>
+      <c r="A82" s="68"/>
       <c r="B82" s="58"/>
-      <c r="C82" s="61"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="64"/>
-      <c r="F82" s="64"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
       <c r="G82" s="58"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
@@ -5179,17 +5187,17 @@
       <c r="S82" s="32"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="55"/>
-      <c r="B83" s="57" t="s">
+      <c r="A83" s="67"/>
+      <c r="B83" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C83" s="59" t="s">
+      <c r="C83" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="D83" s="60"/>
-      <c r="E83" s="63"/>
-      <c r="F83" s="63"/>
-      <c r="G83" s="65"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="57"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -5218,12 +5226,12 @@
       <c r="S83" s="31"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="56"/>
+      <c r="A84" s="68"/>
       <c r="B84" s="58"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
       <c r="G84" s="58"/>
       <c r="H84" s="52" t="str">
         <f>IF(E83="","","実績")</f>
@@ -5245,15 +5253,15 @@
       <c r="S84" s="32"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="73" t="s">
+      <c r="A85" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B85" s="74"/>
-      <c r="C85" s="74"/>
-      <c r="D85" s="75"/>
-      <c r="E85" s="79"/>
-      <c r="F85" s="79"/>
-      <c r="G85" s="71"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="71"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="114"/>
       <c r="H85" s="20" t="s">
         <v>18</v>
       </c>
@@ -5297,13 +5305,13 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="76"/>
-      <c r="B86" s="77"/>
-      <c r="C86" s="77"/>
-      <c r="D86" s="78"/>
-      <c r="E86" s="80"/>
-      <c r="F86" s="80"/>
-      <c r="G86" s="72"/>
+      <c r="A86" s="73"/>
+      <c r="B86" s="74"/>
+      <c r="C86" s="74"/>
+      <c r="D86" s="75"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="115"/>
       <c r="H86" s="7" t="s">
         <v>19</v>
       </c>
@@ -5347,16 +5355,16 @@
       </c>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="55">
+      <c r="A87" s="67">
         <v>1</v>
       </c>
-      <c r="B87" s="59" t="s">
+      <c r="B87" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C87" s="67"/>
-      <c r="D87" s="60"/>
-      <c r="E87" s="69"/>
-      <c r="F87" s="69"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="59"/>
       <c r="G87" s="53"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
@@ -5375,12 +5383,12 @@
       <c r="S87" s="31"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="56"/>
-      <c r="B88" s="61"/>
-      <c r="C88" s="68"/>
-      <c r="D88" s="62"/>
-      <c r="E88" s="70"/>
-      <c r="F88" s="70"/>
+      <c r="A88" s="68"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="60"/>
       <c r="G88" s="54"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
@@ -5399,17 +5407,17 @@
       <c r="S88" s="32"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="55"/>
-      <c r="B89" s="57" t="s">
+      <c r="A89" s="67"/>
+      <c r="B89" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="59" t="s">
+      <c r="C89" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="D89" s="60"/>
-      <c r="E89" s="63"/>
-      <c r="F89" s="63"/>
-      <c r="G89" s="65"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="57"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -5436,12 +5444,12 @@
       <c r="S89" s="31"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="56"/>
+      <c r="A90" s="68"/>
       <c r="B90" s="58"/>
-      <c r="C90" s="61"/>
-      <c r="D90" s="62"/>
-      <c r="E90" s="64"/>
-      <c r="F90" s="64"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
       <c r="G90" s="58"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
@@ -5463,17 +5471,17 @@
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="55"/>
-      <c r="B91" s="57" t="s">
+      <c r="A91" s="67"/>
+      <c r="B91" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C91" s="66" t="s">
+      <c r="C91" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="D91" s="60"/>
-      <c r="E91" s="63"/>
-      <c r="F91" s="63"/>
-      <c r="G91" s="65"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="57"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5494,12 +5502,12 @@
       <c r="S91" s="31"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="56"/>
+      <c r="A92" s="68"/>
       <c r="B92" s="58"/>
-      <c r="C92" s="61"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="64"/>
-      <c r="F92" s="64"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="66"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="56"/>
       <c r="G92" s="58"/>
       <c r="H92" s="52" t="str">
         <f>IF(E91="","","実績")</f>
@@ -5521,16 +5529,16 @@
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="55">
+      <c r="A93" s="67">
         <v>2</v>
       </c>
-      <c r="B93" s="59" t="s">
+      <c r="B93" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C93" s="67"/>
-      <c r="D93" s="60"/>
-      <c r="E93" s="69"/>
-      <c r="F93" s="69"/>
+      <c r="C93" s="62"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="59"/>
+      <c r="F93" s="59"/>
       <c r="G93" s="53"/>
       <c r="H93" s="23" t="str">
         <f>IF(E93="","","予定")</f>
@@ -5549,12 +5557,12 @@
       <c r="S93" s="31"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="56"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="68"/>
-      <c r="D94" s="62"/>
-      <c r="E94" s="70"/>
-      <c r="F94" s="70"/>
+      <c r="A94" s="68"/>
+      <c r="B94" s="64"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="66"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="60"/>
       <c r="G94" s="54"/>
       <c r="H94" s="24" t="str">
         <f>IF(E93="","","実績")</f>
@@ -5573,17 +5581,17 @@
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="55"/>
-      <c r="B95" s="57" t="s">
+      <c r="A95" s="67"/>
+      <c r="B95" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="59" t="s">
+      <c r="C95" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D95" s="60"/>
-      <c r="E95" s="63"/>
-      <c r="F95" s="63"/>
-      <c r="G95" s="65"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="57"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5610,12 +5618,12 @@
       <c r="S95" s="31"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="56"/>
+      <c r="A96" s="68"/>
       <c r="B96" s="58"/>
-      <c r="C96" s="61"/>
-      <c r="D96" s="62"/>
-      <c r="E96" s="64"/>
-      <c r="F96" s="64"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="56"/>
       <c r="G96" s="58"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
@@ -5637,17 +5645,17 @@
       <c r="S96" s="32"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="55"/>
-      <c r="B97" s="57" t="s">
+      <c r="A97" s="67"/>
+      <c r="B97" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C97" s="59" t="s">
+      <c r="C97" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D97" s="60"/>
-      <c r="E97" s="63"/>
-      <c r="F97" s="63"/>
-      <c r="G97" s="65"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="57"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -5674,12 +5682,12 @@
       <c r="S97" s="31"/>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="56"/>
+      <c r="A98" s="68"/>
       <c r="B98" s="58"/>
-      <c r="C98" s="61"/>
-      <c r="D98" s="62"/>
-      <c r="E98" s="64"/>
-      <c r="F98" s="64"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="66"/>
+      <c r="E98" s="56"/>
+      <c r="F98" s="56"/>
       <c r="G98" s="58"/>
       <c r="H98" s="52" t="str">
         <f>IF(E97="","","実績")</f>
@@ -5701,15 +5709,15 @@
       <c r="S98" s="44"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="73" t="s">
+      <c r="A99" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="B99" s="74"/>
-      <c r="C99" s="74"/>
-      <c r="D99" s="75"/>
-      <c r="E99" s="79"/>
-      <c r="F99" s="79"/>
-      <c r="G99" s="71"/>
+      <c r="B99" s="71"/>
+      <c r="C99" s="71"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="76"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="114"/>
       <c r="H99" s="20" t="s">
         <v>18</v>
       </c>
@@ -5753,13 +5761,13 @@
       </c>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="76"/>
-      <c r="B100" s="77"/>
-      <c r="C100" s="77"/>
-      <c r="D100" s="78"/>
-      <c r="E100" s="80"/>
-      <c r="F100" s="80"/>
-      <c r="G100" s="72"/>
+      <c r="A100" s="73"/>
+      <c r="B100" s="74"/>
+      <c r="C100" s="74"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="115"/>
       <c r="H100" s="7" t="s">
         <v>19</v>
       </c>
@@ -5803,16 +5811,16 @@
       </c>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="55">
+      <c r="A101" s="67">
         <v>1</v>
       </c>
-      <c r="B101" s="59" t="s">
+      <c r="B101" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C101" s="67"/>
-      <c r="D101" s="60"/>
-      <c r="E101" s="69"/>
-      <c r="F101" s="69"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="59"/>
+      <c r="F101" s="59"/>
       <c r="G101" s="53"/>
       <c r="H101" s="23" t="str">
         <f>IF(E101="","","予定")</f>
@@ -5831,12 +5839,12 @@
       <c r="S101" s="31"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="56"/>
-      <c r="B102" s="61"/>
-      <c r="C102" s="68"/>
-      <c r="D102" s="62"/>
-      <c r="E102" s="70"/>
-      <c r="F102" s="70"/>
+      <c r="A102" s="68"/>
+      <c r="B102" s="64"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="66"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="60"/>
       <c r="G102" s="54"/>
       <c r="H102" s="24" t="str">
         <f>IF(E101="","","実績")</f>
@@ -5855,17 +5863,17 @@
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="55"/>
-      <c r="B103" s="57" t="s">
+      <c r="A103" s="67"/>
+      <c r="B103" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C103" s="59" t="s">
+      <c r="C103" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="D103" s="60"/>
-      <c r="E103" s="63"/>
-      <c r="F103" s="63"/>
-      <c r="G103" s="65"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="55"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="57"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -5892,12 +5900,12 @@
       <c r="S103" s="31"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="56"/>
+      <c r="A104" s="68"/>
       <c r="B104" s="58"/>
-      <c r="C104" s="61"/>
-      <c r="D104" s="62"/>
-      <c r="E104" s="64"/>
-      <c r="F104" s="64"/>
+      <c r="C104" s="64"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="56"/>
+      <c r="F104" s="56"/>
       <c r="G104" s="58"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
@@ -5919,17 +5927,17 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="55"/>
-      <c r="B105" s="57" t="s">
+      <c r="A105" s="67"/>
+      <c r="B105" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C105" s="59" t="s">
+      <c r="C105" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="D105" s="60"/>
-      <c r="E105" s="63"/>
-      <c r="F105" s="63"/>
-      <c r="G105" s="65"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="55"/>
+      <c r="F105" s="55"/>
+      <c r="G105" s="57"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v/>
@@ -5956,12 +5964,12 @@
       <c r="S105" s="31"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="56"/>
+      <c r="A106" s="68"/>
       <c r="B106" s="58"/>
-      <c r="C106" s="61"/>
-      <c r="D106" s="62"/>
-      <c r="E106" s="64"/>
-      <c r="F106" s="64"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="66"/>
+      <c r="E106" s="56"/>
+      <c r="F106" s="56"/>
       <c r="G106" s="58"/>
       <c r="H106" s="52" t="str">
         <f>IF(E105="","","実績")</f>
@@ -5983,16 +5991,16 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="55">
+      <c r="A107" s="67">
         <v>2</v>
       </c>
-      <c r="B107" s="59" t="s">
+      <c r="B107" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C107" s="67"/>
-      <c r="D107" s="60"/>
-      <c r="E107" s="69"/>
-      <c r="F107" s="69"/>
+      <c r="C107" s="62"/>
+      <c r="D107" s="63"/>
+      <c r="E107" s="59"/>
+      <c r="F107" s="59"/>
       <c r="G107" s="53"/>
       <c r="H107" s="23" t="str">
         <f>IF(E107="","","予定")</f>
@@ -6011,12 +6019,12 @@
       <c r="S107" s="31"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="56"/>
-      <c r="B108" s="61"/>
-      <c r="C108" s="68"/>
-      <c r="D108" s="62"/>
-      <c r="E108" s="70"/>
-      <c r="F108" s="70"/>
+      <c r="A108" s="68"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="65"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="60"/>
+      <c r="F108" s="60"/>
       <c r="G108" s="54"/>
       <c r="H108" s="24" t="str">
         <f>IF(E107="","","実績")</f>
@@ -6035,17 +6043,17 @@
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="55"/>
-      <c r="B109" s="57" t="s">
+      <c r="A109" s="67"/>
+      <c r="B109" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C109" s="59" t="s">
+      <c r="C109" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D109" s="60"/>
-      <c r="E109" s="63"/>
-      <c r="F109" s="63"/>
-      <c r="G109" s="65"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="55"/>
+      <c r="F109" s="55"/>
+      <c r="G109" s="57"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -6072,12 +6080,12 @@
       <c r="S109" s="31"/>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="56"/>
+      <c r="A110" s="68"/>
       <c r="B110" s="58"/>
-      <c r="C110" s="61"/>
-      <c r="D110" s="62"/>
-      <c r="E110" s="64"/>
-      <c r="F110" s="64"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="66"/>
+      <c r="E110" s="56"/>
+      <c r="F110" s="56"/>
       <c r="G110" s="58"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
@@ -6099,17 +6107,17 @@
       <c r="S110" s="32"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="55"/>
-      <c r="B111" s="57" t="s">
+      <c r="A111" s="67"/>
+      <c r="B111" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C111" s="59" t="s">
+      <c r="C111" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D111" s="60"/>
-      <c r="E111" s="63"/>
-      <c r="F111" s="63"/>
-      <c r="G111" s="65"/>
+      <c r="D111" s="63"/>
+      <c r="E111" s="55"/>
+      <c r="F111" s="55"/>
+      <c r="G111" s="57"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v/>
@@ -6136,12 +6144,12 @@
       <c r="S111" s="31"/>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="56"/>
+      <c r="A112" s="68"/>
       <c r="B112" s="58"/>
-      <c r="C112" s="61"/>
-      <c r="D112" s="62"/>
-      <c r="E112" s="64"/>
-      <c r="F112" s="64"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="66"/>
+      <c r="E112" s="56"/>
+      <c r="F112" s="56"/>
       <c r="G112" s="58"/>
       <c r="H112" s="52" t="str">
         <f>IF(E111="","","実績")</f>
@@ -6178,19 +6186,284 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="B27:B28"/>
@@ -6215,284 +6488,19 @@
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L9:S18 L25:S36 L101:S112 L87:S98">
@@ -6774,18 +6782,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6807,18 +6815,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/反復２/反復２WBSガントチャート.xlsx
+++ b/反復２/反復２WBSガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C365C591-FD70-4F21-AA71-D5CD90F617E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FDFE0B-9F7A-4519-AE36-B77446070A91}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1527,6 +1527,30 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1536,7 +1560,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1545,31 +1575,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1596,6 +1605,96 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1625,105 +1724,6 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2333,10 +2333,10 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="G74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I81" sqref="I81"/>
+      <selection pane="bottomRight" activeCell="R90" sqref="R90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2355,120 +2355,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="94" t="s">
+      <c r="A1" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="94" t="s">
+      <c r="I1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="94" t="s">
+      <c r="J1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="88" t="s">
+      <c r="K1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="78">
+      <c r="L1" s="111">
         <v>43992</v>
       </c>
-      <c r="M1" s="79"/>
-      <c r="N1" s="78">
+      <c r="M1" s="112"/>
+      <c r="N1" s="111">
         <v>43993</v>
       </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="78">
+      <c r="O1" s="112"/>
+      <c r="P1" s="111">
         <v>43994</v>
       </c>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="78">
+      <c r="Q1" s="112"/>
+      <c r="R1" s="111">
         <v>43997</v>
       </c>
-      <c r="S1" s="79"/>
+      <c r="S1" s="112"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="98"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="82" t="s">
+      <c r="A2" s="97"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="81"/>
-      <c r="N2" s="83" t="s">
+      <c r="M2" s="114"/>
+      <c r="N2" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="81"/>
-      <c r="P2" s="80" t="s">
+      <c r="O2" s="114"/>
+      <c r="P2" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="80" t="s">
+      <c r="Q2" s="114"/>
+      <c r="R2" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="81"/>
+      <c r="S2" s="114"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="98"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="86" t="s">
+      <c r="A3" s="97"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="84" t="s">
+      <c r="M3" s="118"/>
+      <c r="N3" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="84" t="s">
+      <c r="O3" s="118"/>
+      <c r="P3" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="87" t="s">
+      <c r="Q3" s="118"/>
+      <c r="R3" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="87"/>
+      <c r="S3" s="120"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="99"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="90"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="92"/>
       <c r="L4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2495,15 +2495,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="118"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="86"/>
       <c r="H5" s="16" t="s">
         <v>18</v>
       </c>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="Q5" s="27">
         <f t="shared" si="0"/>
-        <v>18.25</v>
+        <v>9.25</v>
       </c>
       <c r="R5" s="27">
         <f t="shared" si="0"/>
@@ -2547,13 +2547,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="103"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="119"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="87"/>
       <c r="H6" s="18" t="s">
         <v>19</v>
       </c>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="Q6" s="47">
         <f>SUM(Q8,Q24,Q44,Q60,Q78,R86)</f>
-        <v>18.25</v>
+        <v>10.75</v>
       </c>
       <c r="R6" s="47">
         <f t="shared" ref="R6:S6" si="1">SUM(S8,S24,S44,S60,S78,S86)</f>
@@ -2597,15 +2597,15 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="111"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="108"/>
       <c r="H7" s="4" t="s">
         <v>18</v>
       </c>
@@ -2649,13 +2649,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="73"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="112"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="6" t="s">
         <v>19</v>
       </c>
@@ -2699,16 +2699,16 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="67">
+      <c r="A9" s="55">
         <v>1</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="53"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
@@ -2727,12 +2727,12 @@
       <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="68"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
       <c r="G10" s="54"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
@@ -2751,17 +2751,17 @@
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="67"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="57"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="65"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v/>
@@ -2788,12 +2788,12 @@
       <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="68"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="58"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
       <c r="G12" s="58"/>
       <c r="H12" s="52" t="str">
         <f>IF(E11="","","実績")</f>
@@ -2821,17 +2821,17 @@
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="67"/>
-      <c r="B13" s="69" t="s">
+      <c r="A13" s="55"/>
+      <c r="B13" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="57"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="65"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v/>
@@ -2858,12 +2858,12 @@
       <c r="S13" s="31"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="68"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="58"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
       <c r="G14" s="58"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
@@ -2891,16 +2891,16 @@
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="67">
+      <c r="A15" s="55">
         <v>2</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="53"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
@@ -2919,12 +2919,12 @@
       <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="68"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
       <c r="G16" s="54"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
@@ -2943,17 +2943,17 @@
       <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="67"/>
-      <c r="B17" s="69" t="s">
+      <c r="A17" s="55"/>
+      <c r="B17" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="57"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="65"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v/>
@@ -2980,12 +2980,12 @@
       <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="68"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="58"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
       <c r="G18" s="58"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
@@ -3013,17 +3013,17 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="67"/>
-      <c r="B19" s="69" t="s">
+      <c r="A19" s="55"/>
+      <c r="B19" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="57"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="65"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v/>
@@ -3050,12 +3050,12 @@
       <c r="S19" s="31"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="68"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="58"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
       <c r="G20" s="58"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
@@ -3083,17 +3083,17 @@
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="67"/>
-      <c r="B21" s="69" t="s">
+      <c r="A21" s="55"/>
+      <c r="B21" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="57"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="65"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v/>
@@ -3120,12 +3120,12 @@
       <c r="S21" s="31"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="68"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="58"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
       <c r="G22" s="58"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
@@ -3153,15 +3153,15 @@
       <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="114"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="71"/>
       <c r="H23" s="20" t="s">
         <v>18</v>
       </c>
@@ -3205,13 +3205,13 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="115"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="72"/>
       <c r="H24" s="7" t="s">
         <v>19</v>
       </c>
@@ -3255,16 +3255,16 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="67">
+      <c r="A25" s="55">
         <v>1</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
       <c r="G25" s="53"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
@@ -3283,12 +3283,12 @@
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="68"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
       <c r="G26" s="54"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
@@ -3307,17 +3307,17 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="67"/>
-      <c r="B27" s="69" t="s">
+      <c r="A27" s="55"/>
+      <c r="B27" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="57"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="65"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v/>
@@ -3338,12 +3338,12 @@
       <c r="S27" s="31"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="68"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="58"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
       <c r="G28" s="58"/>
       <c r="H28" s="52" t="str">
         <f>IF(E27="","","実績")</f>
@@ -3365,17 +3365,17 @@
       <c r="S28" s="32"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="67"/>
-      <c r="B29" s="69" t="s">
+      <c r="A29" s="55"/>
+      <c r="B29" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="57"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="65"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v/>
@@ -3396,12 +3396,12 @@
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="68"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="58"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
       <c r="G30" s="58"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
@@ -3423,17 +3423,17 @@
       <c r="S30" s="32"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="67"/>
-      <c r="B31" s="69" t="s">
+      <c r="A31" s="55"/>
+      <c r="B31" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="57"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="65"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v/>
@@ -3454,12 +3454,12 @@
       <c r="S31" s="31"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="68"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="58"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
       <c r="G32" s="58"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
@@ -3481,17 +3481,17 @@
       <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="67"/>
-      <c r="B33" s="69" t="s">
+      <c r="A33" s="55"/>
+      <c r="B33" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="57"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="65"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v/>
@@ -3512,12 +3512,12 @@
       <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="68"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="58"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
       <c r="G34" s="58"/>
       <c r="H34" s="52" t="str">
         <f>IF(E33="","","実績")</f>
@@ -3539,16 +3539,16 @@
       <c r="S34" s="32"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="67">
+      <c r="A35" s="55">
         <v>2</v>
       </c>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
       <c r="G35" s="53"/>
       <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
@@ -3567,12 +3567,12 @@
       <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="68"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
       <c r="G36" s="54"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
@@ -3591,17 +3591,17 @@
       <c r="S36" s="32"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="67"/>
-      <c r="B37" s="69" t="s">
+      <c r="A37" s="55"/>
+      <c r="B37" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="57"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="65"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3622,12 +3622,12 @@
       <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="68"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="58"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
       <c r="G38" s="58"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
@@ -3649,17 +3649,17 @@
       <c r="S38" s="32"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="67"/>
-      <c r="B39" s="69" t="s">
+      <c r="A39" s="55"/>
+      <c r="B39" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="57"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="65"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v/>
@@ -3680,12 +3680,12 @@
       <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="68"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="58"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
       <c r="G40" s="58"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
@@ -3707,17 +3707,17 @@
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="67"/>
-      <c r="B41" s="69" t="s">
+      <c r="A41" s="55"/>
+      <c r="B41" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="C41" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="57"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="65"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v/>
@@ -3738,12 +3738,12 @@
       <c r="S41" s="31"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="68"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="58"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
       <c r="G42" s="58"/>
       <c r="H42" s="52" t="str">
         <f>IF(E41="","","実績")</f>
@@ -3765,15 +3765,15 @@
       <c r="S42" s="32"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="114"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="71"/>
       <c r="H43" s="20" t="s">
         <v>18</v>
       </c>
@@ -3817,13 +3817,13 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="73"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="115"/>
+      <c r="A44" s="76"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="72"/>
       <c r="H44" s="7" t="s">
         <v>19</v>
       </c>
@@ -3867,16 +3867,16 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="67">
+      <c r="A45" s="55">
         <v>1</v>
       </c>
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="62"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
       <c r="G45" s="53"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
@@ -3895,12 +3895,12 @@
       <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="68"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
       <c r="G46" s="54"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
@@ -3919,17 +3919,17 @@
       <c r="S46" s="32"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="67"/>
-      <c r="B47" s="69" t="s">
+      <c r="A47" s="55"/>
+      <c r="B47" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="61" t="s">
+      <c r="C47" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="57"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="65"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
@@ -3956,12 +3956,12 @@
       <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="68"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="58"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
       <c r="G48" s="58"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
@@ -3991,17 +3991,17 @@
       <c r="S48" s="32"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="67"/>
-      <c r="B49" s="69" t="s">
+      <c r="A49" s="55"/>
+      <c r="B49" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="63"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="57"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="65"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
@@ -4028,12 +4028,12 @@
       <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="68"/>
+      <c r="A50" s="56"/>
       <c r="B50" s="58"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
       <c r="G50" s="58"/>
       <c r="H50" s="52" t="str">
         <f>IF(E49="","","実績")</f>
@@ -4061,16 +4061,16 @@
       <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="67">
+      <c r="A51" s="55">
         <v>2</v>
       </c>
-      <c r="B51" s="61" t="s">
+      <c r="B51" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="62"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
       <c r="G51" s="53"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
@@ -4089,12 +4089,12 @@
       <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="68"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
       <c r="G52" s="54"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
@@ -4113,17 +4113,17 @@
       <c r="S52" s="32"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="67"/>
-      <c r="B53" s="69" t="s">
+      <c r="A53" s="55"/>
+      <c r="B53" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="61" t="s">
+      <c r="C53" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="63"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="57"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="65"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4150,12 +4150,12 @@
       <c r="S53" s="31"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="68"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="58"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
       <c r="G54" s="58"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
@@ -4183,17 +4183,17 @@
       <c r="S54" s="32"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="67"/>
-      <c r="B55" s="69" t="s">
+      <c r="A55" s="55"/>
+      <c r="B55" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="61" t="s">
+      <c r="C55" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="63"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="57"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="65"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4220,12 +4220,12 @@
       <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="68"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="58"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
       <c r="G56" s="58"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
@@ -4253,17 +4253,17 @@
       <c r="S56" s="32"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="67"/>
-      <c r="B57" s="69" t="s">
+      <c r="A57" s="55"/>
+      <c r="B57" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="61" t="s">
+      <c r="C57" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D57" s="63"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="57"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="65"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -4290,12 +4290,12 @@
       <c r="S57" s="31"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="68"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="58"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
       <c r="G58" s="58"/>
       <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
@@ -4323,15 +4323,15 @@
       <c r="S58" s="44"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="70" t="s">
+      <c r="A59" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="B59" s="71"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="114"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="71"/>
       <c r="H59" s="20" t="s">
         <v>18</v>
       </c>
@@ -4375,13 +4375,13 @@
       </c>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="73"/>
-      <c r="B60" s="74"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="115"/>
+      <c r="A60" s="76"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="80"/>
+      <c r="G60" s="72"/>
       <c r="H60" s="7" t="s">
         <v>19</v>
       </c>
@@ -4389,7 +4389,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$61:K$76),2)=0)*K$61:K$76)</f>
-        <v>38</v>
+        <v>28.75</v>
       </c>
       <c r="L60" s="36">
         <f>SUMPRODUCT((MOD(ROW(L$61:L$76),2)=0)*L$61:L$76)</f>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="Q60" s="36">
         <f t="shared" si="15"/>
-        <v>15.25</v>
+        <v>6</v>
       </c>
       <c r="R60" s="36">
         <f t="shared" si="15"/>
@@ -4425,16 +4425,16 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="67">
+      <c r="A61" s="55">
         <v>1</v>
       </c>
-      <c r="B61" s="61" t="s">
+      <c r="B61" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="62"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="69"/>
       <c r="G61" s="53"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
@@ -4453,12 +4453,12 @@
       <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="68"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
+      <c r="A62" s="56"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
       <c r="G62" s="54"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
@@ -4477,17 +4477,17 @@
       <c r="S62" s="32"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="67"/>
-      <c r="B63" s="69" t="s">
+      <c r="A63" s="55"/>
+      <c r="B63" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="61" t="s">
+      <c r="C63" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D63" s="63"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="57"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="65"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4514,12 +4514,12 @@
       <c r="S63" s="31"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="68"/>
+      <c r="A64" s="56"/>
       <c r="B64" s="58"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
       <c r="G64" s="58"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
@@ -4549,17 +4549,17 @@
       <c r="S64" s="32"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="67"/>
-      <c r="B65" s="69" t="s">
+      <c r="A65" s="55"/>
+      <c r="B65" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="61" t="s">
+      <c r="C65" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="D65" s="63"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="57"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="65"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -4588,12 +4588,12 @@
       <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="68"/>
+      <c r="A66" s="56"/>
       <c r="B66" s="58"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
       <c r="G66" s="58"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="K66" s="10">
         <f t="shared" si="16"/>
-        <v>10.5</v>
+        <v>4.5</v>
       </c>
       <c r="L66" s="41"/>
       <c r="M66" s="32"/>
@@ -4618,24 +4618,22 @@
       <c r="P66" s="32">
         <v>1.5</v>
       </c>
-      <c r="Q66" s="32">
-        <v>6</v>
-      </c>
+      <c r="Q66" s="32"/>
       <c r="R66" s="32"/>
       <c r="S66" s="32"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="67"/>
-      <c r="B67" s="69" t="s">
+      <c r="A67" s="55"/>
+      <c r="B67" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="61" t="s">
+      <c r="C67" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D67" s="63"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="57"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="65"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -4662,12 +4660,12 @@
       <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="68"/>
+      <c r="A68" s="56"/>
       <c r="B68" s="58"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
       <c r="G68" s="58"/>
       <c r="H68" s="52" t="str">
         <f>IF(E67="","","実績")</f>
@@ -4697,16 +4695,16 @@
       <c r="S68" s="32"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="67">
+      <c r="A69" s="55">
         <v>2</v>
       </c>
-      <c r="B69" s="61" t="s">
+      <c r="B69" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="62"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="69"/>
       <c r="G69" s="53"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
@@ -4725,12 +4723,12 @@
       <c r="S69" s="31"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="68"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="60"/>
+      <c r="A70" s="56"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="70"/>
       <c r="G70" s="54"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
@@ -4749,17 +4747,17 @@
       <c r="S70" s="32"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="67"/>
-      <c r="B71" s="69" t="s">
+      <c r="A71" s="55"/>
+      <c r="B71" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="61" t="s">
+      <c r="C71" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D71" s="63"/>
-      <c r="E71" s="55"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="57"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="65"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -4786,12 +4784,12 @@
       <c r="S71" s="31"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="68"/>
+      <c r="A72" s="56"/>
       <c r="B72" s="58"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
       <c r="G72" s="58"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
@@ -4805,7 +4803,7 @@
       </c>
       <c r="K72" s="10">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L72" s="41"/>
       <c r="M72" s="32"/>
@@ -4814,24 +4812,22 @@
       <c r="P72" s="32">
         <v>1.5</v>
       </c>
-      <c r="Q72" s="32">
-        <v>1.5</v>
-      </c>
+      <c r="Q72" s="32"/>
       <c r="R72" s="32"/>
       <c r="S72" s="32"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="67"/>
-      <c r="B73" s="69" t="s">
+      <c r="A73" s="55"/>
+      <c r="B73" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="61" t="s">
+      <c r="C73" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D73" s="63"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="57"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="65"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -4858,12 +4854,12 @@
       <c r="S73" s="31"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="68"/>
+      <c r="A74" s="56"/>
       <c r="B74" s="58"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="56"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
       <c r="G74" s="58"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
@@ -4877,7 +4873,7 @@
       </c>
       <c r="K74" s="10">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L74" s="41"/>
       <c r="M74" s="32"/>
@@ -4886,24 +4882,22 @@
       <c r="P74" s="32">
         <v>1.5</v>
       </c>
-      <c r="Q74" s="32">
-        <v>1.5</v>
-      </c>
+      <c r="Q74" s="32"/>
       <c r="R74" s="32"/>
       <c r="S74" s="32"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="67"/>
-      <c r="B75" s="69" t="s">
+      <c r="A75" s="55"/>
+      <c r="B75" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C75" s="61" t="s">
+      <c r="C75" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D75" s="63"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="57"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="65"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -4930,12 +4924,12 @@
       <c r="S75" s="31"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="68"/>
+      <c r="A76" s="56"/>
       <c r="B76" s="58"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
       <c r="G76" s="58"/>
       <c r="H76" s="52" t="str">
         <f>IF(E75="","","実績")</f>
@@ -4949,7 +4943,7 @@
       </c>
       <c r="K76" s="10">
         <f t="shared" si="17"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="L76" s="43"/>
       <c r="M76" s="44"/>
@@ -4958,22 +4952,20 @@
       <c r="P76" s="44">
         <v>0.25</v>
       </c>
-      <c r="Q76" s="44">
-        <v>0.25</v>
-      </c>
+      <c r="Q76" s="44"/>
       <c r="R76" s="44"/>
       <c r="S76" s="44"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="70" t="s">
+      <c r="A77" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="71"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="114"/>
+      <c r="B77" s="74"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="79"/>
+      <c r="G77" s="71"/>
       <c r="H77" s="20" t="s">
         <v>18</v>
       </c>
@@ -5004,8 +4996,8 @@
         <v>16.5</v>
       </c>
       <c r="Q77" s="35">
-        <f>SUMPRODUCT((MOD(ROW(Q$79:Q$84),2)=1)*Q$79:Q$84)</f>
-        <v>9</v>
+        <f>Q7</f>
+        <v>0</v>
       </c>
       <c r="R77" s="35">
         <f t="shared" ref="R77:S77" si="19">SUMPRODUCT((MOD(ROW(R$79:R$84),2)=1)*R$79:R$84)</f>
@@ -5017,13 +5009,13 @@
       </c>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="73"/>
-      <c r="B78" s="74"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="75"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="77"/>
-      <c r="G78" s="115"/>
+      <c r="A78" s="76"/>
+      <c r="B78" s="77"/>
+      <c r="C78" s="77"/>
+      <c r="D78" s="78"/>
+      <c r="E78" s="80"/>
+      <c r="F78" s="80"/>
+      <c r="G78" s="72"/>
       <c r="H78" s="7" t="s">
         <v>19</v>
       </c>
@@ -5031,7 +5023,7 @@
       <c r="J78" s="7"/>
       <c r="K78" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$79:K$84),2)=0)*K$79:K$84)</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L78" s="36">
         <f t="shared" ref="L78:S78" si="20">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=0)*L$79:L$84)</f>
@@ -5059,7 +5051,7 @@
       </c>
       <c r="R78" s="36">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S78" s="36">
         <f t="shared" si="20"/>
@@ -5067,16 +5059,16 @@
       </c>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="67">
+      <c r="A79" s="55">
         <v>1</v>
       </c>
-      <c r="B79" s="61" t="s">
+      <c r="B79" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="62"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="59"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="69"/>
+      <c r="F79" s="69"/>
       <c r="G79" s="53"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
@@ -5095,12 +5087,12 @@
       <c r="S79" s="31"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="68"/>
-      <c r="B80" s="64"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="60"/>
+      <c r="A80" s="56"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="68"/>
+      <c r="D80" s="62"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="70"/>
       <c r="G80" s="54"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
@@ -5119,17 +5111,17 @@
       <c r="S80" s="32"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="67"/>
-      <c r="B81" s="69" t="s">
+      <c r="A81" s="55"/>
+      <c r="B81" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="61" t="s">
+      <c r="C81" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="D81" s="63"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="55"/>
-      <c r="G81" s="57"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="65"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5158,12 +5150,12 @@
       <c r="S81" s="31"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="68"/>
+      <c r="A82" s="56"/>
       <c r="B82" s="58"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="66"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="64"/>
+      <c r="F82" s="64"/>
       <c r="G82" s="58"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
@@ -5173,7 +5165,7 @@
       <c r="J82" s="52"/>
       <c r="K82" s="10">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L82" s="41"/>
       <c r="M82" s="32"/>
@@ -5183,21 +5175,23 @@
       <c r="Q82" s="32">
         <v>3</v>
       </c>
-      <c r="R82" s="32"/>
+      <c r="R82" s="32">
+        <v>6</v>
+      </c>
       <c r="S82" s="32"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="67"/>
-      <c r="B83" s="69" t="s">
+      <c r="A83" s="55"/>
+      <c r="B83" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C83" s="61" t="s">
+      <c r="C83" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="D83" s="63"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="57"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="65"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -5226,12 +5220,12 @@
       <c r="S83" s="31"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="68"/>
+      <c r="A84" s="56"/>
       <c r="B84" s="58"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="62"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="64"/>
       <c r="G84" s="58"/>
       <c r="H84" s="52" t="str">
         <f>IF(E83="","","実績")</f>
@@ -5241,7 +5235,7 @@
       <c r="J84" s="52"/>
       <c r="K84" s="10">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L84" s="41"/>
       <c r="M84" s="32"/>
@@ -5249,19 +5243,21 @@
       <c r="O84" s="32"/>
       <c r="P84" s="32"/>
       <c r="Q84" s="32"/>
-      <c r="R84" s="32"/>
+      <c r="R84" s="32">
+        <v>6</v>
+      </c>
       <c r="S84" s="32"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="70" t="s">
+      <c r="A85" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="B85" s="71"/>
-      <c r="C85" s="71"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="76"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="114"/>
+      <c r="B85" s="74"/>
+      <c r="C85" s="74"/>
+      <c r="D85" s="75"/>
+      <c r="E85" s="79"/>
+      <c r="F85" s="79"/>
+      <c r="G85" s="71"/>
       <c r="H85" s="20" t="s">
         <v>18</v>
       </c>
@@ -5295,23 +5291,20 @@
         <f>SUMPRODUCT((MOD(ROW(Q$87:Q$98),2)=1)*Q$87:Q$98)</f>
         <v>9.25</v>
       </c>
-      <c r="R85" s="35">
-        <f t="shared" ref="R85:S85" si="23">SUMPRODUCT((MOD(ROW(R$87:R$98),2)=1)*R$87:R$98)</f>
-        <v>0</v>
-      </c>
+      <c r="R85" s="35"/>
       <c r="S85" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="R85:S85" si="23">SUMPRODUCT((MOD(ROW(S$87:S$98),2)=1)*S$87:S$98)</f>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="73"/>
-      <c r="B86" s="74"/>
-      <c r="C86" s="74"/>
-      <c r="D86" s="75"/>
-      <c r="E86" s="77"/>
-      <c r="F86" s="77"/>
-      <c r="G86" s="115"/>
+      <c r="A86" s="76"/>
+      <c r="B86" s="77"/>
+      <c r="C86" s="77"/>
+      <c r="D86" s="78"/>
+      <c r="E86" s="80"/>
+      <c r="F86" s="80"/>
+      <c r="G86" s="72"/>
       <c r="H86" s="7" t="s">
         <v>19</v>
       </c>
@@ -5319,7 +5312,7 @@
       <c r="J86" s="7"/>
       <c r="K86" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$87:K$98),2)=0)*K$87:K$98)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="L86" s="37">
         <f>SUMPRODUCT((MOD(ROW(L$87:L$98),2)=0)*L$87:L$98)</f>
@@ -5347,7 +5340,7 @@
       </c>
       <c r="R86" s="36">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="S86" s="36">
         <f t="shared" si="24"/>
@@ -5355,16 +5348,16 @@
       </c>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="67">
+      <c r="A87" s="55">
         <v>1</v>
       </c>
-      <c r="B87" s="61" t="s">
+      <c r="B87" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C87" s="62"/>
-      <c r="D87" s="63"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="59"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="69"/>
+      <c r="F87" s="69"/>
       <c r="G87" s="53"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
@@ -5383,12 +5376,12 @@
       <c r="S87" s="31"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="68"/>
-      <c r="B88" s="64"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="66"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="60"/>
+      <c r="A88" s="56"/>
+      <c r="B88" s="61"/>
+      <c r="C88" s="68"/>
+      <c r="D88" s="62"/>
+      <c r="E88" s="70"/>
+      <c r="F88" s="70"/>
       <c r="G88" s="54"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
@@ -5407,17 +5400,17 @@
       <c r="S88" s="32"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="67"/>
-      <c r="B89" s="69" t="s">
+      <c r="A89" s="55"/>
+      <c r="B89" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="61" t="s">
+      <c r="C89" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="D89" s="63"/>
-      <c r="E89" s="55"/>
-      <c r="F89" s="55"/>
-      <c r="G89" s="57"/>
+      <c r="D89" s="60"/>
+      <c r="E89" s="63"/>
+      <c r="F89" s="63"/>
+      <c r="G89" s="65"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -5444,12 +5437,12 @@
       <c r="S89" s="31"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="68"/>
+      <c r="A90" s="56"/>
       <c r="B90" s="58"/>
-      <c r="C90" s="64"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="56"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="62"/>
+      <c r="E90" s="64"/>
+      <c r="F90" s="64"/>
       <c r="G90" s="58"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
@@ -5467,21 +5460,23 @@
       <c r="O90" s="32"/>
       <c r="P90" s="32"/>
       <c r="Q90" s="32"/>
-      <c r="R90" s="32"/>
+      <c r="R90" s="32">
+        <v>0</v>
+      </c>
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="67"/>
-      <c r="B91" s="69" t="s">
+      <c r="A91" s="55"/>
+      <c r="B91" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C91" s="120" t="s">
+      <c r="C91" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="D91" s="63"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="57"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="63"/>
+      <c r="F91" s="63"/>
+      <c r="G91" s="65"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5502,12 +5497,12 @@
       <c r="S91" s="31"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="68"/>
+      <c r="A92" s="56"/>
       <c r="B92" s="58"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="66"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="56"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="64"/>
       <c r="G92" s="58"/>
       <c r="H92" s="52" t="str">
         <f>IF(E91="","","実績")</f>
@@ -5529,16 +5524,16 @@
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="67">
+      <c r="A93" s="55">
         <v>2</v>
       </c>
-      <c r="B93" s="61" t="s">
+      <c r="B93" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C93" s="62"/>
-      <c r="D93" s="63"/>
-      <c r="E93" s="59"/>
-      <c r="F93" s="59"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="60"/>
+      <c r="E93" s="69"/>
+      <c r="F93" s="69"/>
       <c r="G93" s="53"/>
       <c r="H93" s="23" t="str">
         <f>IF(E93="","","予定")</f>
@@ -5557,12 +5552,12 @@
       <c r="S93" s="31"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="68"/>
-      <c r="B94" s="64"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="60"/>
-      <c r="F94" s="60"/>
+      <c r="A94" s="56"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="68"/>
+      <c r="D94" s="62"/>
+      <c r="E94" s="70"/>
+      <c r="F94" s="70"/>
       <c r="G94" s="54"/>
       <c r="H94" s="24" t="str">
         <f>IF(E93="","","実績")</f>
@@ -5581,17 +5576,17 @@
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="67"/>
-      <c r="B95" s="69" t="s">
+      <c r="A95" s="55"/>
+      <c r="B95" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="61" t="s">
+      <c r="C95" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D95" s="63"/>
-      <c r="E95" s="55"/>
-      <c r="F95" s="55"/>
-      <c r="G95" s="57"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="63"/>
+      <c r="F95" s="63"/>
+      <c r="G95" s="65"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5618,12 +5613,12 @@
       <c r="S95" s="31"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="68"/>
+      <c r="A96" s="56"/>
       <c r="B96" s="58"/>
-      <c r="C96" s="64"/>
-      <c r="D96" s="66"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="56"/>
+      <c r="C96" s="61"/>
+      <c r="D96" s="62"/>
+      <c r="E96" s="64"/>
+      <c r="F96" s="64"/>
       <c r="G96" s="58"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
@@ -5633,7 +5628,7 @@
       <c r="J96" s="52"/>
       <c r="K96" s="10">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L96" s="41"/>
       <c r="M96" s="32"/>
@@ -5641,21 +5636,23 @@
       <c r="O96" s="32"/>
       <c r="P96" s="32"/>
       <c r="Q96" s="32"/>
-      <c r="R96" s="32"/>
+      <c r="R96" s="32">
+        <v>1.5</v>
+      </c>
       <c r="S96" s="32"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="67"/>
-      <c r="B97" s="69" t="s">
+      <c r="A97" s="55"/>
+      <c r="B97" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C97" s="61" t="s">
+      <c r="C97" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D97" s="63"/>
-      <c r="E97" s="55"/>
-      <c r="F97" s="55"/>
-      <c r="G97" s="57"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="63"/>
+      <c r="F97" s="63"/>
+      <c r="G97" s="65"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -5682,12 +5679,12 @@
       <c r="S97" s="31"/>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="68"/>
+      <c r="A98" s="56"/>
       <c r="B98" s="58"/>
-      <c r="C98" s="64"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="56"/>
-      <c r="F98" s="56"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="62"/>
+      <c r="E98" s="64"/>
+      <c r="F98" s="64"/>
       <c r="G98" s="58"/>
       <c r="H98" s="52" t="str">
         <f>IF(E97="","","実績")</f>
@@ -5697,7 +5694,7 @@
       <c r="J98" s="52"/>
       <c r="K98" s="10">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L98" s="43"/>
       <c r="M98" s="44"/>
@@ -5705,19 +5702,21 @@
       <c r="O98" s="44"/>
       <c r="P98" s="44"/>
       <c r="Q98" s="44"/>
-      <c r="R98" s="44"/>
+      <c r="R98" s="44">
+        <v>0.25</v>
+      </c>
       <c r="S98" s="44"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="70" t="s">
+      <c r="A99" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="B99" s="71"/>
-      <c r="C99" s="71"/>
-      <c r="D99" s="72"/>
-      <c r="E99" s="76"/>
-      <c r="F99" s="76"/>
-      <c r="G99" s="114"/>
+      <c r="B99" s="74"/>
+      <c r="C99" s="74"/>
+      <c r="D99" s="75"/>
+      <c r="E99" s="79"/>
+      <c r="F99" s="79"/>
+      <c r="G99" s="71"/>
       <c r="H99" s="20" t="s">
         <v>18</v>
       </c>
@@ -5761,13 +5760,13 @@
       </c>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="73"/>
-      <c r="B100" s="74"/>
-      <c r="C100" s="74"/>
-      <c r="D100" s="75"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="115"/>
+      <c r="A100" s="76"/>
+      <c r="B100" s="77"/>
+      <c r="C100" s="77"/>
+      <c r="D100" s="78"/>
+      <c r="E100" s="80"/>
+      <c r="F100" s="80"/>
+      <c r="G100" s="72"/>
       <c r="H100" s="7" t="s">
         <v>19</v>
       </c>
@@ -5811,16 +5810,16 @@
       </c>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="67">
+      <c r="A101" s="55">
         <v>1</v>
       </c>
-      <c r="B101" s="61" t="s">
+      <c r="B101" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C101" s="62"/>
-      <c r="D101" s="63"/>
-      <c r="E101" s="59"/>
-      <c r="F101" s="59"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="60"/>
+      <c r="E101" s="69"/>
+      <c r="F101" s="69"/>
       <c r="G101" s="53"/>
       <c r="H101" s="23" t="str">
         <f>IF(E101="","","予定")</f>
@@ -5839,12 +5838,12 @@
       <c r="S101" s="31"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="68"/>
-      <c r="B102" s="64"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="66"/>
-      <c r="E102" s="60"/>
-      <c r="F102" s="60"/>
+      <c r="A102" s="56"/>
+      <c r="B102" s="61"/>
+      <c r="C102" s="68"/>
+      <c r="D102" s="62"/>
+      <c r="E102" s="70"/>
+      <c r="F102" s="70"/>
       <c r="G102" s="54"/>
       <c r="H102" s="24" t="str">
         <f>IF(E101="","","実績")</f>
@@ -5863,17 +5862,17 @@
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="67"/>
-      <c r="B103" s="69" t="s">
+      <c r="A103" s="55"/>
+      <c r="B103" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C103" s="61" t="s">
+      <c r="C103" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="D103" s="63"/>
-      <c r="E103" s="55"/>
-      <c r="F103" s="55"/>
-      <c r="G103" s="57"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="63"/>
+      <c r="F103" s="63"/>
+      <c r="G103" s="65"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -5900,12 +5899,12 @@
       <c r="S103" s="31"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="68"/>
+      <c r="A104" s="56"/>
       <c r="B104" s="58"/>
-      <c r="C104" s="64"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="56"/>
+      <c r="C104" s="61"/>
+      <c r="D104" s="62"/>
+      <c r="E104" s="64"/>
+      <c r="F104" s="64"/>
       <c r="G104" s="58"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
@@ -5927,17 +5926,17 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="67"/>
-      <c r="B105" s="69" t="s">
+      <c r="A105" s="55"/>
+      <c r="B105" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C105" s="61" t="s">
+      <c r="C105" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D105" s="63"/>
-      <c r="E105" s="55"/>
-      <c r="F105" s="55"/>
-      <c r="G105" s="57"/>
+      <c r="D105" s="60"/>
+      <c r="E105" s="63"/>
+      <c r="F105" s="63"/>
+      <c r="G105" s="65"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v/>
@@ -5964,12 +5963,12 @@
       <c r="S105" s="31"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="68"/>
+      <c r="A106" s="56"/>
       <c r="B106" s="58"/>
-      <c r="C106" s="64"/>
-      <c r="D106" s="66"/>
-      <c r="E106" s="56"/>
-      <c r="F106" s="56"/>
+      <c r="C106" s="61"/>
+      <c r="D106" s="62"/>
+      <c r="E106" s="64"/>
+      <c r="F106" s="64"/>
       <c r="G106" s="58"/>
       <c r="H106" s="52" t="str">
         <f>IF(E105="","","実績")</f>
@@ -5991,16 +5990,16 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="67">
+      <c r="A107" s="55">
         <v>2</v>
       </c>
-      <c r="B107" s="61" t="s">
+      <c r="B107" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C107" s="62"/>
-      <c r="D107" s="63"/>
-      <c r="E107" s="59"/>
-      <c r="F107" s="59"/>
+      <c r="C107" s="67"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="69"/>
+      <c r="F107" s="69"/>
       <c r="G107" s="53"/>
       <c r="H107" s="23" t="str">
         <f>IF(E107="","","予定")</f>
@@ -6019,12 +6018,12 @@
       <c r="S107" s="31"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="68"/>
-      <c r="B108" s="64"/>
-      <c r="C108" s="65"/>
-      <c r="D108" s="66"/>
-      <c r="E108" s="60"/>
-      <c r="F108" s="60"/>
+      <c r="A108" s="56"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="68"/>
+      <c r="D108" s="62"/>
+      <c r="E108" s="70"/>
+      <c r="F108" s="70"/>
       <c r="G108" s="54"/>
       <c r="H108" s="24" t="str">
         <f>IF(E107="","","実績")</f>
@@ -6043,17 +6042,17 @@
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="67"/>
-      <c r="B109" s="69" t="s">
+      <c r="A109" s="55"/>
+      <c r="B109" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C109" s="61" t="s">
+      <c r="C109" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D109" s="63"/>
-      <c r="E109" s="55"/>
-      <c r="F109" s="55"/>
-      <c r="G109" s="57"/>
+      <c r="D109" s="60"/>
+      <c r="E109" s="63"/>
+      <c r="F109" s="63"/>
+      <c r="G109" s="65"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -6080,12 +6079,12 @@
       <c r="S109" s="31"/>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="68"/>
+      <c r="A110" s="56"/>
       <c r="B110" s="58"/>
-      <c r="C110" s="64"/>
-      <c r="D110" s="66"/>
-      <c r="E110" s="56"/>
-      <c r="F110" s="56"/>
+      <c r="C110" s="61"/>
+      <c r="D110" s="62"/>
+      <c r="E110" s="64"/>
+      <c r="F110" s="64"/>
       <c r="G110" s="58"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
@@ -6107,17 +6106,17 @@
       <c r="S110" s="32"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="67"/>
-      <c r="B111" s="69" t="s">
+      <c r="A111" s="55"/>
+      <c r="B111" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C111" s="61" t="s">
+      <c r="C111" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D111" s="63"/>
-      <c r="E111" s="55"/>
-      <c r="F111" s="55"/>
-      <c r="G111" s="57"/>
+      <c r="D111" s="60"/>
+      <c r="E111" s="63"/>
+      <c r="F111" s="63"/>
+      <c r="G111" s="65"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v/>
@@ -6144,12 +6143,12 @@
       <c r="S111" s="31"/>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="68"/>
+      <c r="A112" s="56"/>
       <c r="B112" s="58"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="66"/>
-      <c r="E112" s="56"/>
-      <c r="F112" s="56"/>
+      <c r="C112" s="61"/>
+      <c r="D112" s="62"/>
+      <c r="E112" s="64"/>
+      <c r="F112" s="64"/>
       <c r="G112" s="58"/>
       <c r="H112" s="52" t="str">
         <f>IF(E111="","","実績")</f>
@@ -6186,95 +6185,208 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="G59:G60"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
@@ -6299,208 +6411,95 @@
     <mergeCell ref="G57:G58"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L9:S18 L25:S36 L101:S112 L87:S98">
@@ -6782,18 +6781,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6815,18 +6814,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>